--- a/SPE/FTICRMS SPE dilutions_JK.xlsx
+++ b/SPE/FTICRMS SPE dilutions_JK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimj704/Library/CloudStorage/OneDrive-PNNL/Desktop/COMPASS/TEMPEST/ionic strength exp/24-04-09_Ionic strength exp/Dilution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimj704/Github/tempest_ionic_strength/SPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE7D49-C6FE-E747-A9AA-CACE14060F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43DDE1E2-69ED-774A-BD4F-FA566823328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-180" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{88C78EEA-1365-A44C-9080-7B0F676A2065}"/>
+    <workbookView xWindow="-38400" yWindow="1500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{88C78EEA-1365-A44C-9080-7B0F676A2065}"/>
   </bookViews>
   <sheets>
     <sheet name="dilutions_calculations_sheet" sheetId="1" r:id="rId1"/>
@@ -1942,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D07A3E-9050-4F42-8C8E-5CEE8C3DD998}">
   <dimension ref="A1:X207"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="E1" zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F33" si="0">C2*D2/1000</f>
+        <f t="shared" ref="F2:F65" si="0">C2*D2/1000</f>
         <v>2.5742726999999992E-3</v>
       </c>
       <c r="G2" s="3">
@@ -2251,7 +2251,7 @@
         <v>0.45</v>
       </c>
       <c r="O4" s="4" t="e">
-        <f t="shared" ref="O4:O5" si="11">(M4*N4)*1000/J4</f>
+        <f t="shared" ref="O4" si="11">(M4*N4)*1000/J4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" s="4" t="e">
@@ -2503,7 +2503,7 @@
         <v>0.45</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" ref="O6:O46" si="19">(M7*N7)*1000/J7</f>
+        <f t="shared" ref="O7:O46" si="19">(M7*N7)*1000/J7</f>
         <v>80.26785833827492</v>
       </c>
       <c r="P7" s="4">
@@ -4731,30 +4731,30 @@
         <v>1</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ref="F34:F66" si="20">C34*D34/1000</f>
+        <f t="shared" si="0"/>
         <v>0.20014875199999999</v>
       </c>
       <c r="G34" s="3">
         <v>25</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" ref="H34:H66" si="21">1/(F34/G34)</f>
+        <f t="shared" ref="H34:H66" si="20">1/(F34/G34)</f>
         <v>124.90709909597639</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34:I66" si="22">(C34*D34/E34)*0.6</f>
+        <f t="shared" ref="I34:I66" si="21">(C34*D34/E34)*0.6</f>
         <v>120.08925119999998</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34:J66" si="23">(C34*D34/E34)*0.45</f>
+        <f t="shared" ref="J34:J66" si="22">(C34*D34/E34)*0.45</f>
         <v>90.066938399999984</v>
       </c>
       <c r="K34" s="35">
-        <f t="shared" ref="K34:K66" si="24">(C34*D34/E34)</f>
+        <f t="shared" ref="K34:K66" si="23">(C34*D34/E34)</f>
         <v>200.14875199999997</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L66" si="25">J34*E34/1000</f>
+        <f t="shared" ref="L34:L66" si="24">J34*E34/1000</f>
         <v>9.0066938399999991E-2</v>
       </c>
       <c r="M34" s="5">
@@ -4815,30 +4815,30 @@
         <v>1</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13394341899999995</v>
+      </c>
+      <c r="G35" s="3">
+        <v>25</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="20"/>
-        <v>0.13394341899999995</v>
-      </c>
-      <c r="G35" s="3">
-        <v>25</v>
-      </c>
-      <c r="H35" s="3">
+        <v>186.64597474550064</v>
+      </c>
+      <c r="I35" s="3">
         <f t="shared" si="21"/>
-        <v>186.64597474550064</v>
-      </c>
-      <c r="I35" s="3">
+        <v>80.366051399999961</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="22"/>
-        <v>80.366051399999961</v>
-      </c>
-      <c r="J35" s="3">
+        <v>60.274538549999981</v>
+      </c>
+      <c r="K35" s="35">
         <f t="shared" si="23"/>
-        <v>60.274538549999981</v>
-      </c>
-      <c r="K35" s="35">
+        <v>133.94341899999995</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="24"/>
-        <v>133.94341899999995</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="25"/>
         <v>6.0274538549999979E-2</v>
       </c>
       <c r="M35" s="5">
@@ -4899,30 +4899,30 @@
         <v>1</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14696990700000001</v>
+      </c>
+      <c r="G36" s="3">
+        <v>25</v>
+      </c>
+      <c r="H36" s="3">
         <f t="shared" si="20"/>
-        <v>0.14696990700000001</v>
-      </c>
-      <c r="G36" s="3">
-        <v>25</v>
-      </c>
-      <c r="H36" s="3">
+        <v>170.10284969425749</v>
+      </c>
+      <c r="I36" s="3">
         <f t="shared" si="21"/>
-        <v>170.10284969425749</v>
-      </c>
-      <c r="I36" s="3">
+        <v>88.181944200000004</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="22"/>
-        <v>88.181944200000004</v>
-      </c>
-      <c r="J36" s="3">
+        <v>66.13645815000001</v>
+      </c>
+      <c r="K36" s="35">
         <f t="shared" si="23"/>
-        <v>66.13645815000001</v>
-      </c>
-      <c r="K36" s="35">
+        <v>146.96990700000001</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="24"/>
-        <v>146.96990700000001</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="25"/>
         <v>6.6136458150000008E-2</v>
       </c>
       <c r="M36" s="5">
@@ -4983,30 +4983,30 @@
         <v>1</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16964159799999998</v>
+      </c>
+      <c r="G37" s="3">
+        <v>25</v>
+      </c>
+      <c r="H37" s="3">
         <f t="shared" si="20"/>
-        <v>0.16964159799999998</v>
-      </c>
-      <c r="G37" s="3">
-        <v>25</v>
-      </c>
-      <c r="H37" s="3">
+        <v>147.36951487570875</v>
+      </c>
+      <c r="I37" s="3">
         <f t="shared" si="21"/>
-        <v>147.36951487570875</v>
-      </c>
-      <c r="I37" s="3">
+        <v>101.78495879999998</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="22"/>
-        <v>101.78495879999998</v>
-      </c>
-      <c r="J37" s="3">
+        <v>76.338719099999992</v>
+      </c>
+      <c r="K37" s="35">
         <f t="shared" si="23"/>
-        <v>76.338719099999992</v>
-      </c>
-      <c r="K37" s="35">
+        <v>169.64159799999999</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="24"/>
-        <v>169.64159799999999</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="25"/>
         <v>7.6338719099999994E-2</v>
       </c>
       <c r="M37" s="5">
@@ -5067,30 +5067,30 @@
         <v>1</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1222740153</v>
+      </c>
+      <c r="G38" s="3">
+        <v>25</v>
+      </c>
+      <c r="H38" s="3">
         <f t="shared" si="20"/>
-        <v>0.1222740153</v>
-      </c>
-      <c r="G38" s="3">
-        <v>25</v>
-      </c>
-      <c r="H38" s="3">
+        <v>204.45881276297632</v>
+      </c>
+      <c r="I38" s="3">
         <f t="shared" si="21"/>
-        <v>204.45881276297632</v>
-      </c>
-      <c r="I38" s="3">
+        <v>73.364409179999996</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="22"/>
-        <v>73.364409179999996</v>
-      </c>
-      <c r="J38" s="3">
+        <v>55.023306885000004</v>
+      </c>
+      <c r="K38" s="35">
         <f t="shared" si="23"/>
-        <v>55.023306885000004</v>
-      </c>
-      <c r="K38" s="35">
+        <v>122.2740153</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="24"/>
-        <v>122.2740153</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="25"/>
         <v>5.5023306885000005E-2</v>
       </c>
       <c r="M38" s="5">
@@ -5151,30 +5151,30 @@
         <v>1</v>
       </c>
       <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1117124105</v>
+      </c>
+      <c r="G39" s="3">
+        <v>25</v>
+      </c>
+      <c r="H39" s="3">
         <f t="shared" si="20"/>
-        <v>0.1117124105</v>
-      </c>
-      <c r="G39" s="3">
-        <v>25</v>
-      </c>
-      <c r="H39" s="3">
+        <v>223.78892271776735</v>
+      </c>
+      <c r="I39" s="3">
         <f t="shared" si="21"/>
-        <v>223.78892271776735</v>
-      </c>
-      <c r="I39" s="3">
+        <v>67.027446299999994</v>
+      </c>
+      <c r="J39" s="3">
         <f t="shared" si="22"/>
-        <v>67.027446299999994</v>
-      </c>
-      <c r="J39" s="3">
+        <v>50.270584725000006</v>
+      </c>
+      <c r="K39" s="35">
         <f t="shared" si="23"/>
-        <v>50.270584725000006</v>
-      </c>
-      <c r="K39" s="35">
+        <v>111.7124105</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="24"/>
-        <v>111.7124105</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="25"/>
         <v>5.0270584725000005E-2</v>
       </c>
       <c r="M39" s="5">
@@ -5235,30 +5235,30 @@
         <v>1</v>
       </c>
       <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11474443519999998</v>
+      </c>
+      <c r="G40" s="3">
+        <v>25</v>
+      </c>
+      <c r="H40" s="3">
         <f t="shared" si="20"/>
-        <v>0.11474443519999998</v>
-      </c>
-      <c r="G40" s="3">
-        <v>25</v>
-      </c>
-      <c r="H40" s="3">
+        <v>217.87548961677234</v>
+      </c>
+      <c r="I40" s="3">
         <f t="shared" si="21"/>
-        <v>217.87548961677234</v>
-      </c>
-      <c r="I40" s="3">
+        <v>68.846661119999993</v>
+      </c>
+      <c r="J40" s="3">
         <f t="shared" si="22"/>
-        <v>68.846661119999993</v>
-      </c>
-      <c r="J40" s="3">
+        <v>51.634995839999995</v>
+      </c>
+      <c r="K40" s="35">
         <f t="shared" si="23"/>
-        <v>51.634995839999995</v>
-      </c>
-      <c r="K40" s="35">
+        <v>114.74443519999998</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="24"/>
-        <v>114.74443519999998</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="25"/>
         <v>5.1634995839999996E-2</v>
       </c>
       <c r="M40" s="5">
@@ -5319,30 +5319,30 @@
         <v>1</v>
       </c>
       <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10985113499999999</v>
+      </c>
+      <c r="G41" s="3">
+        <v>25</v>
+      </c>
+      <c r="H41" s="3">
         <f t="shared" si="20"/>
-        <v>0.10985113499999999</v>
-      </c>
-      <c r="G41" s="3">
-        <v>25</v>
-      </c>
-      <c r="H41" s="3">
+        <v>227.58071639405458</v>
+      </c>
+      <c r="I41" s="3">
         <f t="shared" si="21"/>
-        <v>227.58071639405458</v>
-      </c>
-      <c r="I41" s="3">
+        <v>65.910680999999983</v>
+      </c>
+      <c r="J41" s="3">
         <f t="shared" si="22"/>
-        <v>65.910680999999983</v>
-      </c>
-      <c r="J41" s="3">
+        <v>49.433010749999994</v>
+      </c>
+      <c r="K41" s="35">
         <f t="shared" si="23"/>
-        <v>49.433010749999994</v>
-      </c>
-      <c r="K41" s="35">
+        <v>109.85113499999999</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="24"/>
-        <v>109.85113499999999</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="25"/>
         <v>4.9433010749999992E-2</v>
       </c>
       <c r="M41" s="5">
@@ -5402,28 +5402,31 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>9.898033760000001E-2</v>
+      </c>
       <c r="G42" s="3">
         <v>26</v>
       </c>
-      <c r="H42" s="3" t="e">
-        <f t="shared" ref="H42" si="26">1/(F42/G42)</f>
-        <v>#DIV/0!</v>
+      <c r="H42" s="3">
+        <f t="shared" ref="H42" si="25">1/(F42/G42)</f>
+        <v>262.67843321641692</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" ref="I42" si="27">(C42*D42/E42)*0.6</f>
+        <f t="shared" ref="I42" si="26">(C42*D42/E42)*0.6</f>
         <v>59.388202560000003</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" ref="J42" si="28">(C42*D42/E42)*0.45</f>
+        <f t="shared" ref="J42" si="27">(C42*D42/E42)*0.45</f>
         <v>44.541151920000004</v>
       </c>
       <c r="K42" s="35">
-        <f t="shared" ref="K42" si="29">(C42*D42/E42)</f>
+        <f t="shared" ref="K42" si="28">(C42*D42/E42)</f>
         <v>98.980337600000013</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42" si="30">J42*E42/1000</f>
+        <f t="shared" ref="L42" si="29">J42*E42/1000</f>
         <v>4.4541151920000008E-2</v>
       </c>
       <c r="M42" s="5">
@@ -5484,30 +5487,30 @@
         <v>1</v>
       </c>
       <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4151771199999998E-2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>25</v>
+      </c>
+      <c r="H43" s="3">
         <f t="shared" si="20"/>
-        <v>9.4151771199999998E-2</v>
-      </c>
-      <c r="G43" s="3">
-        <v>25</v>
-      </c>
-      <c r="H43" s="3">
+        <v>265.52872751479367</v>
+      </c>
+      <c r="I43" s="3">
         <f t="shared" si="21"/>
-        <v>265.52872751479367</v>
-      </c>
-      <c r="I43" s="3">
+        <v>56.491062719999995</v>
+      </c>
+      <c r="J43" s="3">
         <f t="shared" si="22"/>
-        <v>56.491062719999995</v>
-      </c>
-      <c r="J43" s="3">
+        <v>42.368297040000002</v>
+      </c>
+      <c r="K43" s="35">
         <f t="shared" si="23"/>
-        <v>42.368297040000002</v>
-      </c>
-      <c r="K43" s="35">
+        <v>94.151771199999999</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="24"/>
-        <v>94.151771199999999</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="25"/>
         <v>4.2368297040000003E-2</v>
       </c>
       <c r="M43" s="5">
@@ -5568,30 +5571,30 @@
         <v>1</v>
       </c>
       <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0495419000000001E-3</v>
+      </c>
+      <c r="G44" s="3">
+        <v>25</v>
+      </c>
+      <c r="H44" s="3">
         <f t="shared" si="20"/>
-        <v>1.0495419000000001E-3</v>
-      </c>
-      <c r="G44" s="3">
-        <v>25</v>
-      </c>
-      <c r="H44" s="3">
+        <v>23819.916098633126</v>
+      </c>
+      <c r="I44" s="3">
         <f t="shared" si="21"/>
-        <v>23819.916098633126</v>
-      </c>
-      <c r="I44" s="3">
+        <v>0.62972514000000002</v>
+      </c>
+      <c r="J44" s="3">
         <f t="shared" si="22"/>
-        <v>0.62972514000000002</v>
-      </c>
-      <c r="J44" s="3">
+        <v>0.4722938550000001</v>
+      </c>
+      <c r="K44" s="35">
         <f t="shared" si="23"/>
-        <v>0.4722938550000001</v>
-      </c>
-      <c r="K44" s="35">
+        <v>1.0495419000000001</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="24"/>
-        <v>1.0495419000000001</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="25"/>
         <v>4.7229385500000009E-4</v>
       </c>
       <c r="M44" s="5">
@@ -5648,30 +5651,30 @@
         <v>1</v>
       </c>
       <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>25</v>
+      </c>
+      <c r="H45" s="3" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>25</v>
-      </c>
-      <c r="H45" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="35">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K45" s="35">
+      <c r="L45">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M45" s="5">
@@ -5729,30 +5732,30 @@
         <v>1</v>
       </c>
       <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>25</v>
+      </c>
+      <c r="H46" s="3" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>25</v>
-      </c>
-      <c r="H46" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="35">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K46" s="35">
+      <c r="L46">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M46" s="5">
@@ -5813,44 +5816,44 @@
         <v>1</v>
       </c>
       <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>7.9342945999999998E-2</v>
+      </c>
+      <c r="G47" s="3">
+        <v>25</v>
+      </c>
+      <c r="H47" s="3">
         <f t="shared" si="20"/>
-        <v>7.9342945999999998E-2</v>
-      </c>
-      <c r="G47" s="3">
-        <v>25</v>
-      </c>
-      <c r="H47" s="3">
+        <v>315.0878718317316</v>
+      </c>
+      <c r="I47" s="3">
         <f t="shared" si="21"/>
+        <v>47.6057676</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="22"/>
+        <v>35.704325699999998</v>
+      </c>
+      <c r="K47" s="35">
+        <f t="shared" si="23"/>
+        <v>79.342945999999998</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="24"/>
+        <v>3.5704325699999998E-2</v>
+      </c>
+      <c r="M47" s="5">
+        <v>25</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" ref="O47:O110" si="30">(M47*N47)*1000/J47</f>
         <v>315.0878718317316</v>
       </c>
-      <c r="I47" s="3">
-        <f t="shared" si="22"/>
-        <v>47.6057676</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="23"/>
-        <v>35.704325699999998</v>
-      </c>
-      <c r="K47" s="35">
-        <f t="shared" si="24"/>
-        <v>79.342945999999998</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="25"/>
-        <v>3.5704325699999998E-2</v>
-      </c>
-      <c r="M47" s="5">
-        <v>25</v>
-      </c>
-      <c r="N47" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O47" s="4">
-        <f t="shared" ref="O47:O110" si="31">(M47*N47)*1000/J47</f>
-        <v>315.0878718317316</v>
-      </c>
       <c r="P47" s="4">
-        <f t="shared" ref="P47:P110" si="32">N47*1000-O47</f>
+        <f t="shared" ref="P47:P110" si="31">N47*1000-O47</f>
         <v>134.9121281682684</v>
       </c>
       <c r="Q47" s="15">
@@ -5897,30 +5900,30 @@
         <v>1</v>
       </c>
       <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>7.670464619999999E-2</v>
+      </c>
+      <c r="G48" s="3">
+        <v>25</v>
+      </c>
+      <c r="H48" s="3">
         <f t="shared" si="20"/>
-        <v>7.670464619999999E-2</v>
-      </c>
-      <c r="G48" s="3">
-        <v>25</v>
-      </c>
-      <c r="H48" s="3">
+        <v>325.92549784813434</v>
+      </c>
+      <c r="I48" s="3">
         <f t="shared" si="21"/>
-        <v>325.92549784813434</v>
-      </c>
-      <c r="I48" s="3">
+        <v>46.02278771999999</v>
+      </c>
+      <c r="J48" s="3">
         <f t="shared" si="22"/>
-        <v>46.02278771999999</v>
-      </c>
-      <c r="J48" s="3">
+        <v>34.517090789999997</v>
+      </c>
+      <c r="K48" s="35">
         <f t="shared" si="23"/>
-        <v>34.517090789999997</v>
-      </c>
-      <c r="K48" s="35">
+        <v>76.704646199999985</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="24"/>
-        <v>76.704646199999985</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="25"/>
         <v>3.4517090789999996E-2</v>
       </c>
       <c r="M48" s="5">
@@ -5930,11 +5933,11 @@
         <v>0.45</v>
       </c>
       <c r="O48" s="4">
+        <f t="shared" si="30"/>
+        <v>325.92549784813428</v>
+      </c>
+      <c r="P48" s="4">
         <f t="shared" si="31"/>
-        <v>325.92549784813428</v>
-      </c>
-      <c r="P48" s="4">
-        <f t="shared" si="32"/>
         <v>124.07450215186572</v>
       </c>
       <c r="Q48" s="15">
@@ -5981,44 +5984,44 @@
         <v>1</v>
       </c>
       <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0765269999999991E-2</v>
+      </c>
+      <c r="G49" s="3">
+        <v>25</v>
+      </c>
+      <c r="H49" s="3">
         <f t="shared" si="20"/>
-        <v>7.0765269999999991E-2</v>
-      </c>
-      <c r="G49" s="3">
-        <v>25</v>
-      </c>
-      <c r="H49" s="3">
+        <v>353.28064176113514</v>
+      </c>
+      <c r="I49" s="3">
         <f t="shared" si="21"/>
+        <v>42.459161999999992</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="22"/>
+        <v>31.844371499999994</v>
+      </c>
+      <c r="K49" s="35">
+        <f t="shared" si="23"/>
+        <v>70.765269999999987</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="24"/>
+        <v>3.1844371499999996E-2</v>
+      </c>
+      <c r="M49" s="5">
+        <v>25</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="30"/>
         <v>353.28064176113514</v>
       </c>
-      <c r="I49" s="3">
-        <f t="shared" si="22"/>
-        <v>42.459161999999992</v>
-      </c>
-      <c r="J49" s="3">
-        <f t="shared" si="23"/>
-        <v>31.844371499999994</v>
-      </c>
-      <c r="K49" s="35">
-        <f t="shared" si="24"/>
-        <v>70.765269999999987</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="25"/>
-        <v>3.1844371499999996E-2</v>
-      </c>
-      <c r="M49" s="5">
-        <v>25</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <f t="shared" si="31"/>
-        <v>353.28064176113514</v>
-      </c>
-      <c r="P49" s="4">
-        <f t="shared" si="32"/>
         <v>96.719358238864857</v>
       </c>
       <c r="Q49" s="15">
@@ -6065,53 +6068,53 @@
         <v>1</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0.305264074</v>
       </c>
       <c r="G50" s="3">
         <v>100</v>
       </c>
       <c r="H50" s="3">
+        <f t="shared" si="20"/>
+        <v>327.58522380199906</v>
+      </c>
+      <c r="I50" s="3">
         <f t="shared" si="21"/>
-        <v>327.58522380199906</v>
-      </c>
-      <c r="I50" s="3">
+        <v>183.15844439999998</v>
+      </c>
+      <c r="J50" s="3">
         <f t="shared" si="22"/>
-        <v>183.15844439999998</v>
-      </c>
-      <c r="J50" s="3">
+        <v>137.36883330000001</v>
+      </c>
+      <c r="K50" s="35">
         <f t="shared" si="23"/>
-        <v>137.36883330000001</v>
-      </c>
-      <c r="K50" s="35">
+        <v>305.26407399999999</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="24"/>
-        <v>305.26407399999999</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="25"/>
         <v>0.13736883329999999</v>
       </c>
       <c r="M50" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N50" s="6">
         <v>0.45</v>
       </c>
       <c r="O50" s="4">
+        <f t="shared" si="30"/>
+        <v>81.896305950499766</v>
+      </c>
+      <c r="P50" s="4">
         <f t="shared" si="31"/>
-        <v>163.79261190099953</v>
-      </c>
-      <c r="P50" s="4">
-        <f t="shared" si="32"/>
-        <v>286.20738809900047</v>
+        <v>368.10369404950023</v>
       </c>
       <c r="Q50" s="15">
         <f t="shared" si="13"/>
-        <v>0.12974012788678171</v>
+        <v>6.4870063943390857E-2</v>
       </c>
       <c r="R50" s="15">
         <f t="shared" si="14"/>
-        <v>226.70487211321827</v>
+        <v>291.57493605660915</v>
       </c>
       <c r="S50">
         <f>'print me lab dilution sheet'!H81</f>
@@ -6149,44 +6152,44 @@
         <v>1</v>
       </c>
       <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29753123199999998</v>
+      </c>
+      <c r="G51" s="3">
+        <v>25</v>
+      </c>
+      <c r="H51" s="3">
         <f t="shared" si="20"/>
-        <v>0.29753123199999998</v>
-      </c>
-      <c r="G51" s="3">
-        <v>25</v>
-      </c>
-      <c r="H51" s="3">
+        <v>84.024792395576142</v>
+      </c>
+      <c r="I51" s="3">
         <f t="shared" si="21"/>
+        <v>178.5187392</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="22"/>
+        <v>133.88905439999999</v>
+      </c>
+      <c r="K51" s="35">
+        <f t="shared" si="23"/>
+        <v>297.53123199999999</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="24"/>
+        <v>0.13388905439999998</v>
+      </c>
+      <c r="M51" s="5">
+        <v>25</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="30"/>
         <v>84.024792395576142</v>
       </c>
-      <c r="I51" s="3">
-        <f t="shared" si="22"/>
-        <v>178.5187392</v>
-      </c>
-      <c r="J51" s="3">
-        <f t="shared" si="23"/>
-        <v>133.88905439999999</v>
-      </c>
-      <c r="K51" s="35">
-        <f t="shared" si="24"/>
-        <v>297.53123199999999</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="25"/>
-        <v>0.13388905439999998</v>
-      </c>
-      <c r="M51" s="5">
-        <v>25</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <f t="shared" si="31"/>
-        <v>84.024792395576142</v>
-      </c>
-      <c r="P51" s="4">
-        <f t="shared" si="32"/>
         <v>365.97520760442387</v>
       </c>
       <c r="Q51" s="15">
@@ -6233,44 +6236,44 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3391352250000001</v>
+      </c>
+      <c r="G52" s="3">
+        <v>25</v>
+      </c>
+      <c r="H52" s="3">
         <f t="shared" si="20"/>
-        <v>0.3391352250000001</v>
-      </c>
-      <c r="G52" s="3">
-        <v>25</v>
-      </c>
-      <c r="H52" s="3">
+        <v>73.71690746663073</v>
+      </c>
+      <c r="I52" s="3">
         <f t="shared" si="21"/>
+        <v>203.48113500000005</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="22"/>
+        <v>152.61085125000005</v>
+      </c>
+      <c r="K52" s="35">
+        <f t="shared" si="23"/>
+        <v>339.1352250000001</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="24"/>
+        <v>0.15261085125000004</v>
+      </c>
+      <c r="M52" s="5">
+        <v>25</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="30"/>
         <v>73.71690746663073</v>
       </c>
-      <c r="I52" s="3">
-        <f t="shared" si="22"/>
-        <v>203.48113500000005</v>
-      </c>
-      <c r="J52" s="3">
-        <f t="shared" si="23"/>
-        <v>152.61085125000005</v>
-      </c>
-      <c r="K52" s="35">
-        <f t="shared" si="24"/>
-        <v>339.1352250000001</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="25"/>
-        <v>0.15261085125000004</v>
-      </c>
-      <c r="M52" s="5">
-        <v>25</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <f t="shared" si="31"/>
-        <v>73.71690746663073</v>
-      </c>
-      <c r="P52" s="4">
-        <f t="shared" si="32"/>
         <v>376.28309253336926</v>
       </c>
       <c r="Q52" s="15">
@@ -6317,44 +6320,44 @@
         <v>1</v>
       </c>
       <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29393635599999995</v>
+      </c>
+      <c r="G53" s="3">
+        <v>25</v>
+      </c>
+      <c r="H53" s="3">
         <f t="shared" si="20"/>
-        <v>0.29393635599999995</v>
-      </c>
-      <c r="G53" s="3">
-        <v>25</v>
-      </c>
-      <c r="H53" s="3">
+        <v>85.052425430490146</v>
+      </c>
+      <c r="I53" s="3">
         <f t="shared" si="21"/>
+        <v>176.36181359999995</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="22"/>
+        <v>132.27136019999998</v>
+      </c>
+      <c r="K53" s="35">
+        <f t="shared" si="23"/>
+        <v>293.93635599999993</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="24"/>
+        <v>0.13227136019999997</v>
+      </c>
+      <c r="M53" s="5">
+        <v>25</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="30"/>
         <v>85.052425430490146</v>
       </c>
-      <c r="I53" s="3">
-        <f t="shared" si="22"/>
-        <v>176.36181359999995</v>
-      </c>
-      <c r="J53" s="3">
-        <f t="shared" si="23"/>
-        <v>132.27136019999998</v>
-      </c>
-      <c r="K53" s="35">
-        <f t="shared" si="24"/>
-        <v>293.93635599999993</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="25"/>
-        <v>0.13227136019999997</v>
-      </c>
-      <c r="M53" s="5">
-        <v>25</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O53" s="4">
+      <c r="P53" s="4">
         <f t="shared" si="31"/>
-        <v>85.052425430490146</v>
-      </c>
-      <c r="P53" s="4">
-        <f t="shared" si="32"/>
         <v>364.94757456950987</v>
       </c>
       <c r="Q53" s="15">
@@ -6401,30 +6404,30 @@
         <v>1</v>
       </c>
       <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28589515499999996</v>
+      </c>
+      <c r="G54" s="3">
+        <v>25</v>
+      </c>
+      <c r="H54" s="3">
         <f t="shared" si="20"/>
-        <v>0.28589515499999996</v>
-      </c>
-      <c r="G54" s="3">
-        <v>25</v>
-      </c>
-      <c r="H54" s="3">
+        <v>87.444643824062013</v>
+      </c>
+      <c r="I54" s="3">
         <f t="shared" si="21"/>
-        <v>87.444643824062013</v>
-      </c>
-      <c r="I54" s="3">
+        <v>171.53709299999994</v>
+      </c>
+      <c r="J54" s="3">
         <f t="shared" si="22"/>
-        <v>171.53709299999994</v>
-      </c>
-      <c r="J54" s="3">
+        <v>128.65281974999996</v>
+      </c>
+      <c r="K54" s="35">
         <f t="shared" si="23"/>
-        <v>128.65281974999996</v>
-      </c>
-      <c r="K54" s="35">
+        <v>285.89515499999993</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="24"/>
-        <v>285.89515499999993</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="25"/>
         <v>0.12865281974999995</v>
       </c>
       <c r="M54" s="5">
@@ -6434,11 +6437,11 @@
         <v>0.45</v>
       </c>
       <c r="O54" s="4">
+        <f t="shared" si="30"/>
+        <v>87.444643824062027</v>
+      </c>
+      <c r="P54" s="4">
         <f t="shared" si="31"/>
-        <v>87.444643824062027</v>
-      </c>
-      <c r="P54" s="4">
-        <f t="shared" si="32"/>
         <v>362.55535617593796</v>
       </c>
       <c r="Q54" s="15">
@@ -6485,44 +6488,44 @@
         <v>1</v>
       </c>
       <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2904671900000001</v>
+      </c>
+      <c r="G55" s="3">
+        <v>25</v>
+      </c>
+      <c r="H55" s="3">
         <f t="shared" si="20"/>
-        <v>0.2904671900000001</v>
-      </c>
-      <c r="G55" s="3">
-        <v>25</v>
-      </c>
-      <c r="H55" s="3">
+        <v>86.068240616091586</v>
+      </c>
+      <c r="I55" s="3">
         <f t="shared" si="21"/>
+        <v>174.28031400000003</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="22"/>
+        <v>130.71023550000004</v>
+      </c>
+      <c r="K55" s="35">
+        <f t="shared" si="23"/>
+        <v>290.46719000000007</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="24"/>
+        <v>0.13071023550000005</v>
+      </c>
+      <c r="M55" s="5">
+        <v>25</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O55" s="4">
+        <f t="shared" si="30"/>
         <v>86.068240616091586</v>
       </c>
-      <c r="I55" s="3">
-        <f t="shared" si="22"/>
-        <v>174.28031400000003</v>
-      </c>
-      <c r="J55" s="3">
-        <f t="shared" si="23"/>
-        <v>130.71023550000004</v>
-      </c>
-      <c r="K55" s="35">
-        <f t="shared" si="24"/>
-        <v>290.46719000000007</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="25"/>
-        <v>0.13071023550000005</v>
-      </c>
-      <c r="M55" s="5">
-        <v>25</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O55" s="4">
+      <c r="P55" s="4">
         <f t="shared" si="31"/>
-        <v>86.068240616091586</v>
-      </c>
-      <c r="P55" s="4">
-        <f t="shared" si="32"/>
         <v>363.9317593839084</v>
       </c>
       <c r="Q55" s="15">
@@ -6569,30 +6572,30 @@
         <v>1</v>
       </c>
       <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20647879999999999</v>
+      </c>
+      <c r="G56" s="3">
+        <v>25</v>
+      </c>
+      <c r="H56" s="3">
         <f t="shared" si="20"/>
-        <v>0.20647879999999999</v>
-      </c>
-      <c r="G56" s="3">
-        <v>25</v>
-      </c>
-      <c r="H56" s="3">
+        <v>121.07780556647948</v>
+      </c>
+      <c r="I56" s="3">
         <f t="shared" si="21"/>
-        <v>121.07780556647948</v>
-      </c>
-      <c r="I56" s="3">
+        <v>123.88727999999998</v>
+      </c>
+      <c r="J56" s="3">
         <f t="shared" si="22"/>
-        <v>123.88727999999998</v>
-      </c>
-      <c r="J56" s="3">
+        <v>92.915459999999996</v>
+      </c>
+      <c r="K56" s="35">
         <f t="shared" si="23"/>
-        <v>92.915459999999996</v>
-      </c>
-      <c r="K56" s="35">
+        <v>206.47879999999998</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="24"/>
-        <v>206.47879999999998</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="25"/>
         <v>9.2915459999999991E-2</v>
       </c>
       <c r="M56" s="5">
@@ -6602,11 +6605,11 @@
         <v>0.45</v>
       </c>
       <c r="O56" s="4">
+        <f t="shared" si="30"/>
+        <v>121.07780556647947</v>
+      </c>
+      <c r="P56" s="4">
         <f t="shared" si="31"/>
-        <v>121.07780556647947</v>
-      </c>
-      <c r="P56" s="4">
-        <f t="shared" si="32"/>
         <v>328.92219443352053</v>
       </c>
       <c r="Q56" s="15">
@@ -6653,30 +6656,30 @@
         <v>1</v>
       </c>
       <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21131606099999994</v>
+      </c>
+      <c r="G57" s="3">
+        <v>25</v>
+      </c>
+      <c r="H57" s="3">
         <f t="shared" si="20"/>
-        <v>0.21131606099999994</v>
-      </c>
-      <c r="G57" s="3">
-        <v>25</v>
-      </c>
-      <c r="H57" s="3">
+        <v>118.30619916770077</v>
+      </c>
+      <c r="I57" s="3">
         <f t="shared" si="21"/>
-        <v>118.30619916770077</v>
-      </c>
-      <c r="I57" s="3">
+        <v>126.78963659999995</v>
+      </c>
+      <c r="J57" s="3">
         <f t="shared" si="22"/>
-        <v>126.78963659999995</v>
-      </c>
-      <c r="J57" s="3">
+        <v>95.092227449999967</v>
+      </c>
+      <c r="K57" s="35">
         <f t="shared" si="23"/>
-        <v>95.092227449999967</v>
-      </c>
-      <c r="K57" s="35">
+        <v>211.31606099999993</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="24"/>
-        <v>211.31606099999993</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="25"/>
         <v>9.5092227449999969E-2</v>
       </c>
       <c r="M57" s="5">
@@ -6686,11 +6689,11 @@
         <v>0.45</v>
       </c>
       <c r="O57" s="4">
+        <f t="shared" si="30"/>
+        <v>118.30619916770078</v>
+      </c>
+      <c r="P57" s="4">
         <f t="shared" si="31"/>
-        <v>118.30619916770078</v>
-      </c>
-      <c r="P57" s="4">
-        <f t="shared" si="32"/>
         <v>331.69380083229919</v>
       </c>
       <c r="Q57" s="15">
@@ -6737,30 +6740,30 @@
         <v>1</v>
       </c>
       <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19593144999999995</v>
+      </c>
+      <c r="G58" s="3">
+        <v>25</v>
+      </c>
+      <c r="H58" s="3">
         <f t="shared" si="20"/>
-        <v>0.19593144999999995</v>
-      </c>
-      <c r="G58" s="3">
-        <v>25</v>
-      </c>
-      <c r="H58" s="3">
+        <v>127.59564633447059</v>
+      </c>
+      <c r="I58" s="3">
         <f t="shared" si="21"/>
-        <v>127.59564633447059</v>
-      </c>
-      <c r="I58" s="3">
+        <v>117.55886999999997</v>
+      </c>
+      <c r="J58" s="3">
         <f t="shared" si="22"/>
-        <v>117.55886999999997</v>
-      </c>
-      <c r="J58" s="3">
+        <v>88.169152499999981</v>
+      </c>
+      <c r="K58" s="35">
         <f t="shared" si="23"/>
-        <v>88.169152499999981</v>
-      </c>
-      <c r="K58" s="35">
+        <v>195.93144999999996</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="24"/>
-        <v>195.93144999999996</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="25"/>
         <v>8.8169152499999986E-2</v>
       </c>
       <c r="M58" s="5">
@@ -6770,11 +6773,11 @@
         <v>0.45</v>
       </c>
       <c r="O58" s="4">
+        <f t="shared" si="30"/>
+        <v>127.59564633447057</v>
+      </c>
+      <c r="P58" s="4">
         <f t="shared" si="31"/>
-        <v>127.59564633447057</v>
-      </c>
-      <c r="P58" s="4">
-        <f t="shared" si="32"/>
         <v>322.40435366552941</v>
       </c>
       <c r="Q58" s="15">
@@ -6821,44 +6824,44 @@
         <v>1</v>
       </c>
       <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16705450000000002</v>
+      </c>
+      <c r="G59" s="3">
+        <v>25</v>
+      </c>
+      <c r="H59" s="3">
         <f t="shared" si="20"/>
-        <v>0.16705450000000002</v>
-      </c>
-      <c r="G59" s="3">
-        <v>25</v>
-      </c>
-      <c r="H59" s="3">
+        <v>149.65176035365701</v>
+      </c>
+      <c r="I59" s="3">
         <f t="shared" si="21"/>
+        <v>100.23270000000001</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="22"/>
+        <v>75.174525000000017</v>
+      </c>
+      <c r="K59" s="35">
+        <f t="shared" si="23"/>
+        <v>167.05450000000002</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="24"/>
+        <v>7.517452500000002E-2</v>
+      </c>
+      <c r="M59" s="5">
+        <v>25</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="30"/>
         <v>149.65176035365701</v>
       </c>
-      <c r="I59" s="3">
-        <f t="shared" si="22"/>
-        <v>100.23270000000001</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="23"/>
-        <v>75.174525000000017</v>
-      </c>
-      <c r="K59" s="35">
-        <f t="shared" si="24"/>
-        <v>167.05450000000002</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="25"/>
-        <v>7.517452500000002E-2</v>
-      </c>
-      <c r="M59" s="5">
-        <v>25</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O59" s="4">
+      <c r="P59" s="4">
         <f t="shared" si="31"/>
-        <v>149.65176035365701</v>
-      </c>
-      <c r="P59" s="4">
-        <f t="shared" si="32"/>
         <v>300.34823964634302</v>
       </c>
       <c r="Q59" s="15">
@@ -6905,44 +6908,44 @@
         <v>1</v>
       </c>
       <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18225070500000004</v>
+      </c>
+      <c r="G60" s="3">
+        <v>25</v>
+      </c>
+      <c r="H60" s="3">
         <f t="shared" si="20"/>
-        <v>0.18225070500000004</v>
-      </c>
-      <c r="G60" s="3">
-        <v>25</v>
-      </c>
-      <c r="H60" s="3">
+        <v>137.1736806175866</v>
+      </c>
+      <c r="I60" s="3">
         <f t="shared" si="21"/>
+        <v>109.35042300000002</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="22"/>
+        <v>82.012817250000026</v>
+      </c>
+      <c r="K60" s="35">
+        <f t="shared" si="23"/>
+        <v>182.25070500000004</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="24"/>
+        <v>8.2012817250000022E-2</v>
+      </c>
+      <c r="M60" s="5">
+        <v>25</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" si="30"/>
         <v>137.1736806175866</v>
       </c>
-      <c r="I60" s="3">
-        <f t="shared" si="22"/>
-        <v>109.35042300000002</v>
-      </c>
-      <c r="J60" s="3">
-        <f t="shared" si="23"/>
-        <v>82.012817250000026</v>
-      </c>
-      <c r="K60" s="35">
-        <f t="shared" si="24"/>
-        <v>182.25070500000004</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="25"/>
-        <v>8.2012817250000022E-2</v>
-      </c>
-      <c r="M60" s="5">
-        <v>25</v>
-      </c>
-      <c r="N60" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O60" s="4">
+      <c r="P60" s="4">
         <f t="shared" si="31"/>
-        <v>137.1736806175866</v>
-      </c>
-      <c r="P60" s="4">
-        <f t="shared" si="32"/>
         <v>312.82631938241343</v>
       </c>
       <c r="Q60" s="15">
@@ -6989,30 +6992,30 @@
         <v>1</v>
       </c>
       <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16208577000000002</v>
+      </c>
+      <c r="G61" s="3">
+        <v>25</v>
+      </c>
+      <c r="H61" s="3">
         <f t="shared" si="20"/>
-        <v>0.16208577000000002</v>
-      </c>
-      <c r="G61" s="3">
-        <v>25</v>
-      </c>
-      <c r="H61" s="3">
+        <v>154.23932649979082</v>
+      </c>
+      <c r="I61" s="3">
         <f t="shared" si="21"/>
-        <v>154.23932649979082</v>
-      </c>
-      <c r="I61" s="3">
+        <v>97.251462000000018</v>
+      </c>
+      <c r="J61" s="3">
         <f t="shared" si="22"/>
-        <v>97.251462000000018</v>
-      </c>
-      <c r="J61" s="3">
+        <v>72.938596500000017</v>
+      </c>
+      <c r="K61" s="35">
         <f t="shared" si="23"/>
-        <v>72.938596500000017</v>
-      </c>
-      <c r="K61" s="35">
+        <v>162.08577000000002</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="24"/>
-        <v>162.08577000000002</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="25"/>
         <v>7.2938596500000022E-2</v>
       </c>
       <c r="M61" s="5">
@@ -7022,11 +7025,11 @@
         <v>0.45</v>
       </c>
       <c r="O61" s="4">
+        <f t="shared" si="30"/>
+        <v>154.23932649979079</v>
+      </c>
+      <c r="P61" s="4">
         <f t="shared" si="31"/>
-        <v>154.23932649979079</v>
-      </c>
-      <c r="P61" s="4">
-        <f t="shared" si="32"/>
         <v>295.76067350020924</v>
       </c>
       <c r="Q61" s="15">
@@ -7073,30 +7076,30 @@
         <v>1</v>
       </c>
       <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11992446340000001</v>
+      </c>
+      <c r="G62" s="3">
+        <v>25</v>
+      </c>
+      <c r="H62" s="3">
         <f t="shared" si="20"/>
-        <v>0.11992446340000001</v>
-      </c>
-      <c r="G62" s="3">
-        <v>25</v>
-      </c>
-      <c r="H62" s="3">
+        <v>208.4645558647544</v>
+      </c>
+      <c r="I62" s="3">
         <f t="shared" si="21"/>
-        <v>208.4645558647544</v>
-      </c>
-      <c r="I62" s="3">
+        <v>71.954678040000005</v>
+      </c>
+      <c r="J62" s="3">
         <f t="shared" si="22"/>
-        <v>71.954678040000005</v>
-      </c>
-      <c r="J62" s="3">
+        <v>53.966008530000003</v>
+      </c>
+      <c r="K62" s="35">
         <f t="shared" si="23"/>
-        <v>53.966008530000003</v>
-      </c>
-      <c r="K62" s="35">
+        <v>119.92446340000001</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="24"/>
-        <v>119.92446340000001</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="25"/>
         <v>5.3966008530000005E-2</v>
       </c>
       <c r="M62" s="5">
@@ -7106,11 +7109,11 @@
         <v>0.45</v>
       </c>
       <c r="O62" s="4">
+        <f t="shared" si="30"/>
+        <v>208.46455586475443</v>
+      </c>
+      <c r="P62" s="4">
         <f t="shared" si="31"/>
-        <v>208.46455586475443</v>
-      </c>
-      <c r="P62" s="4">
-        <f t="shared" si="32"/>
         <v>241.53544413524557</v>
       </c>
       <c r="Q62" s="15">
@@ -7157,30 +7160,30 @@
         <v>1</v>
       </c>
       <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1213966056</v>
+      </c>
+      <c r="G63" s="3">
+        <v>25</v>
+      </c>
+      <c r="H63" s="3">
         <f t="shared" si="20"/>
-        <v>0.1213966056</v>
-      </c>
-      <c r="G63" s="3">
-        <v>25</v>
-      </c>
-      <c r="H63" s="3">
+        <v>205.93656533012651</v>
+      </c>
+      <c r="I63" s="3">
         <f t="shared" si="21"/>
-        <v>205.93656533012651</v>
-      </c>
-      <c r="I63" s="3">
+        <v>72.837963360000003</v>
+      </c>
+      <c r="J63" s="3">
         <f t="shared" si="22"/>
-        <v>72.837963360000003</v>
-      </c>
-      <c r="J63" s="3">
+        <v>54.628472520000003</v>
+      </c>
+      <c r="K63" s="35">
         <f t="shared" si="23"/>
-        <v>54.628472520000003</v>
-      </c>
-      <c r="K63" s="35">
+        <v>121.3966056</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="24"/>
-        <v>121.3966056</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="25"/>
         <v>5.4628472520000006E-2</v>
       </c>
       <c r="M63" s="5">
@@ -7190,11 +7193,11 @@
         <v>0.45</v>
       </c>
       <c r="O63" s="4">
+        <f t="shared" si="30"/>
+        <v>205.93656533012648</v>
+      </c>
+      <c r="P63" s="4">
         <f t="shared" si="31"/>
-        <v>205.93656533012648</v>
-      </c>
-      <c r="P63" s="4">
-        <f t="shared" si="32"/>
         <v>244.06343466987352</v>
       </c>
       <c r="Q63" s="15">
@@ -7241,44 +7244,44 @@
         <v>1</v>
       </c>
       <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12067875680000004</v>
+      </c>
+      <c r="G64" s="3">
+        <v>25</v>
+      </c>
+      <c r="H64" s="3">
         <f t="shared" si="20"/>
-        <v>0.12067875680000004</v>
-      </c>
-      <c r="G64" s="3">
-        <v>25</v>
-      </c>
-      <c r="H64" s="3">
+        <v>207.16156399781534</v>
+      </c>
+      <c r="I64" s="3">
         <f t="shared" si="21"/>
+        <v>72.407254080000016</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="22"/>
+        <v>54.305440560000015</v>
+      </c>
+      <c r="K64" s="35">
+        <f t="shared" si="23"/>
+        <v>120.67875680000003</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="24"/>
+        <v>5.4305440560000015E-2</v>
+      </c>
+      <c r="M64" s="5">
+        <v>25</v>
+      </c>
+      <c r="N64" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O64" s="4">
+        <f t="shared" si="30"/>
         <v>207.16156399781534</v>
       </c>
-      <c r="I64" s="3">
-        <f t="shared" si="22"/>
-        <v>72.407254080000016</v>
-      </c>
-      <c r="J64" s="3">
-        <f t="shared" si="23"/>
-        <v>54.305440560000015</v>
-      </c>
-      <c r="K64" s="35">
-        <f t="shared" si="24"/>
-        <v>120.67875680000003</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="25"/>
-        <v>5.4305440560000015E-2</v>
-      </c>
-      <c r="M64" s="5">
-        <v>25</v>
-      </c>
-      <c r="N64" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O64" s="4">
+      <c r="P64" s="4">
         <f t="shared" si="31"/>
-        <v>207.16156399781534</v>
-      </c>
-      <c r="P64" s="4">
-        <f t="shared" si="32"/>
         <v>242.83843600218466</v>
       </c>
       <c r="Q64" s="15">
@@ -7325,30 +7328,30 @@
         <v>1</v>
       </c>
       <c r="F65" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8566598600000003E-3</v>
+      </c>
+      <c r="G65" s="3">
+        <v>25</v>
+      </c>
+      <c r="H65" s="3">
         <f t="shared" si="20"/>
-        <v>1.8566598600000003E-3</v>
-      </c>
-      <c r="G65" s="3">
-        <v>25</v>
-      </c>
-      <c r="H65" s="3">
+        <v>13465.040387095994</v>
+      </c>
+      <c r="I65" s="3">
         <f t="shared" si="21"/>
-        <v>13465.040387095994</v>
-      </c>
-      <c r="I65" s="3">
+        <v>1.1139959160000001</v>
+      </c>
+      <c r="J65" s="3">
         <f t="shared" si="22"/>
-        <v>1.1139959160000001</v>
-      </c>
-      <c r="J65" s="3">
+        <v>0.83549693700000016</v>
+      </c>
+      <c r="K65" s="35">
         <f t="shared" si="23"/>
-        <v>0.83549693700000016</v>
-      </c>
-      <c r="K65" s="35">
+        <v>1.8566598600000004</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="24"/>
-        <v>1.8566598600000004</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="25"/>
         <v>8.3549693700000018E-4</v>
       </c>
       <c r="M65" s="5">
@@ -7361,7 +7364,7 @@
         <v>450</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q65" s="15">
@@ -7405,32 +7408,32 @@
         <v>1</v>
       </c>
       <c r="F66" s="3">
+        <f t="shared" ref="F66:F127" si="32">C66*D66/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>25</v>
+      </c>
+      <c r="H66" s="3" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>25</v>
-      </c>
-      <c r="H66" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="35">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K66" s="35">
+      <c r="L66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
       <c r="M66" s="5">
         <v>25</v>
       </c>
@@ -7438,11 +7441,11 @@
         <v>0.45</v>
       </c>
       <c r="O66" s="4" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P66" s="4" t="e">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P66" s="4" t="e">
-        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="15" t="e">
@@ -7486,30 +7489,30 @@
         <v>1</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" ref="F67:F98" si="33">C67*D67/1000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G67" s="3">
         <v>25</v>
       </c>
       <c r="H67" s="3" t="e">
-        <f t="shared" ref="H67:H98" si="34">1/(F67/G67)</f>
+        <f t="shared" ref="H67:H98" si="33">1/(F67/G67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" ref="I67:I98" si="35">(C67*D67/E67)*0.6</f>
+        <f t="shared" ref="I67:I98" si="34">(C67*D67/E67)*0.6</f>
         <v>0</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" ref="J67:J98" si="36">(C67*D67/E67)*0.45</f>
+        <f t="shared" ref="J67:J98" si="35">(C67*D67/E67)*0.45</f>
         <v>0</v>
       </c>
       <c r="K67" s="35">
-        <f t="shared" ref="K67:K98" si="37">(C67*D67/E67)</f>
+        <f t="shared" ref="K67:K98" si="36">(C67*D67/E67)</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L98" si="38">J67*E67/1000</f>
+        <f t="shared" ref="L67:L98" si="37">J67*E67/1000</f>
         <v>0</v>
       </c>
       <c r="M67" s="5">
@@ -7519,11 +7522,11 @@
         <v>0.45</v>
       </c>
       <c r="O67" s="4" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P67" s="4" t="e">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P67" s="4" t="e">
-        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q67" s="15" t="e">
@@ -7570,52 +7573,52 @@
         <v>1</v>
       </c>
       <c r="F68" s="3">
+        <f t="shared" si="32"/>
+        <v>6.8367549999999999E-2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>25</v>
+      </c>
+      <c r="H68" s="3">
         <f t="shared" si="33"/>
-        <v>6.8367549999999999E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>25</v>
-      </c>
-      <c r="H68" s="3">
+        <v>365.67055569491669</v>
+      </c>
+      <c r="I68" s="3">
         <f t="shared" si="34"/>
+        <v>41.020529999999994</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="35"/>
+        <v>30.765397499999999</v>
+      </c>
+      <c r="K68" s="35">
+        <f t="shared" si="36"/>
+        <v>68.367549999999994</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="37"/>
+        <v>3.07653975E-2</v>
+      </c>
+      <c r="M68" s="5">
+        <v>25</v>
+      </c>
+      <c r="N68" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" si="30"/>
         <v>365.67055569491669</v>
       </c>
-      <c r="I68" s="3">
-        <f t="shared" si="35"/>
-        <v>41.020529999999994</v>
-      </c>
-      <c r="J68" s="3">
-        <f t="shared" si="36"/>
-        <v>30.765397499999999</v>
-      </c>
-      <c r="K68" s="35">
-        <f t="shared" si="37"/>
-        <v>68.367549999999994</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="38"/>
-        <v>3.07653975E-2</v>
-      </c>
-      <c r="M68" s="5">
-        <v>25</v>
-      </c>
-      <c r="N68" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O68" s="4">
+      <c r="P68" s="4">
         <f t="shared" si="31"/>
-        <v>365.67055569491669</v>
-      </c>
-      <c r="P68" s="4">
-        <f t="shared" si="32"/>
         <v>84.329444305083314</v>
       </c>
       <c r="Q68" s="15">
-        <f t="shared" ref="Q68:Q98" si="39">O68*0.7921/1000</f>
+        <f t="shared" ref="Q68:Q98" si="38">O68*0.7921/1000</f>
         <v>0.28964764716594349</v>
       </c>
       <c r="R68" s="15">
-        <f t="shared" ref="R68:R98" si="40">P68*0.7921</f>
+        <f t="shared" ref="R68:R98" si="39">P68*0.7921</f>
         <v>66.797352834056497</v>
       </c>
       <c r="S68">
@@ -7627,15 +7630,15 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U98" si="41">(S68/0.792)*1000</f>
+        <f t="shared" ref="U68:U98" si="40">(S68/0.792)*1000</f>
         <v>0</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V98" si="42">(T68/0.792)*1000</f>
+        <f t="shared" ref="V68:V98" si="41">(T68/0.792)*1000</f>
         <v>0</v>
       </c>
       <c r="W68" s="18" t="e">
-        <f t="shared" ref="W68:W98" si="43">((U68*I68)/(U68+V68))</f>
+        <f t="shared" ref="W68:W98" si="42">((U68*I68)/(U68+V68))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7654,52 +7657,52 @@
         <v>1</v>
       </c>
       <c r="F69" s="3">
+        <f t="shared" si="32"/>
+        <v>7.4678207999999996E-2</v>
+      </c>
+      <c r="G69" s="3">
+        <v>25</v>
+      </c>
+      <c r="H69" s="3">
         <f t="shared" si="33"/>
-        <v>7.4678207999999996E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>25</v>
-      </c>
-      <c r="H69" s="3">
+        <v>334.76968274332455</v>
+      </c>
+      <c r="I69" s="3">
         <f t="shared" si="34"/>
+        <v>44.806924799999997</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="35"/>
+        <v>33.6051936</v>
+      </c>
+      <c r="K69" s="35">
+        <f t="shared" si="36"/>
+        <v>74.678207999999998</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="37"/>
+        <v>3.36051936E-2</v>
+      </c>
+      <c r="M69" s="5">
+        <v>25</v>
+      </c>
+      <c r="N69" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="30"/>
         <v>334.76968274332455</v>
       </c>
-      <c r="I69" s="3">
-        <f t="shared" si="35"/>
-        <v>44.806924799999997</v>
-      </c>
-      <c r="J69" s="3">
-        <f t="shared" si="36"/>
-        <v>33.6051936</v>
-      </c>
-      <c r="K69" s="35">
-        <f t="shared" si="37"/>
-        <v>74.678207999999998</v>
-      </c>
-      <c r="L69">
+      <c r="P69" s="4">
+        <f t="shared" si="31"/>
+        <v>115.23031725667545</v>
+      </c>
+      <c r="Q69" s="15">
         <f t="shared" si="38"/>
-        <v>3.36051936E-2</v>
-      </c>
-      <c r="M69" s="5">
-        <v>25</v>
-      </c>
-      <c r="N69" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O69" s="4">
-        <f t="shared" si="31"/>
-        <v>334.76968274332455</v>
-      </c>
-      <c r="P69" s="4">
-        <f t="shared" si="32"/>
-        <v>115.23031725667545</v>
-      </c>
-      <c r="Q69" s="15">
+        <v>0.26517106570098742</v>
+      </c>
+      <c r="R69" s="15">
         <f t="shared" si="39"/>
-        <v>0.26517106570098742</v>
-      </c>
-      <c r="R69" s="15">
-        <f t="shared" si="40"/>
         <v>91.273934299012623</v>
       </c>
       <c r="S69">
@@ -7711,15 +7714,15 @@
         <v>0</v>
       </c>
       <c r="U69">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V69">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V69">
+      <c r="W69" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7738,52 +7741,52 @@
         <v>1</v>
       </c>
       <c r="F70" s="3">
+        <f t="shared" si="32"/>
+        <v>7.4321131499999998E-2</v>
+      </c>
+      <c r="G70" s="3">
+        <v>25</v>
+      </c>
+      <c r="H70" s="3">
         <f t="shared" si="33"/>
-        <v>7.4321131499999998E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <v>25</v>
-      </c>
-      <c r="H70" s="3">
+        <v>336.37808649347596</v>
+      </c>
+      <c r="I70" s="3">
         <f t="shared" si="34"/>
+        <v>44.592678899999996</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="35"/>
+        <v>33.444509175</v>
+      </c>
+      <c r="K70" s="35">
+        <f t="shared" si="36"/>
+        <v>74.321131499999993</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="37"/>
+        <v>3.3444509174999998E-2</v>
+      </c>
+      <c r="M70" s="5">
+        <v>25</v>
+      </c>
+      <c r="N70" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" si="30"/>
         <v>336.37808649347596</v>
       </c>
-      <c r="I70" s="3">
-        <f t="shared" si="35"/>
-        <v>44.592678899999996</v>
-      </c>
-      <c r="J70" s="3">
-        <f t="shared" si="36"/>
-        <v>33.444509175</v>
-      </c>
-      <c r="K70" s="35">
-        <f t="shared" si="37"/>
-        <v>74.321131499999993</v>
-      </c>
-      <c r="L70">
+      <c r="P70" s="4">
+        <f t="shared" si="31"/>
+        <v>113.62191350652404</v>
+      </c>
+      <c r="Q70" s="15">
         <f t="shared" si="38"/>
-        <v>3.3444509174999998E-2</v>
-      </c>
-      <c r="M70" s="5">
-        <v>25</v>
-      </c>
-      <c r="N70" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O70" s="4">
-        <f t="shared" si="31"/>
-        <v>336.37808649347596</v>
-      </c>
-      <c r="P70" s="4">
-        <f t="shared" si="32"/>
-        <v>113.62191350652404</v>
-      </c>
-      <c r="Q70" s="15">
+        <v>0.26644508231148234</v>
+      </c>
+      <c r="R70" s="15">
         <f t="shared" si="39"/>
-        <v>0.26644508231148234</v>
-      </c>
-      <c r="R70" s="15">
-        <f t="shared" si="40"/>
         <v>89.999917688517698</v>
       </c>
       <c r="S70">
@@ -7795,15 +7798,15 @@
         <v>0</v>
       </c>
       <c r="U70">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V70">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V70">
+      <c r="W70" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7822,52 +7825,52 @@
         <v>1</v>
       </c>
       <c r="F71" s="3">
+        <f t="shared" si="32"/>
+        <v>0.328464486</v>
+      </c>
+      <c r="G71" s="3">
+        <v>25</v>
+      </c>
+      <c r="H71" s="3">
         <f t="shared" si="33"/>
-        <v>0.328464486</v>
-      </c>
-      <c r="G71" s="3">
-        <v>25</v>
-      </c>
-      <c r="H71" s="3">
+        <v>76.111729168796657</v>
+      </c>
+      <c r="I71" s="3">
         <f t="shared" si="34"/>
-        <v>76.111729168796657</v>
-      </c>
-      <c r="I71" s="3">
+        <v>197.07869160000001</v>
+      </c>
+      <c r="J71" s="3">
         <f t="shared" si="35"/>
-        <v>197.07869160000001</v>
-      </c>
-      <c r="J71" s="3">
+        <v>147.80901870000002</v>
+      </c>
+      <c r="K71" s="35">
         <f t="shared" si="36"/>
-        <v>147.80901870000002</v>
-      </c>
-      <c r="K71" s="35">
+        <v>328.46448600000002</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="37"/>
-        <v>328.46448600000002</v>
-      </c>
-      <c r="L71">
+        <v>0.14780901870000002</v>
+      </c>
+      <c r="M71" s="5">
+        <v>25</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="30"/>
+        <v>76.111729168796643</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" si="31"/>
+        <v>373.88827083120339</v>
+      </c>
+      <c r="Q71" s="15">
         <f t="shared" si="38"/>
-        <v>0.14780901870000002</v>
-      </c>
-      <c r="M71" s="5">
-        <v>25</v>
-      </c>
-      <c r="N71" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O71" s="4">
-        <f t="shared" si="31"/>
-        <v>76.111729168796643</v>
-      </c>
-      <c r="P71" s="4">
-        <f t="shared" si="32"/>
-        <v>373.88827083120339</v>
-      </c>
-      <c r="Q71" s="15">
+        <v>6.0288100674603828E-2</v>
+      </c>
+      <c r="R71" s="15">
         <f t="shared" si="39"/>
-        <v>6.0288100674603828E-2</v>
-      </c>
-      <c r="R71" s="15">
-        <f t="shared" si="40"/>
         <v>296.15689932539624</v>
       </c>
       <c r="S71">
@@ -7879,15 +7882,15 @@
         <v>0</v>
       </c>
       <c r="U71">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V71">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V71">
+      <c r="W71" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7906,52 +7909,52 @@
         <v>1</v>
       </c>
       <c r="F72" s="3">
+        <f t="shared" si="32"/>
+        <v>0.29510557800000004</v>
+      </c>
+      <c r="G72" s="3">
+        <v>25</v>
+      </c>
+      <c r="H72" s="3">
         <f t="shared" si="33"/>
-        <v>0.29510557800000004</v>
-      </c>
-      <c r="G72" s="3">
-        <v>25</v>
-      </c>
-      <c r="H72" s="3">
+        <v>84.715443772465719</v>
+      </c>
+      <c r="I72" s="3">
         <f t="shared" si="34"/>
+        <v>177.06334680000001</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="35"/>
+        <v>132.79751010000001</v>
+      </c>
+      <c r="K72" s="35">
+        <f t="shared" si="36"/>
+        <v>295.10557800000004</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="37"/>
+        <v>0.13279751010000002</v>
+      </c>
+      <c r="M72" s="5">
+        <v>25</v>
+      </c>
+      <c r="N72" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="30"/>
         <v>84.715443772465719</v>
       </c>
-      <c r="I72" s="3">
-        <f t="shared" si="35"/>
-        <v>177.06334680000001</v>
-      </c>
-      <c r="J72" s="3">
-        <f t="shared" si="36"/>
-        <v>132.79751010000001</v>
-      </c>
-      <c r="K72" s="35">
-        <f t="shared" si="37"/>
-        <v>295.10557800000004</v>
-      </c>
-      <c r="L72">
+      <c r="P72" s="4">
+        <f t="shared" si="31"/>
+        <v>365.28455622753427</v>
+      </c>
+      <c r="Q72" s="15">
         <f t="shared" si="38"/>
-        <v>0.13279751010000002</v>
-      </c>
-      <c r="M72" s="5">
-        <v>25</v>
-      </c>
-      <c r="N72" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O72" s="4">
-        <f t="shared" si="31"/>
-        <v>84.715443772465719</v>
-      </c>
-      <c r="P72" s="4">
-        <f t="shared" si="32"/>
-        <v>365.28455622753427</v>
-      </c>
-      <c r="Q72" s="15">
+        <v>6.7103103012170096E-2</v>
+      </c>
+      <c r="R72" s="15">
         <f t="shared" si="39"/>
-        <v>6.7103103012170096E-2</v>
-      </c>
-      <c r="R72" s="15">
-        <f t="shared" si="40"/>
         <v>289.3418969878299</v>
       </c>
       <c r="S72">
@@ -7963,15 +7966,15 @@
         <v>0</v>
       </c>
       <c r="U72">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V72">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V72">
+      <c r="W72" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W72" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7990,52 +7993,52 @@
         <v>1</v>
       </c>
       <c r="F73" s="3">
+        <f t="shared" si="32"/>
+        <v>0.30988350000000003</v>
+      </c>
+      <c r="G73" s="3">
+        <v>25</v>
+      </c>
+      <c r="H73" s="3">
         <f t="shared" si="33"/>
-        <v>0.30988350000000003</v>
-      </c>
-      <c r="G73" s="3">
-        <v>25</v>
-      </c>
-      <c r="H73" s="3">
+        <v>80.675479656064283</v>
+      </c>
+      <c r="I73" s="3">
         <f t="shared" si="34"/>
+        <v>185.93010000000001</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="35"/>
+        <v>139.44757500000003</v>
+      </c>
+      <c r="K73" s="35">
+        <f t="shared" si="36"/>
+        <v>309.88350000000003</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="37"/>
+        <v>0.13944757500000002</v>
+      </c>
+      <c r="M73" s="5">
+        <v>25</v>
+      </c>
+      <c r="N73" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" si="30"/>
         <v>80.675479656064283</v>
       </c>
-      <c r="I73" s="3">
-        <f t="shared" si="35"/>
-        <v>185.93010000000001</v>
-      </c>
-      <c r="J73" s="3">
-        <f t="shared" si="36"/>
-        <v>139.44757500000003</v>
-      </c>
-      <c r="K73" s="35">
-        <f t="shared" si="37"/>
-        <v>309.88350000000003</v>
-      </c>
-      <c r="L73">
+      <c r="P73" s="4">
+        <f t="shared" si="31"/>
+        <v>369.32452034393572</v>
+      </c>
+      <c r="Q73" s="15">
         <f t="shared" si="38"/>
-        <v>0.13944757500000002</v>
-      </c>
-      <c r="M73" s="5">
-        <v>25</v>
-      </c>
-      <c r="N73" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O73" s="4">
-        <f t="shared" si="31"/>
-        <v>80.675479656064283</v>
-      </c>
-      <c r="P73" s="4">
-        <f t="shared" si="32"/>
-        <v>369.32452034393572</v>
-      </c>
-      <c r="Q73" s="15">
+        <v>6.3903047435568516E-2</v>
+      </c>
+      <c r="R73" s="15">
         <f t="shared" si="39"/>
-        <v>6.3903047435568516E-2</v>
-      </c>
-      <c r="R73" s="15">
-        <f t="shared" si="40"/>
         <v>292.54195256443148</v>
       </c>
       <c r="S73">
@@ -8047,15 +8050,15 @@
         <v>0</v>
       </c>
       <c r="U73">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V73">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V73">
+      <c r="W73" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8074,52 +8077,52 @@
         <v>1</v>
       </c>
       <c r="F74" s="3">
+        <f t="shared" si="32"/>
+        <v>0.36300873500000003</v>
+      </c>
+      <c r="G74" s="3">
+        <v>25</v>
+      </c>
+      <c r="H74" s="3">
         <f t="shared" si="33"/>
-        <v>0.36300873500000003</v>
-      </c>
-      <c r="G74" s="3">
-        <v>25</v>
-      </c>
-      <c r="H74" s="3">
+        <v>68.868866199597093</v>
+      </c>
+      <c r="I74" s="3">
         <f t="shared" si="34"/>
+        <v>217.805241</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="35"/>
+        <v>163.35393075000002</v>
+      </c>
+      <c r="K74" s="35">
+        <f t="shared" si="36"/>
+        <v>363.008735</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="37"/>
+        <v>0.16335393075000001</v>
+      </c>
+      <c r="M74" s="5">
+        <v>25</v>
+      </c>
+      <c r="N74" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O74" s="4">
+        <f t="shared" si="30"/>
         <v>68.868866199597093</v>
       </c>
-      <c r="I74" s="3">
-        <f t="shared" si="35"/>
-        <v>217.805241</v>
-      </c>
-      <c r="J74" s="3">
-        <f t="shared" si="36"/>
-        <v>163.35393075000002</v>
-      </c>
-      <c r="K74" s="35">
-        <f t="shared" si="37"/>
-        <v>363.008735</v>
-      </c>
-      <c r="L74">
+      <c r="P74" s="4">
+        <f t="shared" si="31"/>
+        <v>381.13113380040289</v>
+      </c>
+      <c r="Q74" s="15">
         <f t="shared" si="38"/>
-        <v>0.16335393075000001</v>
-      </c>
-      <c r="M74" s="5">
-        <v>25</v>
-      </c>
-      <c r="N74" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O74" s="4">
-        <f t="shared" si="31"/>
-        <v>68.868866199597093</v>
-      </c>
-      <c r="P74" s="4">
-        <f t="shared" si="32"/>
-        <v>381.13113380040289</v>
-      </c>
-      <c r="Q74" s="15">
+        <v>5.4551028916700856E-2</v>
+      </c>
+      <c r="R74" s="15">
         <f t="shared" si="39"/>
-        <v>5.4551028916700856E-2</v>
-      </c>
-      <c r="R74" s="15">
-        <f t="shared" si="40"/>
         <v>301.89397108329916</v>
       </c>
       <c r="S74">
@@ -8131,15 +8134,15 @@
         <v>0</v>
       </c>
       <c r="U74">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V74">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V74">
+      <c r="W74" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8158,52 +8161,52 @@
         <v>1</v>
       </c>
       <c r="F75" s="3">
+        <f t="shared" si="32"/>
+        <v>0.40822295399999992</v>
+      </c>
+      <c r="G75" s="3">
+        <v>25</v>
+      </c>
+      <c r="H75" s="3">
         <f t="shared" si="33"/>
-        <v>0.40822295399999992</v>
-      </c>
-      <c r="G75" s="3">
-        <v>25</v>
-      </c>
-      <c r="H75" s="3">
+        <v>61.241044275036046</v>
+      </c>
+      <c r="I75" s="3">
         <f t="shared" si="34"/>
-        <v>61.241044275036046</v>
-      </c>
-      <c r="I75" s="3">
+        <v>244.93377239999992</v>
+      </c>
+      <c r="J75" s="3">
         <f t="shared" si="35"/>
-        <v>244.93377239999992</v>
-      </c>
-      <c r="J75" s="3">
+        <v>183.70032929999996</v>
+      </c>
+      <c r="K75" s="35">
         <f t="shared" si="36"/>
-        <v>183.70032929999996</v>
-      </c>
-      <c r="K75" s="35">
+        <v>408.2229539999999</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="37"/>
-        <v>408.2229539999999</v>
-      </c>
-      <c r="L75">
+        <v>0.18370032929999996</v>
+      </c>
+      <c r="M75" s="5">
+        <v>25</v>
+      </c>
+      <c r="N75" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O75" s="4">
+        <f t="shared" si="30"/>
+        <v>61.241044275036053</v>
+      </c>
+      <c r="P75" s="4">
+        <f t="shared" si="31"/>
+        <v>388.75895572496393</v>
+      </c>
+      <c r="Q75" s="15">
         <f t="shared" si="38"/>
-        <v>0.18370032929999996</v>
-      </c>
-      <c r="M75" s="5">
-        <v>25</v>
-      </c>
-      <c r="N75" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O75" s="4">
-        <f t="shared" si="31"/>
-        <v>61.241044275036053</v>
-      </c>
-      <c r="P75" s="4">
-        <f t="shared" si="32"/>
-        <v>388.75895572496393</v>
-      </c>
-      <c r="Q75" s="15">
+        <v>4.850903117025606E-2</v>
+      </c>
+      <c r="R75" s="15">
         <f t="shared" si="39"/>
-        <v>4.850903117025606E-2</v>
-      </c>
-      <c r="R75" s="15">
-        <f t="shared" si="40"/>
         <v>307.93596882974396</v>
       </c>
       <c r="S75">
@@ -8215,15 +8218,15 @@
         <v>0</v>
       </c>
       <c r="U75">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V75">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V75">
+      <c r="W75" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8242,52 +8245,52 @@
         <v>1</v>
       </c>
       <c r="F76" s="3">
+        <f t="shared" si="32"/>
+        <v>0.42086227000000009</v>
+      </c>
+      <c r="G76" s="3">
+        <v>25</v>
+      </c>
+      <c r="H76" s="3">
         <f t="shared" si="33"/>
-        <v>0.42086227000000009</v>
-      </c>
-      <c r="G76" s="3">
-        <v>25</v>
-      </c>
-      <c r="H76" s="3">
+        <v>59.401856098908539</v>
+      </c>
+      <c r="I76" s="3">
         <f t="shared" si="34"/>
-        <v>59.401856098908539</v>
-      </c>
-      <c r="I76" s="3">
+        <v>252.51736200000005</v>
+      </c>
+      <c r="J76" s="3">
         <f t="shared" si="35"/>
-        <v>252.51736200000005</v>
-      </c>
-      <c r="J76" s="3">
+        <v>189.38802150000004</v>
+      </c>
+      <c r="K76" s="35">
         <f t="shared" si="36"/>
-        <v>189.38802150000004</v>
-      </c>
-      <c r="K76" s="35">
+        <v>420.86227000000008</v>
+      </c>
+      <c r="L76">
         <f t="shared" si="37"/>
-        <v>420.86227000000008</v>
-      </c>
-      <c r="L76">
+        <v>0.18938802150000003</v>
+      </c>
+      <c r="M76" s="5">
+        <v>25</v>
+      </c>
+      <c r="N76" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O76" s="4">
+        <f t="shared" si="30"/>
+        <v>59.401856098908546</v>
+      </c>
+      <c r="P76" s="4">
+        <f t="shared" si="31"/>
+        <v>390.59814390109148</v>
+      </c>
+      <c r="Q76" s="15">
         <f t="shared" si="38"/>
-        <v>0.18938802150000003</v>
-      </c>
-      <c r="M76" s="5">
-        <v>25</v>
-      </c>
-      <c r="N76" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O76" s="4">
-        <f t="shared" si="31"/>
-        <v>59.401856098908546</v>
-      </c>
-      <c r="P76" s="4">
-        <f t="shared" si="32"/>
-        <v>390.59814390109148</v>
-      </c>
-      <c r="Q76" s="15">
+        <v>4.705221021594546E-2</v>
+      </c>
+      <c r="R76" s="15">
         <f t="shared" si="39"/>
-        <v>4.705221021594546E-2</v>
-      </c>
-      <c r="R76" s="15">
-        <f t="shared" si="40"/>
         <v>309.39278978405457</v>
       </c>
       <c r="S76">
@@ -8299,15 +8302,15 @@
         <v>0</v>
       </c>
       <c r="U76">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V76">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V76">
+      <c r="W76" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8326,52 +8329,52 @@
         <v>1</v>
       </c>
       <c r="F77" s="3">
+        <f t="shared" si="32"/>
+        <v>0.28309118399999994</v>
+      </c>
+      <c r="G77" s="3">
+        <v>25</v>
+      </c>
+      <c r="H77" s="3">
         <f t="shared" si="33"/>
-        <v>0.28309118399999994</v>
-      </c>
-      <c r="G77" s="3">
-        <v>25</v>
-      </c>
-      <c r="H77" s="3">
+        <v>88.310768448373878</v>
+      </c>
+      <c r="I77" s="3">
         <f t="shared" si="34"/>
+        <v>169.85471039999996</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="35"/>
+        <v>127.39103279999998</v>
+      </c>
+      <c r="K77" s="35">
+        <f t="shared" si="36"/>
+        <v>283.09118399999994</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="37"/>
+        <v>0.12739103279999997</v>
+      </c>
+      <c r="M77" s="5">
+        <v>25</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O77" s="4">
+        <f t="shared" si="30"/>
         <v>88.310768448373878</v>
       </c>
-      <c r="I77" s="3">
-        <f t="shared" si="35"/>
-        <v>169.85471039999996</v>
-      </c>
-      <c r="J77" s="3">
-        <f t="shared" si="36"/>
-        <v>127.39103279999998</v>
-      </c>
-      <c r="K77" s="35">
-        <f t="shared" si="37"/>
-        <v>283.09118399999994</v>
-      </c>
-      <c r="L77">
+      <c r="P77" s="4">
+        <f t="shared" si="31"/>
+        <v>361.68923155162611</v>
+      </c>
+      <c r="Q77" s="15">
         <f t="shared" si="38"/>
-        <v>0.12739103279999997</v>
-      </c>
-      <c r="M77" s="5">
-        <v>25</v>
-      </c>
-      <c r="N77" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O77" s="4">
-        <f t="shared" si="31"/>
-        <v>88.310768448373878</v>
-      </c>
-      <c r="P77" s="4">
-        <f t="shared" si="32"/>
-        <v>361.68923155162611</v>
-      </c>
-      <c r="Q77" s="15">
+        <v>6.9950959687956948E-2</v>
+      </c>
+      <c r="R77" s="15">
         <f t="shared" si="39"/>
-        <v>6.9950959687956948E-2</v>
-      </c>
-      <c r="R77" s="15">
-        <f t="shared" si="40"/>
         <v>286.49404031204307</v>
       </c>
       <c r="S77">
@@ -8383,15 +8386,15 @@
         <v>0</v>
       </c>
       <c r="U77">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V77">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V77">
+      <c r="W77" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8410,52 +8413,52 @@
         <v>1</v>
       </c>
       <c r="F78" s="3">
+        <f t="shared" si="32"/>
+        <v>0.29352665099999997</v>
+      </c>
+      <c r="G78" s="3">
+        <v>25</v>
+      </c>
+      <c r="H78" s="3">
         <f t="shared" si="33"/>
-        <v>0.29352665099999997</v>
-      </c>
-      <c r="G78" s="3">
-        <v>25</v>
-      </c>
-      <c r="H78" s="3">
+        <v>85.171141750941047</v>
+      </c>
+      <c r="I78" s="3">
         <f t="shared" si="34"/>
+        <v>176.11599059999998</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="35"/>
+        <v>132.08699295</v>
+      </c>
+      <c r="K78" s="35">
+        <f t="shared" si="36"/>
+        <v>293.52665099999996</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="37"/>
+        <v>0.13208699294999998</v>
+      </c>
+      <c r="M78" s="5">
+        <v>25</v>
+      </c>
+      <c r="N78" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O78" s="4">
+        <f t="shared" si="30"/>
         <v>85.171141750941047</v>
       </c>
-      <c r="I78" s="3">
-        <f t="shared" si="35"/>
-        <v>176.11599059999998</v>
-      </c>
-      <c r="J78" s="3">
-        <f t="shared" si="36"/>
-        <v>132.08699295</v>
-      </c>
-      <c r="K78" s="35">
-        <f t="shared" si="37"/>
-        <v>293.52665099999996</v>
-      </c>
-      <c r="L78">
+      <c r="P78" s="4">
+        <f t="shared" si="31"/>
+        <v>364.82885824905895</v>
+      </c>
+      <c r="Q78" s="15">
         <f t="shared" si="38"/>
-        <v>0.13208699294999998</v>
-      </c>
-      <c r="M78" s="5">
-        <v>25</v>
-      </c>
-      <c r="N78" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O78" s="4">
-        <f t="shared" si="31"/>
-        <v>85.171141750941047</v>
-      </c>
-      <c r="P78" s="4">
-        <f t="shared" si="32"/>
-        <v>364.82885824905895</v>
-      </c>
-      <c r="Q78" s="15">
+        <v>6.7464061380920398E-2</v>
+      </c>
+      <c r="R78" s="15">
         <f t="shared" si="39"/>
-        <v>6.7464061380920398E-2</v>
-      </c>
-      <c r="R78" s="15">
-        <f t="shared" si="40"/>
         <v>288.98093861907961</v>
       </c>
       <c r="S78">
@@ -8467,15 +8470,15 @@
         <v>0</v>
       </c>
       <c r="U78">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V78">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V78">
+      <c r="W78" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W78" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8494,52 +8497,52 @@
         <v>1</v>
       </c>
       <c r="F79" s="3">
+        <f t="shared" si="32"/>
+        <v>0.28236780000000011</v>
+      </c>
+      <c r="G79" s="3">
+        <v>25</v>
+      </c>
+      <c r="H79" s="3">
         <f t="shared" si="33"/>
-        <v>0.28236780000000011</v>
-      </c>
-      <c r="G79" s="3">
-        <v>25</v>
-      </c>
-      <c r="H79" s="3">
+        <v>88.537007406651853</v>
+      </c>
+      <c r="I79" s="3">
         <f t="shared" si="34"/>
+        <v>169.42068000000006</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="35"/>
+        <v>127.06551000000005</v>
+      </c>
+      <c r="K79" s="35">
+        <f t="shared" si="36"/>
+        <v>282.3678000000001</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="37"/>
+        <v>0.12706551000000005</v>
+      </c>
+      <c r="M79" s="5">
+        <v>25</v>
+      </c>
+      <c r="N79" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="30"/>
         <v>88.537007406651853</v>
       </c>
-      <c r="I79" s="3">
-        <f t="shared" si="35"/>
-        <v>169.42068000000006</v>
-      </c>
-      <c r="J79" s="3">
-        <f t="shared" si="36"/>
-        <v>127.06551000000005</v>
-      </c>
-      <c r="K79" s="35">
-        <f t="shared" si="37"/>
-        <v>282.3678000000001</v>
-      </c>
-      <c r="L79">
+      <c r="P79" s="4">
+        <f t="shared" si="31"/>
+        <v>361.46299259334813</v>
+      </c>
+      <c r="Q79" s="15">
         <f t="shared" si="38"/>
-        <v>0.12706551000000005</v>
-      </c>
-      <c r="M79" s="5">
-        <v>25</v>
-      </c>
-      <c r="N79" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O79" s="4">
-        <f t="shared" si="31"/>
-        <v>88.537007406651853</v>
-      </c>
-      <c r="P79" s="4">
-        <f t="shared" si="32"/>
-        <v>361.46299259334813</v>
-      </c>
-      <c r="Q79" s="15">
+        <v>7.0130163566808928E-2</v>
+      </c>
+      <c r="R79" s="15">
         <f t="shared" si="39"/>
-        <v>7.0130163566808928E-2</v>
-      </c>
-      <c r="R79" s="15">
-        <f t="shared" si="40"/>
         <v>286.31483643319109</v>
       </c>
       <c r="S79">
@@ -8551,15 +8554,15 @@
         <v>0</v>
       </c>
       <c r="U79">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V79">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V79">
+      <c r="W79" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W79" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8578,52 +8581,52 @@
         <v>1</v>
       </c>
       <c r="F80" s="3">
+        <f t="shared" si="32"/>
+        <v>0.18289742000000003</v>
+      </c>
+      <c r="G80" s="3">
+        <v>25</v>
+      </c>
+      <c r="H80" s="3">
         <f t="shared" si="33"/>
-        <v>0.18289742000000003</v>
-      </c>
-      <c r="G80" s="3">
-        <v>25</v>
-      </c>
-      <c r="H80" s="3">
+        <v>136.68864219079742</v>
+      </c>
+      <c r="I80" s="3">
         <f t="shared" si="34"/>
-        <v>136.68864219079742</v>
-      </c>
-      <c r="I80" s="3">
+        <v>109.73845200000002</v>
+      </c>
+      <c r="J80" s="3">
         <f t="shared" si="35"/>
-        <v>109.73845200000002</v>
-      </c>
-      <c r="J80" s="3">
+        <v>82.303839000000025</v>
+      </c>
+      <c r="K80" s="35">
         <f t="shared" si="36"/>
-        <v>82.303839000000025</v>
-      </c>
-      <c r="K80" s="35">
+        <v>182.89742000000004</v>
+      </c>
+      <c r="L80">
         <f t="shared" si="37"/>
-        <v>182.89742000000004</v>
-      </c>
-      <c r="L80">
+        <v>8.2303839000000031E-2</v>
+      </c>
+      <c r="M80" s="5">
+        <v>25</v>
+      </c>
+      <c r="N80" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O80" s="4">
+        <f t="shared" si="30"/>
+        <v>136.6886421907974</v>
+      </c>
+      <c r="P80" s="4">
+        <f t="shared" si="31"/>
+        <v>313.3113578092026</v>
+      </c>
+      <c r="Q80" s="15">
         <f t="shared" si="38"/>
-        <v>8.2303839000000031E-2</v>
-      </c>
-      <c r="M80" s="5">
-        <v>25</v>
-      </c>
-      <c r="N80" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O80" s="4">
-        <f t="shared" si="31"/>
-        <v>136.6886421907974</v>
-      </c>
-      <c r="P80" s="4">
-        <f t="shared" si="32"/>
-        <v>313.3113578092026</v>
-      </c>
-      <c r="Q80" s="15">
+        <v>0.10827107347933063</v>
+      </c>
+      <c r="R80" s="15">
         <f t="shared" si="39"/>
-        <v>0.10827107347933063</v>
-      </c>
-      <c r="R80" s="15">
-        <f t="shared" si="40"/>
         <v>248.1739265206694</v>
       </c>
       <c r="S80">
@@ -8635,15 +8638,15 @@
         <v>0</v>
       </c>
       <c r="U80">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V80">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V80">
+      <c r="W80" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8662,52 +8665,52 @@
         <v>1</v>
       </c>
       <c r="F81" s="3">
+        <f t="shared" si="32"/>
+        <v>0.20794446400000002</v>
+      </c>
+      <c r="G81" s="3">
+        <v>25</v>
+      </c>
+      <c r="H81" s="3">
         <f t="shared" si="33"/>
-        <v>0.20794446400000002</v>
-      </c>
-      <c r="G81" s="3">
-        <v>25</v>
-      </c>
-      <c r="H81" s="3">
+        <v>120.22440760913932</v>
+      </c>
+      <c r="I81" s="3">
         <f t="shared" si="34"/>
+        <v>124.7666784</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" si="35"/>
+        <v>93.575008800000006</v>
+      </c>
+      <c r="K81" s="35">
+        <f t="shared" si="36"/>
+        <v>207.94446400000001</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="37"/>
+        <v>9.3575008800000012E-2</v>
+      </c>
+      <c r="M81" s="5">
+        <v>25</v>
+      </c>
+      <c r="N81" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O81" s="4">
+        <f t="shared" si="30"/>
         <v>120.22440760913932</v>
       </c>
-      <c r="I81" s="3">
-        <f t="shared" si="35"/>
-        <v>124.7666784</v>
-      </c>
-      <c r="J81" s="3">
-        <f t="shared" si="36"/>
-        <v>93.575008800000006</v>
-      </c>
-      <c r="K81" s="35">
-        <f t="shared" si="37"/>
-        <v>207.94446400000001</v>
-      </c>
-      <c r="L81">
+      <c r="P81" s="4">
+        <f t="shared" si="31"/>
+        <v>329.77559239086065</v>
+      </c>
+      <c r="Q81" s="15">
         <f t="shared" si="38"/>
-        <v>9.3575008800000012E-2</v>
-      </c>
-      <c r="M81" s="5">
-        <v>25</v>
-      </c>
-      <c r="N81" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O81" s="4">
-        <f t="shared" si="31"/>
-        <v>120.22440760913932</v>
-      </c>
-      <c r="P81" s="4">
-        <f t="shared" si="32"/>
-        <v>329.77559239086065</v>
-      </c>
-      <c r="Q81" s="15">
+        <v>9.5229753267199263E-2</v>
+      </c>
+      <c r="R81" s="15">
         <f t="shared" si="39"/>
-        <v>9.5229753267199263E-2</v>
-      </c>
-      <c r="R81" s="15">
-        <f t="shared" si="40"/>
         <v>261.21524673280072</v>
       </c>
       <c r="S81">
@@ -8719,15 +8722,15 @@
         <v>0</v>
       </c>
       <c r="U81">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V81">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V81">
+      <c r="W81" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W81" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8746,52 +8749,52 @@
         <v>1</v>
       </c>
       <c r="F82" s="3">
+        <f t="shared" si="32"/>
+        <v>0.19789710999999993</v>
+      </c>
+      <c r="G82" s="3">
+        <v>25</v>
+      </c>
+      <c r="H82" s="3">
         <f t="shared" si="33"/>
-        <v>0.19789710999999993</v>
-      </c>
-      <c r="G82" s="3">
-        <v>25</v>
-      </c>
-      <c r="H82" s="3">
+        <v>126.32827230271332</v>
+      </c>
+      <c r="I82" s="3">
         <f t="shared" si="34"/>
-        <v>126.32827230271332</v>
-      </c>
-      <c r="I82" s="3">
+        <v>118.73826599999995</v>
+      </c>
+      <c r="J82" s="3">
         <f t="shared" si="35"/>
-        <v>118.73826599999995</v>
-      </c>
-      <c r="J82" s="3">
+        <v>89.053699499999979</v>
+      </c>
+      <c r="K82" s="35">
         <f t="shared" si="36"/>
-        <v>89.053699499999979</v>
-      </c>
-      <c r="K82" s="35">
+        <v>197.89710999999994</v>
+      </c>
+      <c r="L82">
         <f t="shared" si="37"/>
-        <v>197.89710999999994</v>
-      </c>
-      <c r="L82">
+        <v>8.9053699499999986E-2</v>
+      </c>
+      <c r="M82" s="5">
+        <v>25</v>
+      </c>
+      <c r="N82" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O82" s="4">
+        <f t="shared" si="30"/>
+        <v>126.32827230271329</v>
+      </c>
+      <c r="P82" s="4">
+        <f t="shared" si="31"/>
+        <v>323.67172769728671</v>
+      </c>
+      <c r="Q82" s="15">
         <f t="shared" si="38"/>
-        <v>8.9053699499999986E-2</v>
-      </c>
-      <c r="M82" s="5">
-        <v>25</v>
-      </c>
-      <c r="N82" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O82" s="4">
-        <f t="shared" si="31"/>
-        <v>126.32827230271329</v>
-      </c>
-      <c r="P82" s="4">
-        <f t="shared" si="32"/>
-        <v>323.67172769728671</v>
-      </c>
-      <c r="Q82" s="15">
+        <v>0.10006462449097919</v>
+      </c>
+      <c r="R82" s="15">
         <f t="shared" si="39"/>
-        <v>0.10006462449097919</v>
-      </c>
-      <c r="R82" s="15">
-        <f t="shared" si="40"/>
         <v>256.38037550902084</v>
       </c>
       <c r="S82">
@@ -8803,15 +8806,15 @@
         <v>0</v>
       </c>
       <c r="U82">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V82">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V82">
+      <c r="W82" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W82" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8830,52 +8833,52 @@
         <v>1</v>
       </c>
       <c r="F83" s="3">
+        <f t="shared" si="32"/>
+        <v>0.15703176000000002</v>
+      </c>
+      <c r="G83" s="3">
+        <v>25</v>
+      </c>
+      <c r="H83" s="3">
         <f t="shared" si="33"/>
-        <v>0.15703176000000002</v>
-      </c>
-      <c r="G83" s="3">
-        <v>25</v>
-      </c>
-      <c r="H83" s="3">
+        <v>159.20346304467324</v>
+      </c>
+      <c r="I83" s="3">
         <f t="shared" si="34"/>
-        <v>159.20346304467324</v>
-      </c>
-      <c r="I83" s="3">
+        <v>94.219056000000009</v>
+      </c>
+      <c r="J83" s="3">
         <f t="shared" si="35"/>
-        <v>94.219056000000009</v>
-      </c>
-      <c r="J83" s="3">
+        <v>70.664292000000017</v>
+      </c>
+      <c r="K83" s="35">
         <f t="shared" si="36"/>
-        <v>70.664292000000017</v>
-      </c>
-      <c r="K83" s="35">
+        <v>157.03176000000002</v>
+      </c>
+      <c r="L83">
         <f t="shared" si="37"/>
-        <v>157.03176000000002</v>
-      </c>
-      <c r="L83">
+        <v>7.0664292000000017E-2</v>
+      </c>
+      <c r="M83" s="5">
+        <v>25</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O83" s="4">
+        <f t="shared" si="30"/>
+        <v>159.20346304467321</v>
+      </c>
+      <c r="P83" s="4">
+        <f t="shared" si="31"/>
+        <v>290.79653695532681</v>
+      </c>
+      <c r="Q83" s="15">
         <f t="shared" si="38"/>
-        <v>7.0664292000000017E-2</v>
-      </c>
-      <c r="M83" s="5">
-        <v>25</v>
-      </c>
-      <c r="N83" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O83" s="4">
-        <f t="shared" si="31"/>
-        <v>159.20346304467321</v>
-      </c>
-      <c r="P83" s="4">
-        <f t="shared" si="32"/>
-        <v>290.79653695532681</v>
-      </c>
-      <c r="Q83" s="15">
+        <v>0.12610506307768565</v>
+      </c>
+      <c r="R83" s="15">
         <f t="shared" si="39"/>
-        <v>0.12610506307768565</v>
-      </c>
-      <c r="R83" s="15">
-        <f t="shared" si="40"/>
         <v>230.33993692231437</v>
       </c>
       <c r="S83">
@@ -8887,15 +8890,15 @@
         <v>0</v>
       </c>
       <c r="U83">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V83">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V83">
+      <c r="W83" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W83" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8914,52 +8917,52 @@
         <v>1</v>
       </c>
       <c r="F84" s="3">
+        <f t="shared" si="32"/>
+        <v>0.17714566399999998</v>
+      </c>
+      <c r="G84" s="3">
+        <v>25</v>
+      </c>
+      <c r="H84" s="3">
         <f t="shared" si="33"/>
-        <v>0.17714566399999998</v>
-      </c>
-      <c r="G84" s="3">
-        <v>25</v>
-      </c>
-      <c r="H84" s="3">
+        <v>141.12679608121823</v>
+      </c>
+      <c r="I84" s="3">
         <f t="shared" si="34"/>
+        <v>106.28739839999999</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="35"/>
+        <v>79.715548799999993</v>
+      </c>
+      <c r="K84" s="35">
+        <f t="shared" si="36"/>
+        <v>177.14566399999998</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="37"/>
+        <v>7.9715548799999994E-2</v>
+      </c>
+      <c r="M84" s="5">
+        <v>25</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O84" s="4">
+        <f t="shared" si="30"/>
         <v>141.12679608121823</v>
       </c>
-      <c r="I84" s="3">
-        <f t="shared" si="35"/>
-        <v>106.28739839999999</v>
-      </c>
-      <c r="J84" s="3">
-        <f t="shared" si="36"/>
-        <v>79.715548799999993</v>
-      </c>
-      <c r="K84" s="35">
-        <f t="shared" si="37"/>
-        <v>177.14566399999998</v>
-      </c>
-      <c r="L84">
+      <c r="P84" s="4">
+        <f t="shared" si="31"/>
+        <v>308.87320391878177</v>
+      </c>
+      <c r="Q84" s="15">
         <f t="shared" si="38"/>
-        <v>7.9715548799999994E-2</v>
-      </c>
-      <c r="M84" s="5">
-        <v>25</v>
-      </c>
-      <c r="N84" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O84" s="4">
-        <f t="shared" si="31"/>
-        <v>141.12679608121823</v>
-      </c>
-      <c r="P84" s="4">
-        <f t="shared" si="32"/>
-        <v>308.87320391878177</v>
-      </c>
-      <c r="Q84" s="15">
+        <v>0.11178653517593297</v>
+      </c>
+      <c r="R84" s="15">
         <f t="shared" si="39"/>
-        <v>0.11178653517593297</v>
-      </c>
-      <c r="R84" s="15">
-        <f t="shared" si="40"/>
         <v>244.65846482406704</v>
       </c>
       <c r="S84">
@@ -8971,15 +8974,15 @@
         <v>0</v>
       </c>
       <c r="U84">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V84">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V84">
+      <c r="W84" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W84" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8998,52 +9001,52 @@
         <v>1</v>
       </c>
       <c r="F85" s="3">
+        <f t="shared" si="32"/>
+        <v>0.16972324600000005</v>
+      </c>
+      <c r="G85" s="3">
+        <v>25</v>
+      </c>
+      <c r="H85" s="3">
         <f t="shared" si="33"/>
-        <v>0.16972324600000005</v>
-      </c>
-      <c r="G85" s="3">
-        <v>25</v>
-      </c>
-      <c r="H85" s="3">
+        <v>147.29862048478611</v>
+      </c>
+      <c r="I85" s="3">
         <f t="shared" si="34"/>
+        <v>101.83394760000003</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="35"/>
+        <v>76.375460700000019</v>
+      </c>
+      <c r="K85" s="35">
+        <f t="shared" si="36"/>
+        <v>169.72324600000005</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="37"/>
+        <v>7.6375460700000022E-2</v>
+      </c>
+      <c r="M85" s="5">
+        <v>25</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O85" s="4">
+        <f t="shared" si="30"/>
         <v>147.29862048478611</v>
       </c>
-      <c r="I85" s="3">
-        <f t="shared" si="35"/>
-        <v>101.83394760000003</v>
-      </c>
-      <c r="J85" s="3">
-        <f t="shared" si="36"/>
-        <v>76.375460700000019</v>
-      </c>
-      <c r="K85" s="35">
-        <f t="shared" si="37"/>
-        <v>169.72324600000005</v>
-      </c>
-      <c r="L85">
+      <c r="P85" s="4">
+        <f t="shared" si="31"/>
+        <v>302.70137951521389</v>
+      </c>
+      <c r="Q85" s="15">
         <f t="shared" si="38"/>
-        <v>7.6375460700000022E-2</v>
-      </c>
-      <c r="M85" s="5">
-        <v>25</v>
-      </c>
-      <c r="N85" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O85" s="4">
-        <f t="shared" si="31"/>
-        <v>147.29862048478611</v>
-      </c>
-      <c r="P85" s="4">
-        <f t="shared" si="32"/>
-        <v>302.70137951521389</v>
-      </c>
-      <c r="Q85" s="15">
+        <v>0.11667523728599909</v>
+      </c>
+      <c r="R85" s="15">
         <f t="shared" si="39"/>
-        <v>0.11667523728599909</v>
-      </c>
-      <c r="R85" s="15">
-        <f t="shared" si="40"/>
         <v>239.76976271400093</v>
       </c>
       <c r="S85">
@@ -9055,15 +9058,15 @@
         <v>0</v>
       </c>
       <c r="U85">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V85">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V85">
+      <c r="W85" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W85" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9082,30 +9085,30 @@
         <v>1</v>
       </c>
       <c r="F86" s="3">
+        <f t="shared" si="32"/>
+        <v>1.8438422800000007E-3</v>
+      </c>
+      <c r="G86" s="3">
+        <v>25</v>
+      </c>
+      <c r="H86" s="3">
         <f t="shared" si="33"/>
-        <v>1.8438422800000007E-3</v>
-      </c>
-      <c r="G86" s="3">
-        <v>25</v>
-      </c>
-      <c r="H86" s="3">
+        <v>13558.643421496979</v>
+      </c>
+      <c r="I86" s="3">
         <f t="shared" si="34"/>
-        <v>13558.643421496979</v>
-      </c>
-      <c r="I86" s="3">
+        <v>1.1063053680000003</v>
+      </c>
+      <c r="J86" s="3">
         <f t="shared" si="35"/>
-        <v>1.1063053680000003</v>
-      </c>
-      <c r="J86" s="3">
+        <v>0.82972902600000031</v>
+      </c>
+      <c r="K86" s="35">
         <f t="shared" si="36"/>
-        <v>0.82972902600000031</v>
-      </c>
-      <c r="K86" s="35">
+        <v>1.8438422800000007</v>
+      </c>
+      <c r="L86">
         <f t="shared" si="37"/>
-        <v>1.8438422800000007</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="38"/>
         <v>8.297290260000003E-4</v>
       </c>
       <c r="M86" s="5">
@@ -9118,15 +9121,15 @@
         <v>450</v>
       </c>
       <c r="P86" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q86" s="15">
+        <f t="shared" si="38"/>
+        <v>0.35644500000000001</v>
+      </c>
+      <c r="R86" s="15">
         <f t="shared" si="39"/>
-        <v>0.35644500000000001</v>
-      </c>
-      <c r="R86" s="15">
-        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S86">
@@ -9138,15 +9141,15 @@
         <v>0</v>
       </c>
       <c r="U86">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V86">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V86">
+      <c r="W86" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W86" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9162,52 +9165,52 @@
         <v>1</v>
       </c>
       <c r="F87" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>25</v>
+      </c>
+      <c r="H87" s="3" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>25</v>
-      </c>
-      <c r="H87" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I87" s="3">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J87" s="3">
+      <c r="K87" s="35">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K87" s="35">
+      <c r="L87">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L87">
+      <c r="M87" s="5">
+        <v>25</v>
+      </c>
+      <c r="N87" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O87" s="4" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P87" s="4" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q87" s="15" t="e">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="5">
-        <v>25</v>
-      </c>
-      <c r="N87" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O87" s="4" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P87" s="4" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q87" s="15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R87" s="15" t="e">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R87" s="15" t="e">
-        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S87">
@@ -9219,15 +9222,15 @@
         <v>0</v>
       </c>
       <c r="U87">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V87">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V87">
+      <c r="W87" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W87" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9243,52 +9246,52 @@
         <v>1</v>
       </c>
       <c r="F88" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>25</v>
+      </c>
+      <c r="H88" s="3" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
-        <v>25</v>
-      </c>
-      <c r="H88" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88" s="3">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J88" s="3">
+      <c r="K88" s="35">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K88" s="35">
+      <c r="L88">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L88">
+      <c r="M88" s="5">
+        <v>25</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O88" s="4" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P88" s="4" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q88" s="15" t="e">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="5">
-        <v>25</v>
-      </c>
-      <c r="N88" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O88" s="4" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P88" s="4" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q88" s="15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R88" s="15" t="e">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R88" s="15" t="e">
-        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S88">
@@ -9300,15 +9303,15 @@
         <v>0</v>
       </c>
       <c r="U88">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V88">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V88">
+      <c r="W88" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9327,52 +9330,52 @@
         <v>1</v>
       </c>
       <c r="F89" s="3">
+        <f t="shared" si="32"/>
+        <v>7.8016196399999987E-2</v>
+      </c>
+      <c r="G89" s="3">
+        <v>25</v>
+      </c>
+      <c r="H89" s="3">
         <f t="shared" si="33"/>
-        <v>7.8016196399999987E-2</v>
-      </c>
-      <c r="G89" s="3">
-        <v>25</v>
-      </c>
-      <c r="H89" s="3">
+        <v>320.44628107504104</v>
+      </c>
+      <c r="I89" s="3">
         <f t="shared" si="34"/>
+        <v>46.80971783999999</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="35"/>
+        <v>35.107288379999993</v>
+      </c>
+      <c r="K89" s="35">
+        <f t="shared" si="36"/>
+        <v>78.016196399999984</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="37"/>
+        <v>3.510728837999999E-2</v>
+      </c>
+      <c r="M89" s="5">
+        <v>25</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O89" s="4">
+        <f t="shared" si="30"/>
         <v>320.44628107504104</v>
       </c>
-      <c r="I89" s="3">
-        <f t="shared" si="35"/>
-        <v>46.80971783999999</v>
-      </c>
-      <c r="J89" s="3">
-        <f t="shared" si="36"/>
-        <v>35.107288379999993</v>
-      </c>
-      <c r="K89" s="35">
-        <f t="shared" si="37"/>
-        <v>78.016196399999984</v>
-      </c>
-      <c r="L89">
+      <c r="P89" s="4">
+        <f t="shared" si="31"/>
+        <v>129.55371892495896</v>
+      </c>
+      <c r="Q89" s="15">
         <f t="shared" si="38"/>
-        <v>3.510728837999999E-2</v>
-      </c>
-      <c r="M89" s="5">
-        <v>25</v>
-      </c>
-      <c r="N89" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O89" s="4">
-        <f t="shared" si="31"/>
-        <v>320.44628107504104</v>
-      </c>
-      <c r="P89" s="4">
-        <f t="shared" si="32"/>
-        <v>129.55371892495896</v>
-      </c>
-      <c r="Q89" s="15">
+        <v>0.25382549923954001</v>
+      </c>
+      <c r="R89" s="15">
         <f t="shared" si="39"/>
-        <v>0.25382549923954001</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="40"/>
         <v>102.61950076046</v>
       </c>
       <c r="S89">
@@ -9384,15 +9387,15 @@
         <v>0</v>
       </c>
       <c r="U89">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V89">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V89">
+      <c r="W89" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9411,52 +9414,52 @@
         <v>1</v>
       </c>
       <c r="F90" s="3">
+        <f t="shared" si="32"/>
+        <v>7.6585737600000009E-2</v>
+      </c>
+      <c r="G90" s="3">
+        <v>25</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="33"/>
-        <v>7.6585737600000009E-2</v>
-      </c>
-      <c r="G90" s="3">
-        <v>25</v>
-      </c>
-      <c r="H90" s="3">
+        <v>326.43153651627159</v>
+      </c>
+      <c r="I90" s="3">
         <f t="shared" si="34"/>
+        <v>45.951442560000011</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="35"/>
+        <v>34.46358192000001</v>
+      </c>
+      <c r="K90" s="35">
+        <f t="shared" si="36"/>
+        <v>76.585737600000016</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="37"/>
+        <v>3.4463581920000007E-2</v>
+      </c>
+      <c r="M90" s="5">
+        <v>25</v>
+      </c>
+      <c r="N90" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O90" s="4">
+        <f t="shared" si="30"/>
         <v>326.43153651627159</v>
       </c>
-      <c r="I90" s="3">
-        <f t="shared" si="35"/>
-        <v>45.951442560000011</v>
-      </c>
-      <c r="J90" s="3">
-        <f t="shared" si="36"/>
-        <v>34.46358192000001</v>
-      </c>
-      <c r="K90" s="35">
-        <f t="shared" si="37"/>
-        <v>76.585737600000016</v>
-      </c>
-      <c r="L90">
+      <c r="P90" s="4">
+        <f t="shared" si="31"/>
+        <v>123.56846348372841</v>
+      </c>
+      <c r="Q90" s="15">
         <f t="shared" si="38"/>
-        <v>3.4463581920000007E-2</v>
-      </c>
-      <c r="M90" s="5">
-        <v>25</v>
-      </c>
-      <c r="N90" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O90" s="4">
-        <f t="shared" si="31"/>
-        <v>326.43153651627159</v>
-      </c>
-      <c r="P90" s="4">
-        <f t="shared" si="32"/>
-        <v>123.56846348372841</v>
-      </c>
-      <c r="Q90" s="15">
+        <v>0.25856642007453873</v>
+      </c>
+      <c r="R90" s="15">
         <f t="shared" si="39"/>
-        <v>0.25856642007453873</v>
-      </c>
-      <c r="R90" s="15">
-        <f t="shared" si="40"/>
         <v>97.878579925461281</v>
       </c>
       <c r="S90">
@@ -9468,15 +9471,15 @@
         <v>0</v>
       </c>
       <c r="U90">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V90">
+      <c r="W90" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9495,52 +9498,52 @@
         <v>1</v>
       </c>
       <c r="F91" s="3">
+        <f t="shared" si="32"/>
+        <v>8.6572718400000012E-2</v>
+      </c>
+      <c r="G91" s="3">
+        <v>25</v>
+      </c>
+      <c r="H91" s="3">
         <f t="shared" si="33"/>
-        <v>8.6572718400000012E-2</v>
-      </c>
-      <c r="G91" s="3">
-        <v>25</v>
-      </c>
-      <c r="H91" s="3">
+        <v>288.77457543253024</v>
+      </c>
+      <c r="I91" s="3">
         <f t="shared" si="34"/>
-        <v>288.77457543253024</v>
-      </c>
-      <c r="I91" s="3">
+        <v>51.943631040000007</v>
+      </c>
+      <c r="J91" s="3">
         <f t="shared" si="35"/>
-        <v>51.943631040000007</v>
-      </c>
-      <c r="J91" s="3">
+        <v>38.95772328000001</v>
+      </c>
+      <c r="K91" s="35">
         <f t="shared" si="36"/>
-        <v>38.95772328000001</v>
-      </c>
-      <c r="K91" s="35">
+        <v>86.572718400000014</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="37"/>
-        <v>86.572718400000014</v>
-      </c>
-      <c r="L91">
+        <v>3.8957723280000009E-2</v>
+      </c>
+      <c r="M91" s="5">
+        <v>25</v>
+      </c>
+      <c r="N91" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O91" s="4">
+        <f t="shared" si="30"/>
+        <v>288.77457543253018</v>
+      </c>
+      <c r="P91" s="4">
+        <f t="shared" si="31"/>
+        <v>161.22542456746982</v>
+      </c>
+      <c r="Q91" s="15">
         <f t="shared" si="38"/>
-        <v>3.8957723280000009E-2</v>
-      </c>
-      <c r="M91" s="5">
-        <v>25</v>
-      </c>
-      <c r="N91" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O91" s="4">
-        <f t="shared" si="31"/>
-        <v>288.77457543253018</v>
-      </c>
-      <c r="P91" s="4">
-        <f t="shared" si="32"/>
-        <v>161.22542456746982</v>
-      </c>
-      <c r="Q91" s="15">
+        <v>0.22873834120010716</v>
+      </c>
+      <c r="R91" s="15">
         <f t="shared" si="39"/>
-        <v>0.22873834120010716</v>
-      </c>
-      <c r="R91" s="15">
-        <f t="shared" si="40"/>
         <v>127.70665879989285</v>
       </c>
       <c r="S91">
@@ -9552,15 +9555,15 @@
         <v>0</v>
       </c>
       <c r="U91">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V91">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V91">
+      <c r="W91" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W91" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9579,52 +9582,52 @@
         <v>1</v>
       </c>
       <c r="F92" s="3">
+        <f t="shared" si="32"/>
+        <v>0.19756046399999999</v>
+      </c>
+      <c r="G92" s="3">
+        <v>25</v>
+      </c>
+      <c r="H92" s="3">
         <f t="shared" si="33"/>
-        <v>0.19756046399999999</v>
-      </c>
-      <c r="G92" s="3">
-        <v>25</v>
-      </c>
-      <c r="H92" s="3">
+        <v>126.54353757743758</v>
+      </c>
+      <c r="I92" s="3">
         <f t="shared" si="34"/>
-        <v>126.54353757743758</v>
-      </c>
-      <c r="I92" s="3">
+        <v>118.53627839999999</v>
+      </c>
+      <c r="J92" s="3">
         <f t="shared" si="35"/>
-        <v>118.53627839999999</v>
-      </c>
-      <c r="J92" s="3">
+        <v>88.902208799999997</v>
+      </c>
+      <c r="K92" s="35">
         <f t="shared" si="36"/>
-        <v>88.902208799999997</v>
-      </c>
-      <c r="K92" s="35">
+        <v>197.560464</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="37"/>
-        <v>197.560464</v>
-      </c>
-      <c r="L92">
+        <v>8.8902208799999993E-2</v>
+      </c>
+      <c r="M92" s="5">
+        <v>25</v>
+      </c>
+      <c r="N92" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O92" s="4">
+        <f t="shared" si="30"/>
+        <v>126.54353757743756</v>
+      </c>
+      <c r="P92" s="4">
+        <f t="shared" si="31"/>
+        <v>323.45646242256242</v>
+      </c>
+      <c r="Q92" s="15">
         <f t="shared" si="38"/>
-        <v>8.8902208799999993E-2</v>
-      </c>
-      <c r="M92" s="5">
-        <v>25</v>
-      </c>
-      <c r="N92" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O92" s="4">
-        <f t="shared" si="31"/>
-        <v>126.54353757743756</v>
-      </c>
-      <c r="P92" s="4">
-        <f t="shared" si="32"/>
-        <v>323.45646242256242</v>
-      </c>
-      <c r="Q92" s="15">
+        <v>0.10023513611508829</v>
+      </c>
+      <c r="R92" s="15">
         <f t="shared" si="39"/>
-        <v>0.10023513611508829</v>
-      </c>
-      <c r="R92" s="15">
-        <f t="shared" si="40"/>
         <v>256.20986388491173</v>
       </c>
       <c r="S92">
@@ -9636,15 +9639,15 @@
         <v>0</v>
       </c>
       <c r="U92">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V92">
+      <c r="W92" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W92" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9663,52 +9666,52 @@
         <v>1</v>
       </c>
       <c r="F93" s="3">
+        <f t="shared" si="32"/>
+        <v>0.22362359500000004</v>
+      </c>
+      <c r="G93" s="3">
+        <v>25</v>
+      </c>
+      <c r="H93" s="3">
         <f t="shared" si="33"/>
-        <v>0.22362359500000004</v>
-      </c>
-      <c r="G93" s="3">
-        <v>25</v>
-      </c>
-      <c r="H93" s="3">
+        <v>111.7950008808328</v>
+      </c>
+      <c r="I93" s="3">
         <f t="shared" si="34"/>
+        <v>134.17415700000001</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" si="35"/>
+        <v>100.63061775000001</v>
+      </c>
+      <c r="K93" s="35">
+        <f t="shared" si="36"/>
+        <v>223.62359500000002</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="37"/>
+        <v>0.10063061775000001</v>
+      </c>
+      <c r="M93" s="5">
+        <v>25</v>
+      </c>
+      <c r="N93" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O93" s="4">
+        <f t="shared" si="30"/>
         <v>111.7950008808328</v>
       </c>
-      <c r="I93" s="3">
-        <f t="shared" si="35"/>
-        <v>134.17415700000001</v>
-      </c>
-      <c r="J93" s="3">
-        <f t="shared" si="36"/>
-        <v>100.63061775000001</v>
-      </c>
-      <c r="K93" s="35">
-        <f t="shared" si="37"/>
-        <v>223.62359500000002</v>
-      </c>
-      <c r="L93">
+      <c r="P93" s="4">
+        <f t="shared" si="31"/>
+        <v>338.20499911916721</v>
+      </c>
+      <c r="Q93" s="15">
         <f t="shared" si="38"/>
-        <v>0.10063061775000001</v>
-      </c>
-      <c r="M93" s="5">
-        <v>25</v>
-      </c>
-      <c r="N93" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O93" s="4">
-        <f t="shared" si="31"/>
-        <v>111.7950008808328</v>
-      </c>
-      <c r="P93" s="4">
-        <f t="shared" si="32"/>
-        <v>338.20499911916721</v>
-      </c>
-      <c r="Q93" s="15">
+        <v>8.855282019770766E-2</v>
+      </c>
+      <c r="R93" s="15">
         <f t="shared" si="39"/>
-        <v>8.855282019770766E-2</v>
-      </c>
-      <c r="R93" s="15">
-        <f t="shared" si="40"/>
         <v>267.89217980229233</v>
       </c>
       <c r="S93">
@@ -9720,15 +9723,15 @@
         <v>0</v>
       </c>
       <c r="U93">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V93">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V93">
+      <c r="W93" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W93" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9747,52 +9750,52 @@
         <v>1</v>
       </c>
       <c r="F94" s="3">
+        <f t="shared" si="32"/>
+        <v>0.19750786000000004</v>
+      </c>
+      <c r="G94" s="3">
+        <v>25</v>
+      </c>
+      <c r="H94" s="3">
         <f t="shared" si="33"/>
-        <v>0.19750786000000004</v>
-      </c>
-      <c r="G94" s="3">
-        <v>25</v>
-      </c>
-      <c r="H94" s="3">
+        <v>126.57724102726846</v>
+      </c>
+      <c r="I94" s="3">
         <f t="shared" si="34"/>
-        <v>126.57724102726846</v>
-      </c>
-      <c r="I94" s="3">
+        <v>118.504716</v>
+      </c>
+      <c r="J94" s="3">
         <f t="shared" si="35"/>
-        <v>118.504716</v>
-      </c>
-      <c r="J94" s="3">
+        <v>88.878537000000009</v>
+      </c>
+      <c r="K94" s="35">
         <f t="shared" si="36"/>
-        <v>88.878537000000009</v>
-      </c>
-      <c r="K94" s="35">
+        <v>197.50786000000002</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="37"/>
-        <v>197.50786000000002</v>
-      </c>
-      <c r="L94">
+        <v>8.8878537000000007E-2</v>
+      </c>
+      <c r="M94" s="5">
+        <v>25</v>
+      </c>
+      <c r="N94" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O94" s="4">
+        <f t="shared" si="30"/>
+        <v>126.57724102726847</v>
+      </c>
+      <c r="P94" s="4">
+        <f t="shared" si="31"/>
+        <v>323.42275897273151</v>
+      </c>
+      <c r="Q94" s="15">
         <f t="shared" si="38"/>
-        <v>8.8878537000000007E-2</v>
-      </c>
-      <c r="M94" s="5">
-        <v>25</v>
-      </c>
-      <c r="N94" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O94" s="4">
-        <f t="shared" si="31"/>
-        <v>126.57724102726847</v>
-      </c>
-      <c r="P94" s="4">
-        <f t="shared" si="32"/>
-        <v>323.42275897273151</v>
-      </c>
-      <c r="Q94" s="15">
+        <v>0.10026183261769936</v>
+      </c>
+      <c r="R94" s="15">
         <f t="shared" si="39"/>
-        <v>0.10026183261769936</v>
-      </c>
-      <c r="R94" s="15">
-        <f t="shared" si="40"/>
         <v>256.18316738230067</v>
       </c>
       <c r="S94">
@@ -9804,15 +9807,15 @@
         <v>0</v>
       </c>
       <c r="U94">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V94">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V94">
+      <c r="W94" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W94" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9831,52 +9834,52 @@
         <v>1</v>
       </c>
       <c r="F95" s="3">
+        <f t="shared" si="32"/>
+        <v>0.58360751399999999</v>
+      </c>
+      <c r="G95" s="3">
+        <v>25</v>
+      </c>
+      <c r="H95" s="3">
         <f t="shared" si="33"/>
-        <v>0.58360751399999999</v>
-      </c>
-      <c r="G95" s="3">
-        <v>25</v>
-      </c>
-      <c r="H95" s="3">
+        <v>42.837008435090162</v>
+      </c>
+      <c r="I95" s="3">
         <f t="shared" si="34"/>
+        <v>350.16450839999999</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="35"/>
+        <v>262.62338130000001</v>
+      </c>
+      <c r="K95" s="35">
+        <f t="shared" si="36"/>
+        <v>583.60751400000004</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="37"/>
+        <v>0.26262338130000001</v>
+      </c>
+      <c r="M95" s="5">
+        <v>25</v>
+      </c>
+      <c r="N95" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O95" s="4">
+        <f t="shared" si="30"/>
         <v>42.837008435090162</v>
       </c>
-      <c r="I95" s="3">
-        <f t="shared" si="35"/>
-        <v>350.16450839999999</v>
-      </c>
-      <c r="J95" s="3">
-        <f t="shared" si="36"/>
-        <v>262.62338130000001</v>
-      </c>
-      <c r="K95" s="35">
-        <f t="shared" si="37"/>
-        <v>583.60751400000004</v>
-      </c>
-      <c r="L95">
+      <c r="P95" s="4">
+        <f t="shared" si="31"/>
+        <v>407.16299156490982</v>
+      </c>
+      <c r="Q95" s="15">
         <f t="shared" si="38"/>
-        <v>0.26262338130000001</v>
-      </c>
-      <c r="M95" s="5">
-        <v>25</v>
-      </c>
-      <c r="N95" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O95" s="4">
-        <f t="shared" si="31"/>
-        <v>42.837008435090162</v>
-      </c>
-      <c r="P95" s="4">
-        <f t="shared" si="32"/>
-        <v>407.16299156490982</v>
-      </c>
-      <c r="Q95" s="15">
+        <v>3.3931194381434923E-2</v>
+      </c>
+      <c r="R95" s="15">
         <f t="shared" si="39"/>
-        <v>3.3931194381434923E-2</v>
-      </c>
-      <c r="R95" s="15">
-        <f t="shared" si="40"/>
         <v>322.51380561856507</v>
       </c>
       <c r="S95">
@@ -9888,15 +9891,15 @@
         <v>0</v>
       </c>
       <c r="U95">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V95">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V95">
+      <c r="W95" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W95" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9915,52 +9918,52 @@
         <v>1</v>
       </c>
       <c r="F96" s="3">
+        <f t="shared" si="32"/>
+        <v>0.61811081400000001</v>
+      </c>
+      <c r="G96" s="3">
+        <v>25</v>
+      </c>
+      <c r="H96" s="3">
         <f t="shared" si="33"/>
-        <v>0.61811081400000001</v>
-      </c>
-      <c r="G96" s="3">
-        <v>25</v>
-      </c>
-      <c r="H96" s="3">
+        <v>40.445822065814887</v>
+      </c>
+      <c r="I96" s="3">
         <f t="shared" si="34"/>
+        <v>370.86648839999998</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="35"/>
+        <v>278.14986629999999</v>
+      </c>
+      <c r="K96" s="35">
+        <f t="shared" si="36"/>
+        <v>618.110814</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="37"/>
+        <v>0.27814986629999999</v>
+      </c>
+      <c r="M96" s="5">
+        <v>25</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O96" s="4">
+        <f t="shared" si="30"/>
         <v>40.445822065814887</v>
       </c>
-      <c r="I96" s="3">
-        <f t="shared" si="35"/>
-        <v>370.86648839999998</v>
-      </c>
-      <c r="J96" s="3">
-        <f t="shared" si="36"/>
-        <v>278.14986629999999</v>
-      </c>
-      <c r="K96" s="35">
-        <f t="shared" si="37"/>
-        <v>618.110814</v>
-      </c>
-      <c r="L96">
+      <c r="P96" s="4">
+        <f t="shared" si="31"/>
+        <v>409.55417793418513</v>
+      </c>
+      <c r="Q96" s="15">
         <f t="shared" si="38"/>
-        <v>0.27814986629999999</v>
-      </c>
-      <c r="M96" s="5">
-        <v>25</v>
-      </c>
-      <c r="N96" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O96" s="4">
-        <f t="shared" si="31"/>
-        <v>40.445822065814887</v>
-      </c>
-      <c r="P96" s="4">
-        <f t="shared" si="32"/>
-        <v>409.55417793418513</v>
-      </c>
-      <c r="Q96" s="15">
+        <v>3.2037135658331974E-2</v>
+      </c>
+      <c r="R96" s="15">
         <f t="shared" si="39"/>
-        <v>3.2037135658331974E-2</v>
-      </c>
-      <c r="R96" s="15">
-        <f t="shared" si="40"/>
         <v>324.40786434166807</v>
       </c>
       <c r="S96">
@@ -9972,15 +9975,15 @@
         <v>0</v>
       </c>
       <c r="U96">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V96">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V96">
+      <c r="W96" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W96" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9999,52 +10002,52 @@
         <v>1</v>
       </c>
       <c r="F97" s="3">
+        <f t="shared" si="32"/>
+        <v>0.61014553599999988</v>
+      </c>
+      <c r="G97" s="3">
+        <v>25</v>
+      </c>
+      <c r="H97" s="3">
         <f t="shared" si="33"/>
-        <v>0.61014553599999988</v>
-      </c>
-      <c r="G97" s="3">
-        <v>25</v>
-      </c>
-      <c r="H97" s="3">
+        <v>40.973830873032895</v>
+      </c>
+      <c r="I97" s="3">
         <f t="shared" si="34"/>
+        <v>366.08732159999994</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="35"/>
+        <v>274.56549119999994</v>
+      </c>
+      <c r="K97" s="35">
+        <f t="shared" si="36"/>
+        <v>610.14553599999988</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="37"/>
+        <v>0.27456549119999996</v>
+      </c>
+      <c r="M97" s="5">
+        <v>25</v>
+      </c>
+      <c r="N97" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O97" s="4">
+        <f t="shared" si="30"/>
         <v>40.973830873032895</v>
       </c>
-      <c r="I97" s="3">
-        <f t="shared" si="35"/>
-        <v>366.08732159999994</v>
-      </c>
-      <c r="J97" s="3">
-        <f t="shared" si="36"/>
-        <v>274.56549119999994</v>
-      </c>
-      <c r="K97" s="35">
-        <f t="shared" si="37"/>
-        <v>610.14553599999988</v>
-      </c>
-      <c r="L97">
+      <c r="P97" s="4">
+        <f t="shared" si="31"/>
+        <v>409.02616912696709</v>
+      </c>
+      <c r="Q97" s="15">
         <f t="shared" si="38"/>
-        <v>0.27456549119999996</v>
-      </c>
-      <c r="M97" s="5">
-        <v>25</v>
-      </c>
-      <c r="N97" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O97" s="4">
-        <f t="shared" si="31"/>
-        <v>40.973830873032895</v>
-      </c>
-      <c r="P97" s="4">
-        <f t="shared" si="32"/>
-        <v>409.02616912696709</v>
-      </c>
-      <c r="Q97" s="15">
+        <v>3.2455371434529354E-2</v>
+      </c>
+      <c r="R97" s="15">
         <f t="shared" si="39"/>
-        <v>3.2455371434529354E-2</v>
-      </c>
-      <c r="R97" s="15">
-        <f t="shared" si="40"/>
         <v>323.98962856547064</v>
       </c>
       <c r="S97">
@@ -10056,15 +10059,15 @@
         <v>0</v>
       </c>
       <c r="U97">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V97">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V97">
+      <c r="W97" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W97" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10083,52 +10086,52 @@
         <v>1</v>
       </c>
       <c r="F98" s="3">
+        <f t="shared" si="32"/>
+        <v>0.40779839099999998</v>
+      </c>
+      <c r="G98" s="3">
+        <v>25</v>
+      </c>
+      <c r="H98" s="3">
         <f t="shared" si="33"/>
-        <v>0.40779839099999998</v>
-      </c>
-      <c r="G98" s="3">
-        <v>25</v>
-      </c>
-      <c r="H98" s="3">
+        <v>61.304802941216117</v>
+      </c>
+      <c r="I98" s="3">
         <f t="shared" si="34"/>
+        <v>244.67903459999997</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="35"/>
+        <v>183.50927594999999</v>
+      </c>
+      <c r="K98" s="35">
+        <f t="shared" si="36"/>
+        <v>407.79839099999998</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="37"/>
+        <v>0.18350927594999999</v>
+      </c>
+      <c r="M98" s="5">
+        <v>25</v>
+      </c>
+      <c r="N98" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O98" s="4">
+        <f t="shared" si="30"/>
         <v>61.304802941216117</v>
       </c>
-      <c r="I98" s="3">
-        <f t="shared" si="35"/>
-        <v>244.67903459999997</v>
-      </c>
-      <c r="J98" s="3">
-        <f t="shared" si="36"/>
-        <v>183.50927594999999</v>
-      </c>
-      <c r="K98" s="35">
-        <f t="shared" si="37"/>
-        <v>407.79839099999998</v>
-      </c>
-      <c r="L98">
+      <c r="P98" s="4">
+        <f t="shared" si="31"/>
+        <v>388.69519705878389</v>
+      </c>
+      <c r="Q98" s="15">
         <f t="shared" si="38"/>
-        <v>0.18350927594999999</v>
-      </c>
-      <c r="M98" s="5">
-        <v>25</v>
-      </c>
-      <c r="N98" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O98" s="4">
-        <f t="shared" si="31"/>
-        <v>61.304802941216117</v>
-      </c>
-      <c r="P98" s="4">
-        <f t="shared" si="32"/>
-        <v>388.69519705878389</v>
-      </c>
-      <c r="Q98" s="15">
+        <v>4.8559534409737287E-2</v>
+      </c>
+      <c r="R98" s="15">
         <f t="shared" si="39"/>
-        <v>4.8559534409737287E-2</v>
-      </c>
-      <c r="R98" s="15">
-        <f t="shared" si="40"/>
         <v>307.88546559026275</v>
       </c>
       <c r="S98">
@@ -10140,15 +10143,15 @@
         <v>0</v>
       </c>
       <c r="U98">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V98">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="V98">
+      <c r="W98" s="18" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W98" s="18" t="e">
-        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10167,30 +10170,30 @@
         <v>1</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" ref="F99:F123" si="44">C99*D99/1000</f>
+        <f t="shared" si="32"/>
         <v>0.40172170500000004</v>
       </c>
       <c r="G99" s="3">
         <v>25</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" ref="H99:H123" si="45">1/(F99/G99)</f>
+        <f t="shared" ref="H99:H123" si="43">1/(F99/G99)</f>
         <v>62.232136548360003</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" ref="I99:I123" si="46">(C99*D99/E99)*0.6</f>
+        <f t="shared" ref="I99:I123" si="44">(C99*D99/E99)*0.6</f>
         <v>241.03302300000001</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" ref="J99:J123" si="47">(C99*D99/E99)*0.45</f>
+        <f t="shared" ref="J99:J123" si="45">(C99*D99/E99)*0.45</f>
         <v>180.77476725000002</v>
       </c>
       <c r="K99" s="35">
-        <f t="shared" ref="K99:K123" si="48">(C99*D99/E99)</f>
+        <f t="shared" ref="K99:K123" si="46">(C99*D99/E99)</f>
         <v>401.72170500000004</v>
       </c>
       <c r="L99">
-        <f t="shared" ref="L99:L123" si="49">J99*E99/1000</f>
+        <f t="shared" ref="L99:L123" si="47">J99*E99/1000</f>
         <v>0.18077476725000002</v>
       </c>
       <c r="M99" s="5">
@@ -10200,19 +10203,19 @@
         <v>0.45</v>
       </c>
       <c r="O99" s="4">
+        <f t="shared" si="30"/>
+        <v>62.232136548360003</v>
+      </c>
+      <c r="P99" s="4">
         <f t="shared" si="31"/>
-        <v>62.232136548360003</v>
-      </c>
-      <c r="P99" s="4">
-        <f t="shared" si="32"/>
         <v>387.76786345163998</v>
       </c>
       <c r="Q99" s="15">
-        <f t="shared" ref="Q99:Q123" si="50">O99*0.7921/1000</f>
+        <f t="shared" ref="Q99:Q123" si="48">O99*0.7921/1000</f>
         <v>4.9294075359955961E-2</v>
       </c>
       <c r="R99" s="15">
-        <f t="shared" ref="R99:R123" si="51">P99*0.7921</f>
+        <f t="shared" ref="R99:R123" si="49">P99*0.7921</f>
         <v>307.15092464004402</v>
       </c>
       <c r="S99">
@@ -10224,15 +10227,15 @@
         <v>0</v>
       </c>
       <c r="U99">
-        <f t="shared" ref="U99:U123" si="52">(S99/0.792)*1000</f>
+        <f t="shared" ref="U99:U123" si="50">(S99/0.792)*1000</f>
         <v>0</v>
       </c>
       <c r="V99">
-        <f t="shared" ref="V99:V123" si="53">(T99/0.792)*1000</f>
+        <f t="shared" ref="V99:V123" si="51">(T99/0.792)*1000</f>
         <v>0</v>
       </c>
       <c r="W99" s="18" t="e">
-        <f t="shared" ref="W99:W123" si="54">((U99*I99)/(U99+V99))</f>
+        <f t="shared" ref="W99:W123" si="52">((U99*I99)/(U99+V99))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10251,52 +10254,52 @@
         <v>1</v>
       </c>
       <c r="F100" s="3">
+        <f t="shared" si="32"/>
+        <v>0.42936922599999988</v>
+      </c>
+      <c r="G100" s="3">
+        <v>25</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="43"/>
+        <v>58.224946004863433</v>
+      </c>
+      <c r="I100" s="3">
         <f t="shared" si="44"/>
-        <v>0.42936922599999988</v>
-      </c>
-      <c r="G100" s="3">
-        <v>25</v>
-      </c>
-      <c r="H100" s="3">
+        <v>257.6215355999999</v>
+      </c>
+      <c r="J100" s="3">
         <f t="shared" si="45"/>
-        <v>58.224946004863433</v>
-      </c>
-      <c r="I100" s="3">
+        <v>193.21615169999993</v>
+      </c>
+      <c r="K100" s="35">
         <f t="shared" si="46"/>
-        <v>257.6215355999999</v>
-      </c>
-      <c r="J100" s="3">
+        <v>429.36922599999986</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="47"/>
-        <v>193.21615169999993</v>
-      </c>
-      <c r="K100" s="35">
+        <v>0.19321615169999992</v>
+      </c>
+      <c r="M100" s="5">
+        <v>25</v>
+      </c>
+      <c r="N100" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O100" s="4">
+        <f t="shared" si="30"/>
+        <v>58.224946004863448</v>
+      </c>
+      <c r="P100" s="4">
+        <f t="shared" si="31"/>
+        <v>391.77505399513655</v>
+      </c>
+      <c r="Q100" s="15">
         <f t="shared" si="48"/>
-        <v>429.36922599999986</v>
-      </c>
-      <c r="L100">
+        <v>4.6119979730452336E-2</v>
+      </c>
+      <c r="R100" s="15">
         <f t="shared" si="49"/>
-        <v>0.19321615169999992</v>
-      </c>
-      <c r="M100" s="5">
-        <v>25</v>
-      </c>
-      <c r="N100" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O100" s="4">
-        <f t="shared" si="31"/>
-        <v>58.224946004863448</v>
-      </c>
-      <c r="P100" s="4">
-        <f t="shared" si="32"/>
-        <v>391.77505399513655</v>
-      </c>
-      <c r="Q100" s="15">
-        <f t="shared" si="50"/>
-        <v>4.6119979730452336E-2</v>
-      </c>
-      <c r="R100" s="15">
-        <f t="shared" si="51"/>
         <v>310.32502026954768</v>
       </c>
       <c r="S100">
@@ -10308,15 +10311,15 @@
         <v>0</v>
       </c>
       <c r="U100">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W100" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W100" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10335,52 +10338,52 @@
         <v>1</v>
       </c>
       <c r="F101" s="3">
+        <f t="shared" si="32"/>
+        <v>0.30525604200000001</v>
+      </c>
+      <c r="G101" s="3">
+        <v>25</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="43"/>
+        <v>81.898460833741652</v>
+      </c>
+      <c r="I101" s="3">
         <f t="shared" si="44"/>
-        <v>0.30525604200000001</v>
-      </c>
-      <c r="G101" s="3">
-        <v>25</v>
-      </c>
-      <c r="H101" s="3">
+        <v>183.15362519999999</v>
+      </c>
+      <c r="J101" s="3">
         <f t="shared" si="45"/>
-        <v>81.898460833741652</v>
-      </c>
-      <c r="I101" s="3">
+        <v>137.3652189</v>
+      </c>
+      <c r="K101" s="35">
         <f t="shared" si="46"/>
-        <v>183.15362519999999</v>
-      </c>
-      <c r="J101" s="3">
+        <v>305.25604199999998</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="47"/>
-        <v>137.3652189</v>
-      </c>
-      <c r="K101" s="35">
+        <v>0.1373652189</v>
+      </c>
+      <c r="M101" s="5">
+        <v>25</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O101" s="4">
+        <f t="shared" si="30"/>
+        <v>81.898460833741666</v>
+      </c>
+      <c r="P101" s="4">
+        <f t="shared" si="31"/>
+        <v>368.10153916625836</v>
+      </c>
+      <c r="Q101" s="15">
         <f t="shared" si="48"/>
-        <v>305.25604199999998</v>
-      </c>
-      <c r="L101">
+        <v>6.4871770826406772E-2</v>
+      </c>
+      <c r="R101" s="15">
         <f t="shared" si="49"/>
-        <v>0.1373652189</v>
-      </c>
-      <c r="M101" s="5">
-        <v>25</v>
-      </c>
-      <c r="N101" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O101" s="4">
-        <f t="shared" si="31"/>
-        <v>81.898460833741666</v>
-      </c>
-      <c r="P101" s="4">
-        <f t="shared" si="32"/>
-        <v>368.10153916625836</v>
-      </c>
-      <c r="Q101" s="15">
-        <f t="shared" si="50"/>
-        <v>6.4871770826406772E-2</v>
-      </c>
-      <c r="R101" s="15">
-        <f t="shared" si="51"/>
         <v>291.57322917359323</v>
       </c>
       <c r="S101">
@@ -10392,15 +10395,15 @@
         <v>0</v>
       </c>
       <c r="U101">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W101" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V101">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W101" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10419,52 +10422,52 @@
         <v>1</v>
       </c>
       <c r="F102" s="3">
+        <f t="shared" si="32"/>
+        <v>0.31249192199999998</v>
+      </c>
+      <c r="G102" s="3">
+        <v>25</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="43"/>
+        <v>80.002068021457532</v>
+      </c>
+      <c r="I102" s="3">
         <f t="shared" si="44"/>
-        <v>0.31249192199999998</v>
-      </c>
-      <c r="G102" s="3">
-        <v>25</v>
-      </c>
-      <c r="H102" s="3">
+        <v>187.49515319999998</v>
+      </c>
+      <c r="J102" s="3">
         <f t="shared" si="45"/>
+        <v>140.6213649</v>
+      </c>
+      <c r="K102" s="35">
+        <f t="shared" si="46"/>
+        <v>312.49192199999999</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="47"/>
+        <v>0.14062136489999999</v>
+      </c>
+      <c r="M102" s="5">
+        <v>25</v>
+      </c>
+      <c r="N102" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O102" s="4">
+        <f t="shared" si="30"/>
         <v>80.002068021457532</v>
       </c>
-      <c r="I102" s="3">
-        <f t="shared" si="46"/>
-        <v>187.49515319999998</v>
-      </c>
-      <c r="J102" s="3">
-        <f t="shared" si="47"/>
-        <v>140.6213649</v>
-      </c>
-      <c r="K102" s="35">
+      <c r="P102" s="4">
+        <f t="shared" si="31"/>
+        <v>369.99793197854245</v>
+      </c>
+      <c r="Q102" s="15">
         <f t="shared" si="48"/>
-        <v>312.49192199999999</v>
-      </c>
-      <c r="L102">
+        <v>6.3369638079796523E-2</v>
+      </c>
+      <c r="R102" s="15">
         <f t="shared" si="49"/>
-        <v>0.14062136489999999</v>
-      </c>
-      <c r="M102" s="5">
-        <v>25</v>
-      </c>
-      <c r="N102" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O102" s="4">
-        <f t="shared" si="31"/>
-        <v>80.002068021457532</v>
-      </c>
-      <c r="P102" s="4">
-        <f t="shared" si="32"/>
-        <v>369.99793197854245</v>
-      </c>
-      <c r="Q102" s="15">
-        <f t="shared" si="50"/>
-        <v>6.3369638079796523E-2</v>
-      </c>
-      <c r="R102" s="15">
-        <f t="shared" si="51"/>
         <v>293.07536192020348</v>
       </c>
       <c r="S102">
@@ -10476,15 +10479,15 @@
         <v>0</v>
       </c>
       <c r="U102">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W102" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V102">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W102" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10503,52 +10506,52 @@
         <v>1</v>
       </c>
       <c r="F103" s="3">
+        <f t="shared" si="32"/>
+        <v>0.30680384900000002</v>
+      </c>
+      <c r="G103" s="3">
+        <v>25</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="43"/>
+        <v>81.485288015405573</v>
+      </c>
+      <c r="I103" s="3">
         <f t="shared" si="44"/>
-        <v>0.30680384900000002</v>
-      </c>
-      <c r="G103" s="3">
-        <v>25</v>
-      </c>
-      <c r="H103" s="3">
+        <v>184.08230940000001</v>
+      </c>
+      <c r="J103" s="3">
         <f t="shared" si="45"/>
-        <v>81.485288015405573</v>
-      </c>
-      <c r="I103" s="3">
+        <v>138.06173205000002</v>
+      </c>
+      <c r="K103" s="35">
         <f t="shared" si="46"/>
-        <v>184.08230940000001</v>
-      </c>
-      <c r="J103" s="3">
+        <v>306.80384900000001</v>
+      </c>
+      <c r="L103">
         <f t="shared" si="47"/>
-        <v>138.06173205000002</v>
-      </c>
-      <c r="K103" s="35">
+        <v>0.13806173205000002</v>
+      </c>
+      <c r="M103" s="5">
+        <v>25</v>
+      </c>
+      <c r="N103" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O103" s="4">
+        <f t="shared" si="30"/>
+        <v>81.485288015405558</v>
+      </c>
+      <c r="P103" s="4">
+        <f t="shared" si="31"/>
+        <v>368.51471198459444</v>
+      </c>
+      <c r="Q103" s="15">
         <f t="shared" si="48"/>
-        <v>306.80384900000001</v>
-      </c>
-      <c r="L103">
+        <v>6.4544496637002749E-2</v>
+      </c>
+      <c r="R103" s="15">
         <f t="shared" si="49"/>
-        <v>0.13806173205000002</v>
-      </c>
-      <c r="M103" s="5">
-        <v>25</v>
-      </c>
-      <c r="N103" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O103" s="4">
-        <f t="shared" si="31"/>
-        <v>81.485288015405558</v>
-      </c>
-      <c r="P103" s="4">
-        <f t="shared" si="32"/>
-        <v>368.51471198459444</v>
-      </c>
-      <c r="Q103" s="15">
-        <f t="shared" si="50"/>
-        <v>6.4544496637002749E-2</v>
-      </c>
-      <c r="R103" s="15">
-        <f t="shared" si="51"/>
         <v>291.90050336299726</v>
       </c>
       <c r="S103">
@@ -10560,15 +10563,15 @@
         <v>0</v>
       </c>
       <c r="U103">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W103" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V103">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W103" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10587,52 +10590,52 @@
         <v>1</v>
       </c>
       <c r="F104" s="3">
+        <f t="shared" si="32"/>
+        <v>0.21103054599999999</v>
+      </c>
+      <c r="G104" s="3">
+        <v>25</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="43"/>
+        <v>118.46626222537472</v>
+      </c>
+      <c r="I104" s="3">
         <f t="shared" si="44"/>
-        <v>0.21103054599999999</v>
-      </c>
-      <c r="G104" s="3">
-        <v>25</v>
-      </c>
-      <c r="H104" s="3">
+        <v>126.61832759999999</v>
+      </c>
+      <c r="J104" s="3">
         <f t="shared" si="45"/>
+        <v>94.96374569999999</v>
+      </c>
+      <c r="K104" s="35">
+        <f t="shared" si="46"/>
+        <v>211.03054599999999</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="47"/>
+        <v>9.4963745699999991E-2</v>
+      </c>
+      <c r="M104" s="5">
+        <v>25</v>
+      </c>
+      <c r="N104" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O104" s="4">
+        <f t="shared" si="30"/>
         <v>118.46626222537472</v>
       </c>
-      <c r="I104" s="3">
-        <f t="shared" si="46"/>
-        <v>126.61832759999999</v>
-      </c>
-      <c r="J104" s="3">
-        <f t="shared" si="47"/>
-        <v>94.96374569999999</v>
-      </c>
-      <c r="K104" s="35">
+      <c r="P104" s="4">
+        <f t="shared" si="31"/>
+        <v>331.53373777462525</v>
+      </c>
+      <c r="Q104" s="15">
         <f t="shared" si="48"/>
-        <v>211.03054599999999</v>
-      </c>
-      <c r="L104">
+        <v>9.3837126308719321E-2</v>
+      </c>
+      <c r="R104" s="15">
         <f t="shared" si="49"/>
-        <v>9.4963745699999991E-2</v>
-      </c>
-      <c r="M104" s="5">
-        <v>25</v>
-      </c>
-      <c r="N104" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O104" s="4">
-        <f t="shared" si="31"/>
-        <v>118.46626222537472</v>
-      </c>
-      <c r="P104" s="4">
-        <f t="shared" si="32"/>
-        <v>331.53373777462525</v>
-      </c>
-      <c r="Q104" s="15">
-        <f t="shared" si="50"/>
-        <v>9.3837126308719321E-2</v>
-      </c>
-      <c r="R104" s="15">
-        <f t="shared" si="51"/>
         <v>262.60787369128064</v>
       </c>
       <c r="S104">
@@ -10644,15 +10647,15 @@
         <v>0</v>
       </c>
       <c r="U104">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W104" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V104">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W104" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10671,52 +10674,52 @@
         <v>1</v>
       </c>
       <c r="F105" s="3">
+        <f t="shared" si="32"/>
+        <v>0.22366020300000003</v>
+      </c>
+      <c r="G105" s="3">
+        <v>25</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="43"/>
+        <v>111.77670262599197</v>
+      </c>
+      <c r="I105" s="3">
         <f t="shared" si="44"/>
-        <v>0.22366020300000003</v>
-      </c>
-      <c r="G105" s="3">
-        <v>25</v>
-      </c>
-      <c r="H105" s="3">
+        <v>134.19612180000001</v>
+      </c>
+      <c r="J105" s="3">
         <f t="shared" si="45"/>
+        <v>100.64709135000001</v>
+      </c>
+      <c r="K105" s="35">
+        <f t="shared" si="46"/>
+        <v>223.66020300000002</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="47"/>
+        <v>0.10064709135000001</v>
+      </c>
+      <c r="M105" s="5">
+        <v>25</v>
+      </c>
+      <c r="N105" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O105" s="4">
+        <f t="shared" si="30"/>
         <v>111.77670262599197</v>
       </c>
-      <c r="I105" s="3">
-        <f t="shared" si="46"/>
-        <v>134.19612180000001</v>
-      </c>
-      <c r="J105" s="3">
-        <f t="shared" si="47"/>
-        <v>100.64709135000001</v>
-      </c>
-      <c r="K105" s="35">
+      <c r="P105" s="4">
+        <f t="shared" si="31"/>
+        <v>338.22329737400804</v>
+      </c>
+      <c r="Q105" s="15">
         <f t="shared" si="48"/>
-        <v>223.66020300000002</v>
-      </c>
-      <c r="L105">
+        <v>8.8538326150048252E-2</v>
+      </c>
+      <c r="R105" s="15">
         <f t="shared" si="49"/>
-        <v>0.10064709135000001</v>
-      </c>
-      <c r="M105" s="5">
-        <v>25</v>
-      </c>
-      <c r="N105" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O105" s="4">
-        <f t="shared" si="31"/>
-        <v>111.77670262599197</v>
-      </c>
-      <c r="P105" s="4">
-        <f t="shared" si="32"/>
-        <v>338.22329737400804</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="50"/>
-        <v>8.8538326150048252E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="51"/>
         <v>267.9066738499518</v>
       </c>
       <c r="S105">
@@ -10728,15 +10731,15 @@
         <v>0</v>
       </c>
       <c r="U105">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W105" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V105">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W105" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10755,52 +10758,52 @@
         <v>1</v>
       </c>
       <c r="F106" s="3">
+        <f t="shared" si="32"/>
+        <v>0.2219868360000001</v>
+      </c>
+      <c r="G106" s="3">
+        <v>25</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="43"/>
+        <v>112.61929063217059</v>
+      </c>
+      <c r="I106" s="3">
         <f t="shared" si="44"/>
-        <v>0.2219868360000001</v>
-      </c>
-      <c r="G106" s="3">
-        <v>25</v>
-      </c>
-      <c r="H106" s="3">
+        <v>133.19210160000006</v>
+      </c>
+      <c r="J106" s="3">
         <f t="shared" si="45"/>
+        <v>99.894076200000043</v>
+      </c>
+      <c r="K106" s="35">
+        <f t="shared" si="46"/>
+        <v>221.9868360000001</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="47"/>
+        <v>9.9894076200000043E-2</v>
+      </c>
+      <c r="M106" s="5">
+        <v>25</v>
+      </c>
+      <c r="N106" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O106" s="4">
+        <f t="shared" si="30"/>
         <v>112.61929063217059</v>
       </c>
-      <c r="I106" s="3">
-        <f t="shared" si="46"/>
-        <v>133.19210160000006</v>
-      </c>
-      <c r="J106" s="3">
-        <f t="shared" si="47"/>
-        <v>99.894076200000043</v>
-      </c>
-      <c r="K106" s="35">
+      <c r="P106" s="4">
+        <f t="shared" si="31"/>
+        <v>337.38070936782941</v>
+      </c>
+      <c r="Q106" s="15">
         <f t="shared" si="48"/>
-        <v>221.9868360000001</v>
-      </c>
-      <c r="L106">
+        <v>8.9205740109742318E-2</v>
+      </c>
+      <c r="R106" s="15">
         <f t="shared" si="49"/>
-        <v>9.9894076200000043E-2</v>
-      </c>
-      <c r="M106" s="5">
-        <v>25</v>
-      </c>
-      <c r="N106" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O106" s="4">
-        <f t="shared" si="31"/>
-        <v>112.61929063217059</v>
-      </c>
-      <c r="P106" s="4">
-        <f t="shared" si="32"/>
-        <v>337.38070936782941</v>
-      </c>
-      <c r="Q106" s="15">
-        <f t="shared" si="50"/>
-        <v>8.9205740109742318E-2</v>
-      </c>
-      <c r="R106" s="15">
-        <f t="shared" si="51"/>
         <v>267.2392598902577</v>
       </c>
       <c r="S106">
@@ -10812,15 +10815,15 @@
         <v>0</v>
       </c>
       <c r="U106">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W106" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V106">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W106" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10839,30 +10842,30 @@
         <v>1</v>
       </c>
       <c r="F107" s="3">
+        <f t="shared" si="32"/>
+        <v>2.55481984E-3</v>
+      </c>
+      <c r="G107" s="3">
+        <v>25</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="43"/>
+        <v>9785.4258091247648</v>
+      </c>
+      <c r="I107" s="3">
         <f t="shared" si="44"/>
-        <v>2.55481984E-3</v>
-      </c>
-      <c r="G107" s="3">
-        <v>25</v>
-      </c>
-      <c r="H107" s="3">
+        <v>1.532891904</v>
+      </c>
+      <c r="J107" s="3">
         <f t="shared" si="45"/>
-        <v>9785.4258091247648</v>
-      </c>
-      <c r="I107" s="3">
+        <v>1.1496689280000001</v>
+      </c>
+      <c r="K107" s="35">
         <f t="shared" si="46"/>
-        <v>1.532891904</v>
-      </c>
-      <c r="J107" s="3">
+        <v>2.55481984</v>
+      </c>
+      <c r="L107">
         <f t="shared" si="47"/>
-        <v>1.1496689280000001</v>
-      </c>
-      <c r="K107" s="35">
-        <f t="shared" si="48"/>
-        <v>2.55481984</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="49"/>
         <v>1.1496689280000002E-3</v>
       </c>
       <c r="M107" s="5">
@@ -10875,15 +10878,15 @@
         <v>450</v>
       </c>
       <c r="P107" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q107" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0.35644500000000001</v>
       </c>
       <c r="R107" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S107">
@@ -10895,15 +10898,15 @@
         <v>0</v>
       </c>
       <c r="U107">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W107" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V107">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W107" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10919,52 +10922,52 @@
         <v>1</v>
       </c>
       <c r="F108" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>25</v>
+      </c>
+      <c r="H108" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I108" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="G108" s="3">
-        <v>25</v>
-      </c>
-      <c r="H108" s="3" t="e">
+      <c r="J108" s="3">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="K108" s="35">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J108" s="3">
+      <c r="L108">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="K108" s="35">
+      <c r="M108" s="5">
+        <v>25</v>
+      </c>
+      <c r="N108" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O108" s="4" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P108" s="4" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q108" s="15" t="e">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="L108">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R108" s="15" t="e">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="M108" s="5">
-        <v>25</v>
-      </c>
-      <c r="N108" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O108" s="4" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P108" s="4" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q108" s="15" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R108" s="15" t="e">
-        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S108">
@@ -10976,15 +10979,15 @@
         <v>0</v>
       </c>
       <c r="U108">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W108" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V108">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W108" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11000,52 +11003,52 @@
         <v>1</v>
       </c>
       <c r="F109" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>25</v>
+      </c>
+      <c r="H109" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I109" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="G109" s="3">
-        <v>25</v>
-      </c>
-      <c r="H109" s="3" t="e">
+      <c r="J109" s="3">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="K109" s="35">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J109" s="3">
+      <c r="L109">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="K109" s="35">
+      <c r="M109" s="5">
+        <v>25</v>
+      </c>
+      <c r="N109" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O109" s="4" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P109" s="4" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q109" s="15" t="e">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="L109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R109" s="15" t="e">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="5">
-        <v>25</v>
-      </c>
-      <c r="N109" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O109" s="4" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P109" s="4" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q109" s="15" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R109" s="15" t="e">
-        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S109">
@@ -11057,15 +11060,15 @@
         <v>0</v>
       </c>
       <c r="U109">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W109" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V109">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W109" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11084,52 +11087,52 @@
         <v>1</v>
       </c>
       <c r="F110" s="3">
+        <f t="shared" si="32"/>
+        <v>0.13015798599999998</v>
+      </c>
+      <c r="G110" s="3">
+        <v>25</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="43"/>
+        <v>192.07426888120415</v>
+      </c>
+      <c r="I110" s="3">
         <f t="shared" si="44"/>
-        <v>0.13015798599999998</v>
-      </c>
-      <c r="G110" s="3">
-        <v>25</v>
-      </c>
-      <c r="H110" s="3">
+        <v>78.094791599999979</v>
+      </c>
+      <c r="J110" s="3">
         <f t="shared" si="45"/>
+        <v>58.571093699999984</v>
+      </c>
+      <c r="K110" s="35">
+        <f t="shared" si="46"/>
+        <v>130.15798599999997</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="47"/>
+        <v>5.8571093699999986E-2</v>
+      </c>
+      <c r="M110" s="5">
+        <v>25</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O110" s="4">
+        <f t="shared" si="30"/>
         <v>192.07426888120415</v>
       </c>
-      <c r="I110" s="3">
-        <f t="shared" si="46"/>
-        <v>78.094791599999979</v>
-      </c>
-      <c r="J110" s="3">
-        <f t="shared" si="47"/>
-        <v>58.571093699999984</v>
-      </c>
-      <c r="K110" s="35">
+      <c r="P110" s="4">
+        <f t="shared" si="31"/>
+        <v>257.92573111879585</v>
+      </c>
+      <c r="Q110" s="15">
         <f t="shared" si="48"/>
-        <v>130.15798599999997</v>
-      </c>
-      <c r="L110">
+        <v>0.15214202838080179</v>
+      </c>
+      <c r="R110" s="15">
         <f t="shared" si="49"/>
-        <v>5.8571093699999986E-2</v>
-      </c>
-      <c r="M110" s="5">
-        <v>25</v>
-      </c>
-      <c r="N110" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O110" s="4">
-        <f t="shared" si="31"/>
-        <v>192.07426888120415</v>
-      </c>
-      <c r="P110" s="4">
-        <f t="shared" si="32"/>
-        <v>257.92573111879585</v>
-      </c>
-      <c r="Q110" s="15">
-        <f t="shared" si="50"/>
-        <v>0.15214202838080179</v>
-      </c>
-      <c r="R110" s="15">
-        <f t="shared" si="51"/>
         <v>204.30297161919819</v>
       </c>
       <c r="S110">
@@ -11141,15 +11144,15 @@
         <v>0</v>
       </c>
       <c r="U110">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W110" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V110">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W110" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11168,52 +11171,52 @@
         <v>1</v>
       </c>
       <c r="F111" s="3">
+        <f t="shared" si="32"/>
+        <v>0.14632869900000006</v>
+      </c>
+      <c r="G111" s="3">
+        <v>25</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="43"/>
+        <v>170.84823531438619</v>
+      </c>
+      <c r="I111" s="3">
         <f t="shared" si="44"/>
-        <v>0.14632869900000006</v>
-      </c>
-      <c r="G111" s="3">
-        <v>25</v>
-      </c>
-      <c r="H111" s="3">
+        <v>87.797219400000031</v>
+      </c>
+      <c r="J111" s="3">
         <f t="shared" si="45"/>
-        <v>170.84823531438619</v>
-      </c>
-      <c r="I111" s="3">
+        <v>65.847914550000027</v>
+      </c>
+      <c r="K111" s="35">
         <f t="shared" si="46"/>
-        <v>87.797219400000031</v>
-      </c>
-      <c r="J111" s="3">
+        <v>146.32869900000006</v>
+      </c>
+      <c r="L111">
         <f t="shared" si="47"/>
-        <v>65.847914550000027</v>
-      </c>
-      <c r="K111" s="35">
+        <v>6.5847914550000025E-2</v>
+      </c>
+      <c r="M111" s="5">
+        <v>25</v>
+      </c>
+      <c r="N111" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O111" s="4">
+        <f t="shared" ref="O111:O127" si="53">(M111*N111)*1000/J111</f>
+        <v>170.84823531438622</v>
+      </c>
+      <c r="P111" s="4">
+        <f t="shared" ref="P111:P127" si="54">N111*1000-O111</f>
+        <v>279.15176468561378</v>
+      </c>
+      <c r="Q111" s="15">
         <f t="shared" si="48"/>
-        <v>146.32869900000006</v>
-      </c>
-      <c r="L111">
+        <v>0.13532888719252531</v>
+      </c>
+      <c r="R111" s="15">
         <f t="shared" si="49"/>
-        <v>6.5847914550000025E-2</v>
-      </c>
-      <c r="M111" s="5">
-        <v>25</v>
-      </c>
-      <c r="N111" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O111" s="4">
-        <f t="shared" ref="O111:O127" si="55">(M111*N111)*1000/J111</f>
-        <v>170.84823531438622</v>
-      </c>
-      <c r="P111" s="4">
-        <f t="shared" ref="P111:P127" si="56">N111*1000-O111</f>
-        <v>279.15176468561378</v>
-      </c>
-      <c r="Q111" s="15">
-        <f t="shared" si="50"/>
-        <v>0.13532888719252531</v>
-      </c>
-      <c r="R111" s="15">
-        <f t="shared" si="51"/>
         <v>221.11611280747468</v>
       </c>
       <c r="S111">
@@ -11225,15 +11228,15 @@
         <v>0</v>
       </c>
       <c r="U111">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W111" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V111">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W111" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11252,52 +11255,52 @@
         <v>1</v>
       </c>
       <c r="F112" s="3">
+        <f t="shared" si="32"/>
+        <v>0.11740967810000003</v>
+      </c>
+      <c r="G112" s="3">
+        <v>25</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="43"/>
+        <v>212.92963582360758</v>
+      </c>
+      <c r="I112" s="3">
         <f t="shared" si="44"/>
-        <v>0.11740967810000003</v>
-      </c>
-      <c r="G112" s="3">
-        <v>25</v>
-      </c>
-      <c r="H112" s="3">
+        <v>70.445806860000005</v>
+      </c>
+      <c r="J112" s="3">
         <f t="shared" si="45"/>
+        <v>52.834355145000011</v>
+      </c>
+      <c r="K112" s="35">
+        <f t="shared" si="46"/>
+        <v>117.40967810000002</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="47"/>
+        <v>5.2834355145000012E-2</v>
+      </c>
+      <c r="M112" s="5">
+        <v>25</v>
+      </c>
+      <c r="N112" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O112" s="4">
+        <f t="shared" si="53"/>
         <v>212.92963582360758</v>
       </c>
-      <c r="I112" s="3">
-        <f t="shared" si="46"/>
-        <v>70.445806860000005</v>
-      </c>
-      <c r="J112" s="3">
-        <f t="shared" si="47"/>
-        <v>52.834355145000011</v>
-      </c>
-      <c r="K112" s="35">
+      <c r="P112" s="4">
+        <f t="shared" si="54"/>
+        <v>237.07036417639242</v>
+      </c>
+      <c r="Q112" s="15">
         <f t="shared" si="48"/>
-        <v>117.40967810000002</v>
-      </c>
-      <c r="L112">
+        <v>0.16866156453587958</v>
+      </c>
+      <c r="R112" s="15">
         <f t="shared" si="49"/>
-        <v>5.2834355145000012E-2</v>
-      </c>
-      <c r="M112" s="5">
-        <v>25</v>
-      </c>
-      <c r="N112" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O112" s="4">
-        <f t="shared" si="55"/>
-        <v>212.92963582360758</v>
-      </c>
-      <c r="P112" s="4">
-        <f t="shared" si="56"/>
-        <v>237.07036417639242</v>
-      </c>
-      <c r="Q112" s="15">
-        <f t="shared" si="50"/>
-        <v>0.16866156453587958</v>
-      </c>
-      <c r="R112" s="15">
-        <f t="shared" si="51"/>
         <v>187.78343546412043</v>
       </c>
       <c r="S112">
@@ -11309,15 +11312,15 @@
         <v>0</v>
       </c>
       <c r="U112">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W112" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V112">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W112" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11336,52 +11339,52 @@
         <v>1</v>
       </c>
       <c r="F113" s="3">
+        <f t="shared" si="32"/>
+        <v>0.11013599089999998</v>
+      </c>
+      <c r="G113" s="3">
+        <v>25</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="43"/>
+        <v>226.99210127141106</v>
+      </c>
+      <c r="I113" s="3">
         <f t="shared" si="44"/>
-        <v>0.11013599089999998</v>
-      </c>
-      <c r="G113" s="3">
-        <v>25</v>
-      </c>
-      <c r="H113" s="3">
+        <v>66.081594539999983</v>
+      </c>
+      <c r="J113" s="3">
         <f t="shared" si="45"/>
-        <v>226.99210127141106</v>
-      </c>
-      <c r="I113" s="3">
+        <v>49.561195904999991</v>
+      </c>
+      <c r="K113" s="35">
         <f t="shared" si="46"/>
-        <v>66.081594539999983</v>
-      </c>
-      <c r="J113" s="3">
+        <v>110.13599089999998</v>
+      </c>
+      <c r="L113">
         <f t="shared" si="47"/>
-        <v>49.561195904999991</v>
-      </c>
-      <c r="K113" s="35">
+        <v>4.9561195904999994E-2</v>
+      </c>
+      <c r="M113" s="5">
+        <v>25</v>
+      </c>
+      <c r="N113" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O113" s="4">
+        <f t="shared" si="53"/>
+        <v>226.99210127141103</v>
+      </c>
+      <c r="P113" s="4">
+        <f t="shared" si="54"/>
+        <v>223.00789872858897</v>
+      </c>
+      <c r="Q113" s="15">
         <f t="shared" si="48"/>
-        <v>110.13599089999998</v>
-      </c>
-      <c r="L113">
+        <v>0.1798004434170847</v>
+      </c>
+      <c r="R113" s="15">
         <f t="shared" si="49"/>
-        <v>4.9561195904999994E-2</v>
-      </c>
-      <c r="M113" s="5">
-        <v>25</v>
-      </c>
-      <c r="N113" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O113" s="4">
-        <f t="shared" si="55"/>
-        <v>226.99210127141103</v>
-      </c>
-      <c r="P113" s="4">
-        <f t="shared" si="56"/>
-        <v>223.00789872858897</v>
-      </c>
-      <c r="Q113" s="15">
-        <f t="shared" si="50"/>
-        <v>0.1798004434170847</v>
-      </c>
-      <c r="R113" s="15">
-        <f t="shared" si="51"/>
         <v>176.64455658291533</v>
       </c>
       <c r="S113">
@@ -11393,15 +11396,15 @@
         <v>0</v>
       </c>
       <c r="U113">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V113">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W113" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11420,52 +11423,52 @@
         <v>1</v>
       </c>
       <c r="F114" s="3">
+        <f t="shared" si="32"/>
+        <v>0.11669196000000001</v>
+      </c>
+      <c r="G114" s="3">
+        <v>25</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="43"/>
+        <v>214.23926721258258</v>
+      </c>
+      <c r="I114" s="3">
         <f t="shared" si="44"/>
-        <v>0.11669196000000001</v>
-      </c>
-      <c r="G114" s="3">
-        <v>25</v>
-      </c>
-      <c r="H114" s="3">
+        <v>70.015175999999997</v>
+      </c>
+      <c r="J114" s="3">
         <f t="shared" si="45"/>
+        <v>52.511382000000005</v>
+      </c>
+      <c r="K114" s="35">
+        <f t="shared" si="46"/>
+        <v>116.69196000000001</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="47"/>
+        <v>5.2511382000000002E-2</v>
+      </c>
+      <c r="M114" s="5">
+        <v>25</v>
+      </c>
+      <c r="N114" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O114" s="4">
+        <f t="shared" si="53"/>
         <v>214.23926721258258</v>
       </c>
-      <c r="I114" s="3">
-        <f t="shared" si="46"/>
-        <v>70.015175999999997</v>
-      </c>
-      <c r="J114" s="3">
-        <f t="shared" si="47"/>
-        <v>52.511382000000005</v>
-      </c>
-      <c r="K114" s="35">
+      <c r="P114" s="4">
+        <f t="shared" si="54"/>
+        <v>235.76073278741742</v>
+      </c>
+      <c r="Q114" s="15">
         <f t="shared" si="48"/>
-        <v>116.69196000000001</v>
-      </c>
-      <c r="L114">
+        <v>0.16969892355908667</v>
+      </c>
+      <c r="R114" s="15">
         <f t="shared" si="49"/>
-        <v>5.2511382000000002E-2</v>
-      </c>
-      <c r="M114" s="5">
-        <v>25</v>
-      </c>
-      <c r="N114" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O114" s="4">
-        <f t="shared" si="55"/>
-        <v>214.23926721258258</v>
-      </c>
-      <c r="P114" s="4">
-        <f t="shared" si="56"/>
-        <v>235.76073278741742</v>
-      </c>
-      <c r="Q114" s="15">
-        <f t="shared" si="50"/>
-        <v>0.16969892355908667</v>
-      </c>
-      <c r="R114" s="15">
-        <f t="shared" si="51"/>
         <v>186.74607644091336</v>
       </c>
       <c r="S114">
@@ -11477,15 +11480,15 @@
         <v>0</v>
       </c>
       <c r="U114">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V114">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W114" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11504,52 +11507,52 @@
         <v>1</v>
       </c>
       <c r="F115" s="3">
+        <f t="shared" si="32"/>
+        <v>0.10515827009999996</v>
+      </c>
+      <c r="G115" s="3">
+        <v>25</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="43"/>
+        <v>237.73688913127154</v>
+      </c>
+      <c r="I115" s="3">
         <f t="shared" si="44"/>
-        <v>0.10515827009999996</v>
-      </c>
-      <c r="G115" s="3">
-        <v>25</v>
-      </c>
-      <c r="H115" s="3">
+        <v>63.094962059999979</v>
+      </c>
+      <c r="J115" s="3">
         <f t="shared" si="45"/>
+        <v>47.321221544999986</v>
+      </c>
+      <c r="K115" s="35">
+        <f t="shared" si="46"/>
+        <v>105.15827009999997</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="47"/>
+        <v>4.7321221544999986E-2</v>
+      </c>
+      <c r="M115" s="5">
+        <v>25</v>
+      </c>
+      <c r="N115" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O115" s="4">
+        <f t="shared" si="53"/>
         <v>237.73688913127154</v>
       </c>
-      <c r="I115" s="3">
-        <f t="shared" si="46"/>
-        <v>63.094962059999979</v>
-      </c>
-      <c r="J115" s="3">
-        <f t="shared" si="47"/>
-        <v>47.321221544999986</v>
-      </c>
-      <c r="K115" s="35">
+      <c r="P115" s="4">
+        <f t="shared" si="54"/>
+        <v>212.26311086872846</v>
+      </c>
+      <c r="Q115" s="15">
         <f t="shared" si="48"/>
-        <v>105.15827009999997</v>
-      </c>
-      <c r="L115">
+        <v>0.1883113898808802</v>
+      </c>
+      <c r="R115" s="15">
         <f t="shared" si="49"/>
-        <v>4.7321221544999986E-2</v>
-      </c>
-      <c r="M115" s="5">
-        <v>25</v>
-      </c>
-      <c r="N115" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O115" s="4">
-        <f t="shared" si="55"/>
-        <v>237.73688913127154</v>
-      </c>
-      <c r="P115" s="4">
-        <f t="shared" si="56"/>
-        <v>212.26311086872846</v>
-      </c>
-      <c r="Q115" s="15">
-        <f t="shared" si="50"/>
-        <v>0.1883113898808802</v>
-      </c>
-      <c r="R115" s="15">
-        <f t="shared" si="51"/>
         <v>168.13361011911982</v>
       </c>
       <c r="S115">
@@ -11561,15 +11564,15 @@
         <v>0</v>
       </c>
       <c r="U115">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V115">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W115" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11588,52 +11591,52 @@
         <v>1</v>
       </c>
       <c r="F116" s="3">
+        <f t="shared" si="32"/>
+        <v>0.7617839460000001</v>
+      </c>
+      <c r="G116" s="3">
+        <v>25</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="43"/>
+        <v>32.817703932027989</v>
+      </c>
+      <c r="I116" s="3">
         <f t="shared" si="44"/>
-        <v>0.7617839460000001</v>
-      </c>
-      <c r="G116" s="3">
-        <v>25</v>
-      </c>
-      <c r="H116" s="3">
+        <v>457.07036760000005</v>
+      </c>
+      <c r="J116" s="3">
         <f t="shared" si="45"/>
+        <v>342.80277570000004</v>
+      </c>
+      <c r="K116" s="35">
+        <f t="shared" si="46"/>
+        <v>761.78394600000013</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="47"/>
+        <v>0.34280277570000006</v>
+      </c>
+      <c r="M116" s="5">
+        <v>25</v>
+      </c>
+      <c r="N116" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O116" s="4">
+        <f t="shared" si="53"/>
         <v>32.817703932027989</v>
       </c>
-      <c r="I116" s="3">
-        <f t="shared" si="46"/>
-        <v>457.07036760000005</v>
-      </c>
-      <c r="J116" s="3">
-        <f t="shared" si="47"/>
-        <v>342.80277570000004</v>
-      </c>
-      <c r="K116" s="35">
+      <c r="P116" s="4">
+        <f t="shared" si="54"/>
+        <v>417.182296067972</v>
+      </c>
+      <c r="Q116" s="15">
         <f t="shared" si="48"/>
-        <v>761.78394600000013</v>
-      </c>
-      <c r="L116">
+        <v>2.5994903284559369E-2</v>
+      </c>
+      <c r="R116" s="15">
         <f t="shared" si="49"/>
-        <v>0.34280277570000006</v>
-      </c>
-      <c r="M116" s="5">
-        <v>25</v>
-      </c>
-      <c r="N116" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O116" s="4">
-        <f t="shared" si="55"/>
-        <v>32.817703932027989</v>
-      </c>
-      <c r="P116" s="4">
-        <f t="shared" si="56"/>
-        <v>417.182296067972</v>
-      </c>
-      <c r="Q116" s="15">
-        <f t="shared" si="50"/>
-        <v>2.5994903284559369E-2</v>
-      </c>
-      <c r="R116" s="15">
-        <f t="shared" si="51"/>
         <v>330.45009671544062</v>
       </c>
       <c r="S116">
@@ -11645,15 +11648,15 @@
         <v>0</v>
       </c>
       <c r="U116">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V116">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11672,52 +11675,52 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
+        <f t="shared" si="32"/>
+        <v>0.79250997000000001</v>
+      </c>
+      <c r="G117" s="3">
+        <v>25</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="43"/>
+        <v>31.545344470555996</v>
+      </c>
+      <c r="I117" s="3">
         <f t="shared" si="44"/>
-        <v>0.79250997000000001</v>
-      </c>
-      <c r="G117" s="3">
-        <v>25</v>
-      </c>
-      <c r="H117" s="3">
+        <v>475.50598199999996</v>
+      </c>
+      <c r="J117" s="3">
         <f t="shared" si="45"/>
-        <v>31.545344470555996</v>
-      </c>
-      <c r="I117" s="3">
+        <v>356.62948649999998</v>
+      </c>
+      <c r="K117" s="35">
         <f t="shared" si="46"/>
-        <v>475.50598199999996</v>
-      </c>
-      <c r="J117" s="3">
+        <v>792.50996999999995</v>
+      </c>
+      <c r="L117">
         <f t="shared" si="47"/>
-        <v>356.62948649999998</v>
-      </c>
-      <c r="K117" s="35">
+        <v>0.35662948649999998</v>
+      </c>
+      <c r="M117" s="5">
+        <v>25</v>
+      </c>
+      <c r="N117" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O117" s="4">
+        <f t="shared" si="53"/>
+        <v>31.545344470556</v>
+      </c>
+      <c r="P117" s="4">
+        <f t="shared" si="54"/>
+        <v>418.45465552944398</v>
+      </c>
+      <c r="Q117" s="15">
         <f t="shared" si="48"/>
-        <v>792.50996999999995</v>
-      </c>
-      <c r="L117">
+        <v>2.4987067355127408E-2</v>
+      </c>
+      <c r="R117" s="15">
         <f t="shared" si="49"/>
-        <v>0.35662948649999998</v>
-      </c>
-      <c r="M117" s="5">
-        <v>25</v>
-      </c>
-      <c r="N117" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O117" s="4">
-        <f t="shared" si="55"/>
-        <v>31.545344470556</v>
-      </c>
-      <c r="P117" s="4">
-        <f t="shared" si="56"/>
-        <v>418.45465552944398</v>
-      </c>
-      <c r="Q117" s="15">
-        <f t="shared" si="50"/>
-        <v>2.4987067355127408E-2</v>
-      </c>
-      <c r="R117" s="15">
-        <f t="shared" si="51"/>
         <v>331.45793264487259</v>
       </c>
       <c r="S117">
@@ -11729,15 +11732,15 @@
         <v>0</v>
       </c>
       <c r="U117">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W117" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V117">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W117" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11756,52 +11759,52 @@
         <v>1</v>
       </c>
       <c r="F118" s="3">
+        <f t="shared" si="32"/>
+        <v>0.81189426200000014</v>
+      </c>
+      <c r="G118" s="3">
+        <v>25</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="43"/>
+        <v>30.792187074232576</v>
+      </c>
+      <c r="I118" s="3">
         <f t="shared" si="44"/>
-        <v>0.81189426200000014</v>
-      </c>
-      <c r="G118" s="3">
-        <v>25</v>
-      </c>
-      <c r="H118" s="3">
+        <v>487.13655720000008</v>
+      </c>
+      <c r="J118" s="3">
         <f t="shared" si="45"/>
-        <v>30.792187074232576</v>
-      </c>
-      <c r="I118" s="3">
+        <v>365.35241790000009</v>
+      </c>
+      <c r="K118" s="35">
         <f t="shared" si="46"/>
-        <v>487.13655720000008</v>
-      </c>
-      <c r="J118" s="3">
+        <v>811.89426200000014</v>
+      </c>
+      <c r="L118">
         <f t="shared" si="47"/>
-        <v>365.35241790000009</v>
-      </c>
-      <c r="K118" s="35">
+        <v>0.36535241790000011</v>
+      </c>
+      <c r="M118" s="5">
+        <v>25</v>
+      </c>
+      <c r="N118" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O118" s="4">
+        <f t="shared" si="53"/>
+        <v>30.792187074232572</v>
+      </c>
+      <c r="P118" s="4">
+        <f t="shared" si="54"/>
+        <v>419.20781292576743</v>
+      </c>
+      <c r="Q118" s="15">
         <f t="shared" si="48"/>
-        <v>811.89426200000014</v>
-      </c>
-      <c r="L118">
+        <v>2.439049138149962E-2</v>
+      </c>
+      <c r="R118" s="15">
         <f t="shared" si="49"/>
-        <v>0.36535241790000011</v>
-      </c>
-      <c r="M118" s="5">
-        <v>25</v>
-      </c>
-      <c r="N118" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O118" s="4">
-        <f t="shared" si="55"/>
-        <v>30.792187074232572</v>
-      </c>
-      <c r="P118" s="4">
-        <f t="shared" si="56"/>
-        <v>419.20781292576743</v>
-      </c>
-      <c r="Q118" s="15">
-        <f t="shared" si="50"/>
-        <v>2.439049138149962E-2</v>
-      </c>
-      <c r="R118" s="15">
-        <f t="shared" si="51"/>
         <v>332.05450861850039</v>
       </c>
       <c r="S118">
@@ -11813,15 +11816,15 @@
         <v>0</v>
       </c>
       <c r="U118">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W118" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V118">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W118" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11840,52 +11843,52 @@
         <v>1</v>
       </c>
       <c r="F119" s="3">
+        <f t="shared" si="32"/>
+        <v>0.61297180499999993</v>
+      </c>
+      <c r="G119" s="3">
+        <v>25</v>
+      </c>
+      <c r="H119" s="3">
+        <f t="shared" si="43"/>
+        <v>40.784910164016438</v>
+      </c>
+      <c r="I119" s="3">
         <f t="shared" si="44"/>
-        <v>0.61297180499999993</v>
-      </c>
-      <c r="G119" s="3">
-        <v>25</v>
-      </c>
-      <c r="H119" s="3">
+        <v>367.78308299999992</v>
+      </c>
+      <c r="J119" s="3">
         <f t="shared" si="45"/>
+        <v>275.83731224999997</v>
+      </c>
+      <c r="K119" s="35">
+        <f t="shared" si="46"/>
+        <v>612.9718049999999</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="47"/>
+        <v>0.27583731224999997</v>
+      </c>
+      <c r="M119" s="5">
+        <v>25</v>
+      </c>
+      <c r="N119" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O119" s="4">
+        <f t="shared" si="53"/>
         <v>40.784910164016438</v>
       </c>
-      <c r="I119" s="3">
-        <f t="shared" si="46"/>
-        <v>367.78308299999992</v>
-      </c>
-      <c r="J119" s="3">
-        <f t="shared" si="47"/>
-        <v>275.83731224999997</v>
-      </c>
-      <c r="K119" s="35">
+      <c r="P119" s="4">
+        <f t="shared" si="54"/>
+        <v>409.21508983598358</v>
+      </c>
+      <c r="Q119" s="15">
         <f t="shared" si="48"/>
-        <v>612.9718049999999</v>
-      </c>
-      <c r="L119">
+        <v>3.2305727340917419E-2</v>
+      </c>
+      <c r="R119" s="15">
         <f t="shared" si="49"/>
-        <v>0.27583731224999997</v>
-      </c>
-      <c r="M119" s="5">
-        <v>25</v>
-      </c>
-      <c r="N119" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O119" s="4">
-        <f t="shared" si="55"/>
-        <v>40.784910164016438</v>
-      </c>
-      <c r="P119" s="4">
-        <f t="shared" si="56"/>
-        <v>409.21508983598358</v>
-      </c>
-      <c r="Q119" s="15">
-        <f t="shared" si="50"/>
-        <v>3.2305727340917419E-2</v>
-      </c>
-      <c r="R119" s="15">
-        <f t="shared" si="51"/>
         <v>324.13927265908262</v>
       </c>
       <c r="S119">
@@ -11897,15 +11900,15 @@
         <v>0</v>
       </c>
       <c r="U119">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W119" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V119">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W119" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11924,52 +11927,52 @@
         <v>1</v>
       </c>
       <c r="F120" s="3">
+        <f t="shared" si="32"/>
+        <v>0.61756011899999985</v>
+      </c>
+      <c r="G120" s="3">
+        <v>25</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" si="43"/>
+        <v>40.481888695276979</v>
+      </c>
+      <c r="I120" s="3">
         <f t="shared" si="44"/>
-        <v>0.61756011899999985</v>
-      </c>
-      <c r="G120" s="3">
-        <v>25</v>
-      </c>
-      <c r="H120" s="3">
+        <v>370.53607139999991</v>
+      </c>
+      <c r="J120" s="3">
         <f t="shared" si="45"/>
+        <v>277.90205354999995</v>
+      </c>
+      <c r="K120" s="35">
+        <f t="shared" si="46"/>
+        <v>617.56011899999987</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="47"/>
+        <v>0.27790205354999997</v>
+      </c>
+      <c r="M120" s="5">
+        <v>25</v>
+      </c>
+      <c r="N120" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O120" s="4">
+        <f t="shared" si="53"/>
         <v>40.481888695276979</v>
       </c>
-      <c r="I120" s="3">
-        <f t="shared" si="46"/>
-        <v>370.53607139999991</v>
-      </c>
-      <c r="J120" s="3">
-        <f t="shared" si="47"/>
-        <v>277.90205354999995</v>
-      </c>
-      <c r="K120" s="35">
+      <c r="P120" s="4">
+        <f t="shared" si="54"/>
+        <v>409.51811130472299</v>
+      </c>
+      <c r="Q120" s="15">
         <f t="shared" si="48"/>
-        <v>617.56011899999987</v>
-      </c>
-      <c r="L120">
+        <v>3.2065704035528893E-2</v>
+      </c>
+      <c r="R120" s="15">
         <f t="shared" si="49"/>
-        <v>0.27790205354999997</v>
-      </c>
-      <c r="M120" s="5">
-        <v>25</v>
-      </c>
-      <c r="N120" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O120" s="4">
-        <f t="shared" si="55"/>
-        <v>40.481888695276979</v>
-      </c>
-      <c r="P120" s="4">
-        <f t="shared" si="56"/>
-        <v>409.51811130472299</v>
-      </c>
-      <c r="Q120" s="15">
-        <f t="shared" si="50"/>
-        <v>3.2065704035528893E-2</v>
-      </c>
-      <c r="R120" s="15">
-        <f t="shared" si="51"/>
         <v>324.37929596447111</v>
       </c>
       <c r="S120">
@@ -11981,15 +11984,15 @@
         <v>0</v>
       </c>
       <c r="U120">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V120">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W120" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12008,52 +12011,52 @@
         <v>1</v>
       </c>
       <c r="F121" s="3">
+        <f t="shared" si="32"/>
+        <v>0.57053010000000004</v>
+      </c>
+      <c r="G121" s="3">
+        <v>25</v>
+      </c>
+      <c r="H121" s="3">
+        <f t="shared" si="43"/>
+        <v>43.818897548087293</v>
+      </c>
+      <c r="I121" s="3">
         <f t="shared" si="44"/>
-        <v>0.57053010000000004</v>
-      </c>
-      <c r="G121" s="3">
-        <v>25</v>
-      </c>
-      <c r="H121" s="3">
+        <v>342.31806</v>
+      </c>
+      <c r="J121" s="3">
         <f t="shared" si="45"/>
-        <v>43.818897548087293</v>
-      </c>
-      <c r="I121" s="3">
+        <v>256.73854500000004</v>
+      </c>
+      <c r="K121" s="35">
         <f t="shared" si="46"/>
-        <v>342.31806</v>
-      </c>
-      <c r="J121" s="3">
+        <v>570.53010000000006</v>
+      </c>
+      <c r="L121">
         <f t="shared" si="47"/>
-        <v>256.73854500000004</v>
-      </c>
-      <c r="K121" s="35">
+        <v>0.25673854500000004</v>
+      </c>
+      <c r="M121" s="5">
+        <v>25</v>
+      </c>
+      <c r="N121" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O121" s="4">
+        <f t="shared" si="53"/>
+        <v>43.818897548087286</v>
+      </c>
+      <c r="P121" s="4">
+        <f t="shared" si="54"/>
+        <v>406.18110245191269</v>
+      </c>
+      <c r="Q121" s="15">
         <f t="shared" si="48"/>
-        <v>570.53010000000006</v>
-      </c>
-      <c r="L121">
+        <v>3.4708948747839939E-2</v>
+      </c>
+      <c r="R121" s="15">
         <f t="shared" si="49"/>
-        <v>0.25673854500000004</v>
-      </c>
-      <c r="M121" s="5">
-        <v>25</v>
-      </c>
-      <c r="N121" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O121" s="4">
-        <f t="shared" si="55"/>
-        <v>43.818897548087286</v>
-      </c>
-      <c r="P121" s="4">
-        <f t="shared" si="56"/>
-        <v>406.18110245191269</v>
-      </c>
-      <c r="Q121" s="15">
-        <f t="shared" si="50"/>
-        <v>3.4708948747839939E-2</v>
-      </c>
-      <c r="R121" s="15">
-        <f t="shared" si="51"/>
         <v>321.73605125216005</v>
       </c>
       <c r="S121">
@@ -12065,15 +12068,15 @@
         <v>0</v>
       </c>
       <c r="U121">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W121" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V121">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W121" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12092,52 +12095,52 @@
         <v>1</v>
       </c>
       <c r="F122" s="3">
+        <f t="shared" si="32"/>
+        <v>0.37124353500000012</v>
+      </c>
+      <c r="G122" s="3">
+        <v>25</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="43"/>
+        <v>67.341240029944203</v>
+      </c>
+      <c r="I122" s="3">
         <f t="shared" si="44"/>
-        <v>0.37124353500000012</v>
-      </c>
-      <c r="G122" s="3">
-        <v>25</v>
-      </c>
-      <c r="H122" s="3">
+        <v>222.74612100000007</v>
+      </c>
+      <c r="J122" s="3">
         <f t="shared" si="45"/>
+        <v>167.05959075000007</v>
+      </c>
+      <c r="K122" s="35">
+        <f t="shared" si="46"/>
+        <v>371.24353500000012</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="47"/>
+        <v>0.16705959075000007</v>
+      </c>
+      <c r="M122" s="5">
+        <v>25</v>
+      </c>
+      <c r="N122" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O122" s="4">
+        <f t="shared" si="53"/>
         <v>67.341240029944203</v>
       </c>
-      <c r="I122" s="3">
-        <f t="shared" si="46"/>
-        <v>222.74612100000007</v>
-      </c>
-      <c r="J122" s="3">
-        <f t="shared" si="47"/>
-        <v>167.05959075000007</v>
-      </c>
-      <c r="K122" s="35">
+      <c r="P122" s="4">
+        <f t="shared" si="54"/>
+        <v>382.65875997005583</v>
+      </c>
+      <c r="Q122" s="15">
         <f t="shared" si="48"/>
-        <v>371.24353500000012</v>
-      </c>
-      <c r="L122">
+        <v>5.3340996227718804E-2</v>
+      </c>
+      <c r="R122" s="15">
         <f t="shared" si="49"/>
-        <v>0.16705959075000007</v>
-      </c>
-      <c r="M122" s="5">
-        <v>25</v>
-      </c>
-      <c r="N122" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O122" s="4">
-        <f t="shared" si="55"/>
-        <v>67.341240029944203</v>
-      </c>
-      <c r="P122" s="4">
-        <f t="shared" si="56"/>
-        <v>382.65875997005583</v>
-      </c>
-      <c r="Q122" s="15">
-        <f t="shared" si="50"/>
-        <v>5.3340996227718804E-2</v>
-      </c>
-      <c r="R122" s="15">
-        <f t="shared" si="51"/>
         <v>303.1040037722812</v>
       </c>
       <c r="S122">
@@ -12149,15 +12152,15 @@
         <v>0</v>
       </c>
       <c r="U122">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W122" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V122">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W122" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12176,52 +12179,52 @@
         <v>1</v>
       </c>
       <c r="F123" s="3">
+        <f t="shared" si="32"/>
+        <v>0.37007259200000009</v>
+      </c>
+      <c r="G123" s="3">
+        <v>25</v>
+      </c>
+      <c r="H123" s="3">
+        <f t="shared" si="43"/>
+        <v>67.554313776363088</v>
+      </c>
+      <c r="I123" s="3">
         <f t="shared" si="44"/>
-        <v>0.37007259200000009</v>
-      </c>
-      <c r="G123" s="3">
-        <v>25</v>
-      </c>
-      <c r="H123" s="3">
+        <v>222.04355520000004</v>
+      </c>
+      <c r="J123" s="3">
         <f t="shared" si="45"/>
+        <v>166.53266640000004</v>
+      </c>
+      <c r="K123" s="35">
+        <f t="shared" si="46"/>
+        <v>370.0725920000001</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="47"/>
+        <v>0.16653266640000003</v>
+      </c>
+      <c r="M123" s="5">
+        <v>25</v>
+      </c>
+      <c r="N123" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O123" s="4">
+        <f t="shared" si="53"/>
         <v>67.554313776363088</v>
       </c>
-      <c r="I123" s="3">
-        <f t="shared" si="46"/>
-        <v>222.04355520000004</v>
-      </c>
-      <c r="J123" s="3">
-        <f t="shared" si="47"/>
-        <v>166.53266640000004</v>
-      </c>
-      <c r="K123" s="35">
+      <c r="P123" s="4">
+        <f t="shared" si="54"/>
+        <v>382.44568622363693</v>
+      </c>
+      <c r="Q123" s="15">
         <f t="shared" si="48"/>
-        <v>370.0725920000001</v>
-      </c>
-      <c r="L123">
+        <v>5.35097719422572E-2</v>
+      </c>
+      <c r="R123" s="15">
         <f t="shared" si="49"/>
-        <v>0.16653266640000003</v>
-      </c>
-      <c r="M123" s="5">
-        <v>25</v>
-      </c>
-      <c r="N123" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O123" s="4">
-        <f t="shared" si="55"/>
-        <v>67.554313776363088</v>
-      </c>
-      <c r="P123" s="4">
-        <f t="shared" si="56"/>
-        <v>382.44568622363693</v>
-      </c>
-      <c r="Q123" s="15">
-        <f t="shared" si="50"/>
-        <v>5.35097719422572E-2</v>
-      </c>
-      <c r="R123" s="15">
-        <f t="shared" si="51"/>
         <v>302.93522805774285</v>
       </c>
       <c r="S123">
@@ -12233,15 +12236,15 @@
         <v>0</v>
       </c>
       <c r="U123">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W123" s="18" t="e">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V123">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W123" s="18" t="e">
-        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12260,30 +12263,30 @@
         <v>1</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" ref="F124:F127" si="57">C124*D124/1000</f>
+        <f t="shared" si="32"/>
         <v>0.38075242400000003</v>
       </c>
       <c r="G124" s="3">
         <v>25</v>
       </c>
       <c r="H124" s="3">
-        <f t="shared" ref="H124:H127" si="58">1/(F124/G124)</f>
+        <f t="shared" ref="H124:H127" si="55">1/(F124/G124)</f>
         <v>65.65946379897504</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" ref="I124:I127" si="59">(C124*D124/E124)*0.6</f>
+        <f t="shared" ref="I124:I127" si="56">(C124*D124/E124)*0.6</f>
         <v>228.45145440000002</v>
       </c>
       <c r="J124" s="3">
-        <f t="shared" ref="J124:J127" si="60">(C124*D124/E124)*0.45</f>
+        <f t="shared" ref="J124:J127" si="57">(C124*D124/E124)*0.45</f>
         <v>171.33859080000002</v>
       </c>
       <c r="K124" s="35">
-        <f t="shared" ref="K124:K127" si="61">(C124*D124/E124)</f>
+        <f t="shared" ref="K124:K127" si="58">(C124*D124/E124)</f>
         <v>380.75242400000002</v>
       </c>
       <c r="L124">
-        <f t="shared" ref="L124:L127" si="62">J124*E124/1000</f>
+        <f t="shared" ref="L124:L127" si="59">J124*E124/1000</f>
         <v>0.17133859080000002</v>
       </c>
       <c r="M124" s="5">
@@ -12293,19 +12296,19 @@
         <v>0.45</v>
       </c>
       <c r="O124" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>65.65946379897504</v>
       </c>
       <c r="P124" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>384.34053620102497</v>
       </c>
       <c r="Q124" s="15">
-        <f t="shared" ref="Q124:Q127" si="63">O124*0.7921/1000</f>
+        <f t="shared" ref="Q124:Q127" si="60">O124*0.7921/1000</f>
         <v>5.2008861275168128E-2</v>
       </c>
       <c r="R124" s="15">
-        <f t="shared" ref="R124:R127" si="64">P124*0.7921</f>
+        <f t="shared" ref="R124:R127" si="61">P124*0.7921</f>
         <v>304.43613872483189</v>
       </c>
       <c r="S124">
@@ -12317,15 +12320,15 @@
         <v>0</v>
       </c>
       <c r="U124">
-        <f t="shared" ref="U124:U127" si="65">(S124/0.792)*1000</f>
+        <f t="shared" ref="U124:U127" si="62">(S124/0.792)*1000</f>
         <v>0</v>
       </c>
       <c r="V124">
-        <f t="shared" ref="V124:V127" si="66">(T124/0.792)*1000</f>
+        <f t="shared" ref="V124:V127" si="63">(T124/0.792)*1000</f>
         <v>0</v>
       </c>
       <c r="W124" s="18" t="e">
-        <f t="shared" ref="W124:W127" si="67">((U124*I124)/(U124+V124))</f>
+        <f t="shared" ref="W124:W127" si="64">((U124*I124)/(U124+V124))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12344,52 +12347,52 @@
         <v>1</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="32"/>
         <v>0.24705512999999998</v>
       </c>
       <c r="G125" s="3">
         <v>25</v>
       </c>
       <c r="H125" s="3">
-        <f t="shared" si="58"/>
-        <v>101.19198901071191</v>
-      </c>
-      <c r="I125" s="3">
-        <f t="shared" si="59"/>
-        <v>148.23307799999998</v>
-      </c>
-      <c r="J125" s="3">
-        <f t="shared" si="60"/>
-        <v>111.1748085</v>
-      </c>
-      <c r="K125" s="35">
-        <f t="shared" si="61"/>
-        <v>247.05512999999999</v>
-      </c>
-      <c r="L125">
-        <f t="shared" si="62"/>
-        <v>0.1111748085</v>
-      </c>
-      <c r="M125" s="5">
-        <v>25</v>
-      </c>
-      <c r="N125" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O125" s="4">
         <f t="shared" si="55"/>
         <v>101.19198901071191</v>
       </c>
+      <c r="I125" s="3">
+        <f t="shared" si="56"/>
+        <v>148.23307799999998</v>
+      </c>
+      <c r="J125" s="3">
+        <f t="shared" si="57"/>
+        <v>111.1748085</v>
+      </c>
+      <c r="K125" s="35">
+        <f t="shared" si="58"/>
+        <v>247.05512999999999</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="59"/>
+        <v>0.1111748085</v>
+      </c>
+      <c r="M125" s="5">
+        <v>25</v>
+      </c>
+      <c r="N125" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O125" s="4">
+        <f t="shared" si="53"/>
+        <v>101.19198901071191</v>
+      </c>
       <c r="P125" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>348.80801098928811</v>
       </c>
       <c r="Q125" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>8.0154174495384908E-2</v>
       </c>
       <c r="R125" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>276.2908255046151</v>
       </c>
       <c r="S125">
@@ -12401,15 +12404,15 @@
         <v>0</v>
       </c>
       <c r="U125">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V125">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W125" s="18" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12428,52 +12431,52 @@
         <v>1</v>
       </c>
       <c r="F126" s="3">
+        <f t="shared" si="32"/>
+        <v>0.28359462299999999</v>
+      </c>
+      <c r="G126" s="3">
+        <v>25</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="55"/>
+        <v>88.153998603845181</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" si="56"/>
+        <v>170.1567738</v>
+      </c>
+      <c r="J126" s="3">
         <f t="shared" si="57"/>
-        <v>0.28359462299999999</v>
-      </c>
-      <c r="G126" s="3">
-        <v>25</v>
-      </c>
-      <c r="H126" s="3">
+        <v>127.61758035000001</v>
+      </c>
+      <c r="K126" s="35">
         <f t="shared" si="58"/>
-        <v>88.153998603845181</v>
-      </c>
-      <c r="I126" s="3">
+        <v>283.59462300000001</v>
+      </c>
+      <c r="L126">
         <f t="shared" si="59"/>
-        <v>170.1567738</v>
-      </c>
-      <c r="J126" s="3">
+        <v>0.12761758035000001</v>
+      </c>
+      <c r="M126" s="5">
+        <v>25</v>
+      </c>
+      <c r="N126" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O126" s="4">
+        <f t="shared" si="53"/>
+        <v>88.153998603845167</v>
+      </c>
+      <c r="P126" s="4">
+        <f t="shared" si="54"/>
+        <v>361.84600139615486</v>
+      </c>
+      <c r="Q126" s="15">
         <f t="shared" si="60"/>
-        <v>127.61758035000001</v>
-      </c>
-      <c r="K126" s="35">
+        <v>6.9826782294105758E-2</v>
+      </c>
+      <c r="R126" s="15">
         <f t="shared" si="61"/>
-        <v>283.59462300000001</v>
-      </c>
-      <c r="L126">
-        <f t="shared" si="62"/>
-        <v>0.12761758035000001</v>
-      </c>
-      <c r="M126" s="5">
-        <v>25</v>
-      </c>
-      <c r="N126" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O126" s="4">
-        <f t="shared" si="55"/>
-        <v>88.153998603845167</v>
-      </c>
-      <c r="P126" s="4">
-        <f t="shared" si="56"/>
-        <v>361.84600139615486</v>
-      </c>
-      <c r="Q126" s="15">
-        <f t="shared" si="63"/>
-        <v>6.9826782294105758E-2</v>
-      </c>
-      <c r="R126" s="15">
-        <f t="shared" si="64"/>
         <v>286.61821770589427</v>
       </c>
       <c r="S126">
@@ -12485,15 +12488,15 @@
         <v>0</v>
       </c>
       <c r="U126">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V126">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W126" s="18" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12512,52 +12515,52 @@
         <v>1</v>
       </c>
       <c r="F127" s="3">
+        <f t="shared" si="32"/>
+        <v>0.25381516799999998</v>
+      </c>
+      <c r="G127" s="3">
+        <v>25</v>
+      </c>
+      <c r="H127" s="3">
+        <f t="shared" si="55"/>
+        <v>98.496871550245586</v>
+      </c>
+      <c r="I127" s="3">
+        <f t="shared" si="56"/>
+        <v>152.2891008</v>
+      </c>
+      <c r="J127" s="3">
         <f t="shared" si="57"/>
-        <v>0.25381516799999998</v>
-      </c>
-      <c r="G127" s="3">
-        <v>25</v>
-      </c>
-      <c r="H127" s="3">
+        <v>114.21682560000001</v>
+      </c>
+      <c r="K127" s="35">
         <f t="shared" si="58"/>
-        <v>98.496871550245586</v>
-      </c>
-      <c r="I127" s="3">
+        <v>253.815168</v>
+      </c>
+      <c r="L127">
         <f t="shared" si="59"/>
-        <v>152.2891008</v>
-      </c>
-      <c r="J127" s="3">
+        <v>0.1142168256</v>
+      </c>
+      <c r="M127" s="5">
+        <v>25</v>
+      </c>
+      <c r="N127" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O127" s="4">
+        <f t="shared" si="53"/>
+        <v>98.496871550245558</v>
+      </c>
+      <c r="P127" s="4">
+        <f t="shared" si="54"/>
+        <v>351.50312844975446</v>
+      </c>
+      <c r="Q127" s="15">
         <f t="shared" si="60"/>
-        <v>114.21682560000001</v>
-      </c>
-      <c r="K127" s="35">
+        <v>7.8019371954949512E-2</v>
+      </c>
+      <c r="R127" s="15">
         <f t="shared" si="61"/>
-        <v>253.815168</v>
-      </c>
-      <c r="L127">
-        <f t="shared" si="62"/>
-        <v>0.1142168256</v>
-      </c>
-      <c r="M127" s="5">
-        <v>25</v>
-      </c>
-      <c r="N127" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="O127" s="4">
-        <f t="shared" si="55"/>
-        <v>98.496871550245558</v>
-      </c>
-      <c r="P127" s="4">
-        <f t="shared" si="56"/>
-        <v>351.50312844975446</v>
-      </c>
-      <c r="Q127" s="15">
-        <f t="shared" si="63"/>
-        <v>7.8019371954949512E-2</v>
-      </c>
-      <c r="R127" s="15">
-        <f t="shared" si="64"/>
         <v>278.42562804505053</v>
       </c>
       <c r="S127">
@@ -12569,15 +12572,15 @@
         <v>0</v>
       </c>
       <c r="U127">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V127">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W127" s="18" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15357,19 +15360,19 @@
       </c>
       <c r="D51" s="22">
         <f>dilutions_calculations_sheet!O50</f>
-        <v>163.79261190099953</v>
+        <v>81.896305950499766</v>
       </c>
       <c r="E51" s="22">
         <f>dilutions_calculations_sheet!P50</f>
-        <v>286.20738809900047</v>
+        <v>368.10369404950023</v>
       </c>
       <c r="F51" s="23">
         <f>dilutions_calculations_sheet!Q50</f>
-        <v>0.12974012788678171</v>
+        <v>6.4870063943390857E-2</v>
       </c>
       <c r="G51" s="23">
         <f>dilutions_calculations_sheet!R50</f>
-        <v>226.70487211321827</v>
+        <v>291.57493605660915</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -18220,26 +18223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DC853A563ABF64B8421887057055B0F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73e5d7f23b6143b72c394d0b791b373d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="03570766-e33a-4164-8943-6d32a7ac417a" xmlns:ns3="5cece13e-3376-4417-9525-be60b11a89a8" xmlns:ns4="482683a9-e61d-4853-b10b-3f4a908e17aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd41d5c3e91c11ef649cb8e5f5e12511" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="03570766-e33a-4164-8943-6d32a7ac417a"/>
@@ -18467,10 +18450,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7F15B3-A81F-4A71-B0B7-DFC0AD11F1D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A0AA8-69A1-4E24-B4DE-BB19F441F5A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
+    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
+    <ds:schemaRef ds:uri="482683a9-e61d-4853-b10b-3f4a908e17aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18494,21 +18509,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A0AA8-69A1-4E24-B4DE-BB19F441F5A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7F15B3-A81F-4A71-B0B7-DFC0AD11F1D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
-    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
-    <ds:schemaRef ds:uri="482683a9-e61d-4853-b10b-3f4a908e17aa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPE/FTICRMS SPE dilutions_JK.xlsx
+++ b/SPE/FTICRMS SPE dilutions_JK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimj704/Github/tempest_ionic_strength/SPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4FB0EC-569D-304F-A208-E6B411A70E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F3244-F40F-F845-92E1-6A8D056895EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1500" windowWidth="38400" windowHeight="21100" xr2:uid="{88C78EEA-1365-A44C-9080-7B0F676A2065}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{88C78EEA-1365-A44C-9080-7B0F676A2065}"/>
   </bookViews>
   <sheets>
     <sheet name="dilutions_calculations_sheet" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="253">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -1039,6 +1039,348 @@
   </si>
   <si>
     <t>eluate + MeOH</t>
+  </si>
+  <si>
+    <t>EUP60985_122</t>
+  </si>
+  <si>
+    <t>EUP60985_123</t>
+  </si>
+  <si>
+    <t>EUP60985_124</t>
+  </si>
+  <si>
+    <t>EUP60985_125</t>
+  </si>
+  <si>
+    <t>EUP60985_126</t>
+  </si>
+  <si>
+    <t>EUP60985_127</t>
+  </si>
+  <si>
+    <t>EUP60985_128</t>
+  </si>
+  <si>
+    <t>EUP60985_129</t>
+  </si>
+  <si>
+    <t>EUP60985_130</t>
+  </si>
+  <si>
+    <t>EUP60985_131</t>
+  </si>
+  <si>
+    <t>EUP60985_132</t>
+  </si>
+  <si>
+    <t>EUP60985_133</t>
+  </si>
+  <si>
+    <t>EUP60985_134</t>
+  </si>
+  <si>
+    <t>EUP60985_135</t>
+  </si>
+  <si>
+    <t>EUP60985_136</t>
+  </si>
+  <si>
+    <t>EUP60985_137</t>
+  </si>
+  <si>
+    <t>EUP60985_138</t>
+  </si>
+  <si>
+    <t>EUP60985_139</t>
+  </si>
+  <si>
+    <t>EUP60985_140</t>
+  </si>
+  <si>
+    <t>EUP60985_141</t>
+  </si>
+  <si>
+    <t>EUP60985_142</t>
+  </si>
+  <si>
+    <t>EUP60985_143</t>
+  </si>
+  <si>
+    <t>EUP60985_144</t>
+  </si>
+  <si>
+    <t>EUP60985_145</t>
+  </si>
+  <si>
+    <t>EUP60985_146</t>
+  </si>
+  <si>
+    <t>EUP60985_147</t>
+  </si>
+  <si>
+    <t>EUP60985_148</t>
+  </si>
+  <si>
+    <t>EUP60985_149</t>
+  </si>
+  <si>
+    <t>EUP60985_150</t>
+  </si>
+  <si>
+    <t>EUP60985_151</t>
+  </si>
+  <si>
+    <t>EUP60985_152</t>
+  </si>
+  <si>
+    <t>EUP60985_153</t>
+  </si>
+  <si>
+    <t>EUP60985_154</t>
+  </si>
+  <si>
+    <t>EUP60985_155</t>
+  </si>
+  <si>
+    <t>EUP60985_156</t>
+  </si>
+  <si>
+    <t>EUP60985_157</t>
+  </si>
+  <si>
+    <t>EUP60985_158</t>
+  </si>
+  <si>
+    <t>EUP60985_159</t>
+  </si>
+  <si>
+    <t>EUP60985_160</t>
+  </si>
+  <si>
+    <t>EUP60985_161</t>
+  </si>
+  <si>
+    <t>EUP60985_162</t>
+  </si>
+  <si>
+    <t>EUP60985_163</t>
+  </si>
+  <si>
+    <t>EUP60985_164</t>
+  </si>
+  <si>
+    <t>EUP60985_165</t>
+  </si>
+  <si>
+    <t>EUP60985_166</t>
+  </si>
+  <si>
+    <t>EUP60985_167</t>
+  </si>
+  <si>
+    <t>EUP60985_168</t>
+  </si>
+  <si>
+    <t>EUP60985_169</t>
+  </si>
+  <si>
+    <t>EUP60985_170</t>
+  </si>
+  <si>
+    <t>EUP60985_171</t>
+  </si>
+  <si>
+    <t>EUP60985_172</t>
+  </si>
+  <si>
+    <t>EUP60985_173</t>
+  </si>
+  <si>
+    <t>EUP60985_174</t>
+  </si>
+  <si>
+    <t>EUP60985_175</t>
+  </si>
+  <si>
+    <t>EUP60985_176</t>
+  </si>
+  <si>
+    <t>EUP60985_177</t>
+  </si>
+  <si>
+    <t>EUP60985_178</t>
+  </si>
+  <si>
+    <t>EUP60985_179</t>
+  </si>
+  <si>
+    <t>EUP60985_180</t>
+  </si>
+  <si>
+    <t>EUP60985_181</t>
+  </si>
+  <si>
+    <t>EUP60985_182</t>
+  </si>
+  <si>
+    <t>EUP60985_183</t>
+  </si>
+  <si>
+    <t>EUP60985_184</t>
+  </si>
+  <si>
+    <t>EUP60985_185</t>
+  </si>
+  <si>
+    <t>EUP60985_186</t>
+  </si>
+  <si>
+    <t>EUP60985_187</t>
+  </si>
+  <si>
+    <t>EUP60985_188</t>
+  </si>
+  <si>
+    <t>EUP60985_189</t>
+  </si>
+  <si>
+    <t>EUP60985_190</t>
+  </si>
+  <si>
+    <t>EUP60985_191</t>
+  </si>
+  <si>
+    <t>EUP60985_192</t>
+  </si>
+  <si>
+    <t>EUP60985_193</t>
+  </si>
+  <si>
+    <t>EUP60985_194</t>
+  </si>
+  <si>
+    <t>EUP60985_195</t>
+  </si>
+  <si>
+    <t>EUP60985_196</t>
+  </si>
+  <si>
+    <t>EUP60985_197</t>
+  </si>
+  <si>
+    <t>EUP60985_198</t>
+  </si>
+  <si>
+    <t>EUP60985_199</t>
+  </si>
+  <si>
+    <t>EUP60985_200</t>
+  </si>
+  <si>
+    <t>EUP60985_201</t>
+  </si>
+  <si>
+    <t>EUP60985_202</t>
+  </si>
+  <si>
+    <t>EUP60985_203</t>
+  </si>
+  <si>
+    <t>EUP60985_204</t>
+  </si>
+  <si>
+    <t>EUP60985_205</t>
+  </si>
+  <si>
+    <t>EUP60985_206</t>
+  </si>
+  <si>
+    <t>EUP60985_207</t>
+  </si>
+  <si>
+    <t>EUP60985_208</t>
+  </si>
+  <si>
+    <t>EUP60985_209</t>
+  </si>
+  <si>
+    <t>EUP60985_210</t>
+  </si>
+  <si>
+    <t>EUP60985_211</t>
+  </si>
+  <si>
+    <t>EUP60985_212</t>
+  </si>
+  <si>
+    <t>EUP60985_213</t>
+  </si>
+  <si>
+    <t>EUP60985_214</t>
+  </si>
+  <si>
+    <t>EUP60985_215</t>
+  </si>
+  <si>
+    <t>EUP60985_216</t>
+  </si>
+  <si>
+    <t>EUP60985_217</t>
+  </si>
+  <si>
+    <t>EUP60985_218</t>
+  </si>
+  <si>
+    <t>EUP60985_219</t>
+  </si>
+  <si>
+    <t>EUP60985_220</t>
+  </si>
+  <si>
+    <t>EUP60985_221</t>
+  </si>
+  <si>
+    <t>EUP60985_222</t>
+  </si>
+  <si>
+    <t>EUP60985_223</t>
+  </si>
+  <si>
+    <t>EUP60985_224</t>
+  </si>
+  <si>
+    <t>EUP60985_225</t>
+  </si>
+  <si>
+    <t>EUP60985_226</t>
+  </si>
+  <si>
+    <t>EUP60985_227</t>
+  </si>
+  <si>
+    <t>EUP60985_228</t>
+  </si>
+  <si>
+    <t>EUP60985_229</t>
+  </si>
+  <si>
+    <t>EUP60985_230</t>
+  </si>
+  <si>
+    <t>EUP60985_231</t>
+  </si>
+  <si>
+    <t>EUP60985_232</t>
+  </si>
+  <si>
+    <t>EUP60985_233</t>
+  </si>
+  <si>
+    <t>EUP60985_234</t>
+  </si>
+  <si>
+    <t>EUP60985_235</t>
   </si>
 </sst>
 </file>
@@ -1955,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D07A3E-9050-4F42-8C8E-5CEE8C3DD998}">
   <dimension ref="A1:X195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="G1" zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2402,9 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
       <c r="C2">
         <v>0.26450000000000001</v>
       </c>
@@ -2142,7 +2486,9 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
       <c r="C3">
         <v>14.75</v>
       </c>
@@ -2226,7 +2572,9 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
       <c r="C4">
         <v>16.079999999999998</v>
       </c>
@@ -2310,7 +2658,9 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
       <c r="C5">
         <v>23.29</v>
       </c>
@@ -2394,7 +2744,9 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
       <c r="C6">
         <v>12.32</v>
       </c>
@@ -2478,7 +2830,9 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
       <c r="C7">
         <v>12.73</v>
       </c>
@@ -2562,7 +2916,9 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
       <c r="C8">
         <v>14.18</v>
       </c>
@@ -2646,7 +3002,9 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
       <c r="C9">
         <v>8.5890000000000004</v>
       </c>
@@ -2730,7 +3088,9 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
       <c r="C10">
         <v>9.7080000000000002</v>
       </c>
@@ -2814,7 +3174,9 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
       <c r="C11">
         <v>9.3049999999999997</v>
       </c>
@@ -2898,7 +3260,9 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
       <c r="C12">
         <v>7.4809999999999999</v>
       </c>
@@ -2982,7 +3346,9 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
       <c r="C13">
         <v>8.577</v>
       </c>
@@ -3066,7 +3432,9 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
       <c r="C14">
         <v>8.6750000000000007</v>
       </c>
@@ -3150,7 +3518,9 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
       <c r="C15">
         <v>6.649</v>
       </c>
@@ -3234,7 +3604,9 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
       <c r="C16">
         <v>7.2069999999999999</v>
       </c>
@@ -3318,7 +3690,9 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
       <c r="C17">
         <v>7.4749999999999996</v>
       </c>
@@ -3402,7 +3776,9 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
       <c r="C18">
         <v>7.2539999999999996</v>
       </c>
@@ -3486,7 +3862,9 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
       <c r="C19">
         <v>6.9530000000000003</v>
       </c>
@@ -3570,7 +3948,9 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
       <c r="C20">
         <v>6.8109999999999999</v>
       </c>
@@ -3654,7 +4034,9 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
       <c r="C21">
         <v>0.20910000000000001</v>
       </c>
@@ -3737,7 +4119,9 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
       <c r="C22">
         <v>11.15</v>
       </c>
@@ -3821,7 +4205,9 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
       <c r="C23">
         <v>10.61</v>
       </c>
@@ -3905,7 +4291,9 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
       <c r="C24">
         <v>10.72</v>
       </c>
@@ -3989,7 +4377,9 @@
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
       <c r="C25">
         <v>16.04</v>
       </c>
@@ -4073,7 +4463,9 @@
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
       <c r="C26">
         <v>16.399999999999999</v>
       </c>
@@ -4157,7 +4549,9 @@
       <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
       <c r="C27">
         <v>17.09</v>
       </c>
@@ -4241,7 +4635,9 @@
       <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
       <c r="C28">
         <v>12.57</v>
       </c>
@@ -4325,7 +4721,9 @@
       <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
       <c r="C29">
         <v>12.33</v>
       </c>
@@ -4409,7 +4807,9 @@
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
       <c r="C30">
         <v>13.07</v>
       </c>
@@ -4493,7 +4893,9 @@
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
       <c r="C31">
         <v>9.11</v>
       </c>
@@ -4577,7 +4979,9 @@
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
       <c r="C32">
         <v>9.2370000000000001</v>
       </c>
@@ -4661,7 +5065,9 @@
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
       <c r="C33">
         <v>11.41</v>
       </c>
@@ -4745,7 +5151,9 @@
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
       <c r="C34">
         <v>7.407</v>
       </c>
@@ -4829,7 +5237,9 @@
       <c r="A35" t="s">
         <v>57</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
       <c r="C35">
         <v>7.2430000000000003</v>
       </c>
@@ -4913,7 +5323,9 @@
       <c r="A36" t="s">
         <v>58</v>
       </c>
-      <c r="B36"/>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
       <c r="C36">
         <v>6.9640000000000004</v>
       </c>
@@ -4997,7 +5409,9 @@
       <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B37"/>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
       <c r="C37">
         <v>7.0170000000000003</v>
       </c>
@@ -5081,7 +5495,9 @@
       <c r="A38" t="s">
         <v>60</v>
       </c>
-      <c r="B38"/>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
       <c r="C38">
         <v>6.3730000000000002</v>
       </c>
@@ -5165,7 +5581,9 @@
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
       <c r="C39">
         <v>5.944</v>
       </c>
@@ -5249,7 +5667,9 @@
       <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="s">
+        <v>177</v>
+      </c>
       <c r="C40">
         <v>0.19939999999999999</v>
       </c>
@@ -5332,7 +5752,9 @@
       <c r="A41" t="s">
         <v>63</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
       <c r="C41">
         <v>5.4580000000000002</v>
       </c>
@@ -5416,7 +5838,9 @@
       <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="B42"/>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
       <c r="C42">
         <v>5.0179999999999998</v>
       </c>
@@ -5500,7 +5924,9 @@
       <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B43"/>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
       <c r="C43">
         <v>4.8769999999999998</v>
       </c>
@@ -5584,7 +6010,9 @@
       <c r="A44" t="s">
         <v>66</v>
       </c>
-      <c r="B44"/>
+      <c r="B44" t="s">
+        <v>181</v>
+      </c>
       <c r="C44">
         <v>19.489999999999998</v>
       </c>
@@ -5668,7 +6096,9 @@
       <c r="A45" t="s">
         <v>67</v>
       </c>
-      <c r="B45"/>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
       <c r="C45">
         <v>18.739999999999998</v>
       </c>
@@ -5752,7 +6182,9 @@
       <c r="A46" t="s">
         <v>68</v>
       </c>
-      <c r="B46"/>
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
       <c r="C46">
         <v>21.45</v>
       </c>
@@ -5836,7 +6268,9 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="B47"/>
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
       <c r="C47">
         <v>18.97</v>
       </c>
@@ -5920,7 +6354,9 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="B48"/>
+      <c r="B48" t="s">
+        <v>185</v>
+      </c>
       <c r="C48">
         <v>19.11</v>
       </c>
@@ -6004,7 +6440,9 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="B49"/>
+      <c r="B49" t="s">
+        <v>186</v>
+      </c>
       <c r="C49">
         <v>18.850000000000001</v>
       </c>
@@ -6088,7 +6526,9 @@
       <c r="A50" t="s">
         <v>72</v>
       </c>
-      <c r="B50"/>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
       <c r="C50">
         <v>14.05</v>
       </c>
@@ -6172,7 +6612,9 @@
       <c r="A51" t="s">
         <v>73</v>
       </c>
-      <c r="B51"/>
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
       <c r="C51">
         <v>14.19</v>
       </c>
@@ -6256,7 +6698,9 @@
       <c r="A52" t="s">
         <v>74</v>
       </c>
-      <c r="B52"/>
+      <c r="B52" t="s">
+        <v>189</v>
+      </c>
       <c r="C52">
         <v>14.3</v>
       </c>
@@ -6340,7 +6784,9 @@
       <c r="A53" t="s">
         <v>75</v>
       </c>
-      <c r="B53"/>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
       <c r="C53">
         <v>11.24</v>
       </c>
@@ -6424,7 +6870,9 @@
       <c r="A54" t="s">
         <v>76</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
       <c r="C54">
         <v>12.39</v>
       </c>
@@ -6508,7 +6956,9 @@
       <c r="A55" t="s">
         <v>77</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
       <c r="C55">
         <v>10.45</v>
       </c>
@@ -6592,7 +7042,9 @@
       <c r="A56" t="s">
         <v>78</v>
       </c>
-      <c r="B56"/>
+      <c r="B56" t="s">
+        <v>193</v>
+      </c>
       <c r="C56">
         <v>9.9610000000000003</v>
       </c>
@@ -6676,7 +7128,9 @@
       <c r="A57" t="s">
         <v>79</v>
       </c>
-      <c r="B57"/>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
       <c r="C57">
         <v>9.9280000000000008</v>
       </c>
@@ -6760,7 +7214,9 @@
       <c r="A58" t="s">
         <v>80</v>
       </c>
-      <c r="B58"/>
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
       <c r="C58">
         <v>8.9269999999999996</v>
       </c>
@@ -6844,7 +7300,9 @@
       <c r="A59" t="s">
         <v>81</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
       <c r="C59">
         <v>0.18809999999999999</v>
       </c>
@@ -6927,7 +7385,9 @@
       <c r="A60" t="s">
         <v>82</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" t="s">
+        <v>197</v>
+      </c>
       <c r="C60">
         <v>5.2039999999999997</v>
       </c>
@@ -7011,7 +7471,9 @@
       <c r="A61" t="s">
         <v>83</v>
       </c>
-      <c r="B61"/>
+      <c r="B61" t="s">
+        <v>198</v>
+      </c>
       <c r="C61">
         <v>5.28</v>
       </c>
@@ -7095,7 +7557,9 @@
       <c r="A62" t="s">
         <v>84</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
       <c r="C62">
         <v>5.5650000000000004</v>
       </c>
@@ -7179,7 +7643,9 @@
       <c r="A63" t="s">
         <v>85</v>
       </c>
-      <c r="B63"/>
+      <c r="B63" t="s">
+        <v>200</v>
+      </c>
       <c r="C63">
         <v>22.58</v>
       </c>
@@ -7263,7 +7729,9 @@
       <c r="A64" t="s">
         <v>86</v>
       </c>
-      <c r="B64"/>
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
       <c r="C64">
         <v>21.03</v>
       </c>
@@ -7347,7 +7815,9 @@
       <c r="A65" t="s">
         <v>87</v>
       </c>
-      <c r="B65"/>
+      <c r="B65" t="s">
+        <v>202</v>
+      </c>
       <c r="C65">
         <v>22.5</v>
       </c>
@@ -7431,7 +7901,9 @@
       <c r="A66" t="s">
         <v>88</v>
       </c>
-      <c r="B66"/>
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
       <c r="C66">
         <v>28.39</v>
       </c>
@@ -7515,7 +7987,9 @@
       <c r="A67" t="s">
         <v>89</v>
       </c>
-      <c r="B67"/>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
       <c r="C67">
         <v>27.99</v>
       </c>
@@ -7599,7 +8073,9 @@
       <c r="A68" t="s">
         <v>90</v>
       </c>
-      <c r="B68"/>
+      <c r="B68" t="s">
+        <v>205</v>
+      </c>
       <c r="C68">
         <v>30.05</v>
       </c>
@@ -7683,7 +8159,9 @@
       <c r="A69" t="s">
         <v>91</v>
       </c>
-      <c r="B69"/>
+      <c r="B69" t="s">
+        <v>206</v>
+      </c>
       <c r="C69">
         <v>20.329999999999998</v>
       </c>
@@ -7767,7 +8245,9 @@
       <c r="A70" t="s">
         <v>92</v>
       </c>
-      <c r="B70"/>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
       <c r="C70">
         <v>21.67</v>
       </c>
@@ -7851,7 +8331,9 @@
       <c r="A71" t="s">
         <v>93</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="s">
+        <v>208</v>
+      </c>
       <c r="C71">
         <v>21.94</v>
       </c>
@@ -7935,7 +8417,9 @@
       <c r="A72" t="s">
         <v>94</v>
       </c>
-      <c r="B72"/>
+      <c r="B72" t="s">
+        <v>209</v>
+      </c>
       <c r="C72">
         <v>13.49</v>
       </c>
@@ -8019,7 +8503,9 @@
       <c r="A73" t="s">
         <v>95</v>
       </c>
-      <c r="B73"/>
+      <c r="B73" t="s">
+        <v>210</v>
+      </c>
       <c r="C73">
         <v>14.56</v>
       </c>
@@ -8103,7 +8589,9 @@
       <c r="A74" t="s">
         <v>96</v>
       </c>
-      <c r="B74"/>
+      <c r="B74" t="s">
+        <v>211</v>
+      </c>
       <c r="C74">
         <v>13.85</v>
       </c>
@@ -8187,7 +8675,9 @@
       <c r="A75" t="s">
         <v>97</v>
       </c>
-      <c r="B75"/>
+      <c r="B75" t="s">
+        <v>212</v>
+      </c>
       <c r="C75">
         <v>11.68</v>
       </c>
@@ -8271,7 +8761,9 @@
       <c r="A76" t="s">
         <v>98</v>
       </c>
-      <c r="B76"/>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
       <c r="C76">
         <v>12.16</v>
       </c>
@@ -8355,7 +8847,9 @@
       <c r="A77" t="s">
         <v>99</v>
       </c>
-      <c r="B77"/>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
       <c r="C77">
         <v>11.99</v>
       </c>
@@ -8439,7 +8933,9 @@
       <c r="A78" t="s">
         <v>100</v>
       </c>
-      <c r="B78"/>
+      <c r="B78" t="s">
+        <v>215</v>
+      </c>
       <c r="C78">
         <v>0.28010000000000002</v>
       </c>
@@ -8522,7 +9018,9 @@
       <c r="A79" t="s">
         <v>101</v>
       </c>
-      <c r="B79"/>
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
       <c r="C79">
         <v>5.8710000000000004</v>
       </c>
@@ -8606,7 +9104,9 @@
       <c r="A80" t="s">
         <v>102</v>
       </c>
-      <c r="B80"/>
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
       <c r="C80">
         <v>5.3280000000000003</v>
       </c>
@@ -8690,7 +9190,9 @@
       <c r="A81" t="s">
         <v>103</v>
       </c>
-      <c r="B81"/>
+      <c r="B81" t="s">
+        <v>218</v>
+      </c>
       <c r="C81">
         <v>6.2160000000000002</v>
       </c>
@@ -8774,7 +9276,9 @@
       <c r="A82" t="s">
         <v>104</v>
       </c>
-      <c r="B82"/>
+      <c r="B82" t="s">
+        <v>219</v>
+      </c>
       <c r="C82">
         <v>13.84</v>
       </c>
@@ -8858,7 +9362,9 @@
       <c r="A83" t="s">
         <v>105</v>
       </c>
-      <c r="B83"/>
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
       <c r="C83">
         <v>14.95</v>
       </c>
@@ -8942,7 +9448,9 @@
       <c r="A84" t="s">
         <v>106</v>
       </c>
-      <c r="B84"/>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
       <c r="C84">
         <v>13.97</v>
       </c>
@@ -9026,7 +9534,9 @@
       <c r="A85" t="s">
         <v>107</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="s">
+        <v>222</v>
+      </c>
       <c r="C85">
         <v>44.34</v>
       </c>
@@ -9110,7 +9620,9 @@
       <c r="A86" t="s">
         <v>108</v>
       </c>
-      <c r="B86"/>
+      <c r="B86" t="s">
+        <v>223</v>
+      </c>
       <c r="C86">
         <v>45.33</v>
       </c>
@@ -9194,7 +9706,9 @@
       <c r="A87" t="s">
         <v>109</v>
       </c>
-      <c r="B87"/>
+      <c r="B87" t="s">
+        <v>224</v>
+      </c>
       <c r="C87">
         <v>47.62</v>
       </c>
@@ -9278,7 +9792,9 @@
       <c r="A88" t="s">
         <v>110</v>
       </c>
-      <c r="B88"/>
+      <c r="B88" t="s">
+        <v>225</v>
+      </c>
       <c r="C88">
         <v>29.77</v>
       </c>
@@ -9362,7 +9878,9 @@
       <c r="A89" t="s">
         <v>111</v>
       </c>
-      <c r="B89"/>
+      <c r="B89" t="s">
+        <v>226</v>
+      </c>
       <c r="C89">
         <v>30.35</v>
       </c>
@@ -9446,7 +9964,9 @@
       <c r="A90" t="s">
         <v>112</v>
       </c>
-      <c r="B90"/>
+      <c r="B90" t="s">
+        <v>227</v>
+      </c>
       <c r="C90">
         <v>31.46</v>
       </c>
@@ -9530,7 +10050,9 @@
       <c r="A91" t="s">
         <v>113</v>
       </c>
-      <c r="B91"/>
+      <c r="B91" t="s">
+        <v>228</v>
+      </c>
       <c r="C91">
         <v>21.98</v>
       </c>
@@ -9614,7 +10136,9 @@
       <c r="A92" t="s">
         <v>114</v>
       </c>
-      <c r="B92"/>
+      <c r="B92" t="s">
+        <v>229</v>
+      </c>
       <c r="C92">
         <v>22.79</v>
       </c>
@@ -9698,7 +10222,9 @@
       <c r="A93" t="s">
         <v>115</v>
       </c>
-      <c r="B93"/>
+      <c r="B93" t="s">
+        <v>230</v>
+      </c>
       <c r="C93">
         <v>22.99</v>
       </c>
@@ -9782,7 +10308,9 @@
       <c r="A94" t="s">
         <v>116</v>
       </c>
-      <c r="B94"/>
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
       <c r="C94">
         <v>15.46</v>
       </c>
@@ -9866,7 +10394,9 @@
       <c r="A95" t="s">
         <v>117</v>
       </c>
-      <c r="B95"/>
+      <c r="B95" t="s">
+        <v>232</v>
+      </c>
       <c r="C95">
         <v>16.57</v>
       </c>
@@ -9950,7 +10480,9 @@
       <c r="A96" t="s">
         <v>118</v>
       </c>
-      <c r="B96"/>
+      <c r="B96" t="s">
+        <v>233</v>
+      </c>
       <c r="C96">
         <v>15.72</v>
       </c>
@@ -10034,7 +10566,9 @@
       <c r="A97" t="s">
         <v>119</v>
       </c>
-      <c r="B97"/>
+      <c r="B97" t="s">
+        <v>234</v>
+      </c>
       <c r="C97">
         <v>0.34279999999999999</v>
       </c>
@@ -10117,7 +10651,9 @@
       <c r="A98" t="s">
         <v>120</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="s">
+        <v>235</v>
+      </c>
       <c r="C98">
         <v>9.3550000000000004</v>
       </c>
@@ -10201,7 +10737,9 @@
       <c r="A99" t="s">
         <v>121</v>
       </c>
-      <c r="B99"/>
+      <c r="B99" t="s">
+        <v>236</v>
+      </c>
       <c r="C99">
         <v>10.210000000000001</v>
       </c>
@@ -10285,7 +10823,9 @@
       <c r="A100" t="s">
         <v>122</v>
       </c>
-      <c r="B100"/>
+      <c r="B100" t="s">
+        <v>237</v>
+      </c>
       <c r="C100">
         <v>8.359</v>
       </c>
@@ -10369,7 +10909,9 @@
       <c r="A101" t="s">
         <v>123</v>
       </c>
-      <c r="B101"/>
+      <c r="B101" t="s">
+        <v>238</v>
+      </c>
       <c r="C101">
         <v>7.657</v>
       </c>
@@ -10453,7 +10995,9 @@
       <c r="A102" t="s">
         <v>124</v>
       </c>
-      <c r="B102"/>
+      <c r="B102" t="s">
+        <v>239</v>
+      </c>
       <c r="C102">
         <v>8.1760000000000002</v>
       </c>
@@ -10537,7 +11081,9 @@
       <c r="A103" t="s">
         <v>125</v>
       </c>
-      <c r="B103"/>
+      <c r="B103" t="s">
+        <v>240</v>
+      </c>
       <c r="C103">
         <v>6.8769999999999998</v>
       </c>
@@ -10621,7 +11167,9 @@
       <c r="A104" t="s">
         <v>126</v>
       </c>
-      <c r="B104"/>
+      <c r="B104" t="s">
+        <v>241</v>
+      </c>
       <c r="C104">
         <v>56.18</v>
       </c>
@@ -10705,7 +11253,9 @@
       <c r="A105" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="11"/>
+      <c r="B105" t="s">
+        <v>242</v>
+      </c>
       <c r="C105">
         <v>53.7</v>
       </c>
@@ -10789,7 +11339,9 @@
       <c r="A106" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="11"/>
+      <c r="B106" t="s">
+        <v>243</v>
+      </c>
       <c r="C106">
         <v>57.34</v>
       </c>
@@ -10873,7 +11425,9 @@
       <c r="A107" t="s">
         <v>129</v>
       </c>
-      <c r="B107" s="11"/>
+      <c r="B107" t="s">
+        <v>244</v>
+      </c>
       <c r="C107">
         <v>47.55</v>
       </c>
@@ -10957,7 +11511,9 @@
       <c r="A108" t="s">
         <v>130</v>
       </c>
-      <c r="B108" s="11"/>
+      <c r="B108" t="s">
+        <v>245</v>
+      </c>
       <c r="C108">
         <v>46.53</v>
       </c>
@@ -11041,7 +11597,9 @@
       <c r="A109" t="s">
         <v>131</v>
       </c>
-      <c r="B109" s="11"/>
+      <c r="B109" t="s">
+        <v>246</v>
+      </c>
       <c r="C109">
         <v>45.03</v>
       </c>
@@ -11125,7 +11683,9 @@
       <c r="A110" t="s">
         <v>132</v>
       </c>
-      <c r="B110" s="11"/>
+      <c r="B110" t="s">
+        <v>247</v>
+      </c>
       <c r="C110">
         <v>27.03</v>
       </c>
@@ -11209,7 +11769,9 @@
       <c r="A111" t="s">
         <v>133</v>
       </c>
-      <c r="B111" s="11"/>
+      <c r="B111" t="s">
+        <v>248</v>
+      </c>
       <c r="C111">
         <v>27.71</v>
       </c>
@@ -11293,7 +11855,9 @@
       <c r="A112" t="s">
         <v>134</v>
       </c>
-      <c r="B112" s="11"/>
+      <c r="B112" t="s">
+        <v>249</v>
+      </c>
       <c r="C112">
         <v>27.56</v>
       </c>
@@ -11377,7 +11941,9 @@
       <c r="A113" t="s">
         <v>135</v>
       </c>
-      <c r="B113" s="11"/>
+      <c r="B113" t="s">
+        <v>250</v>
+      </c>
       <c r="C113">
         <v>18.899999999999999</v>
       </c>
@@ -11461,7 +12027,9 @@
       <c r="A114" t="s">
         <v>136</v>
       </c>
-      <c r="B114" s="11"/>
+      <c r="B114" t="s">
+        <v>251</v>
+      </c>
       <c r="C114">
         <v>20.309999999999999</v>
       </c>
@@ -11545,7 +12113,9 @@
       <c r="A115" t="s">
         <v>137</v>
       </c>
-      <c r="B115" s="11"/>
+      <c r="B115" t="s">
+        <v>252</v>
+      </c>
       <c r="C115">
         <v>18.88</v>
       </c>
@@ -12775,7 +13345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA53AE6-5E23-2442-8563-4CA30FF6662F}">
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -12829,9 +13399,9 @@
         <f>dilutions_calculations_sheet!A2</f>
         <v>TMP_IS_1_A</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="35" t="str">
         <f>dilutions_calculations_sheet!B2</f>
-        <v>0</v>
+        <v>EUP60985_122</v>
       </c>
       <c r="C2" s="19">
         <f>dilutions_calculations_sheet!N2</f>
@@ -12865,9 +13435,9 @@
         <f>dilutions_calculations_sheet!A3</f>
         <v>TMP_IS_2_A</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="35" t="str">
         <f>dilutions_calculations_sheet!B3</f>
-        <v>0</v>
+        <v>EUP60985_123</v>
       </c>
       <c r="C3" s="19">
         <f>dilutions_calculations_sheet!N3</f>
@@ -12893,7 +13463,7 @@
         <v>0.1143</v>
       </c>
       <c r="I3" s="22">
-        <f>J3-H3</f>
+        <f t="shared" ref="I3:I20" si="0">J3-H3</f>
         <v>0.22809999999999997</v>
       </c>
       <c r="J3">
@@ -12905,9 +13475,9 @@
         <f>dilutions_calculations_sheet!A4</f>
         <v>TMP_IS_2_B</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="35" t="str">
         <f>dilutions_calculations_sheet!B4</f>
-        <v>0</v>
+        <v>EUP60985_124</v>
       </c>
       <c r="C4" s="19">
         <f>dilutions_calculations_sheet!N4</f>
@@ -12933,7 +13503,7 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="I4" s="22">
-        <f>J4-H4</f>
+        <f t="shared" si="0"/>
         <v>0.24259999999999998</v>
       </c>
       <c r="J4">
@@ -12945,9 +13515,9 @@
         <f>dilutions_calculations_sheet!A5</f>
         <v>TMP_IS_2_C</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="35" t="str">
         <f>dilutions_calculations_sheet!B5</f>
-        <v>0</v>
+        <v>EUP60985_125</v>
       </c>
       <c r="C5" s="19">
         <f>dilutions_calculations_sheet!N5</f>
@@ -12973,7 +13543,7 @@
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="I5" s="22">
-        <f>J5-H5</f>
+        <f t="shared" si="0"/>
         <v>0.28339999999999999</v>
       </c>
       <c r="J5">
@@ -12985,9 +13555,9 @@
         <f>dilutions_calculations_sheet!A6</f>
         <v>TMP_IS_3_A</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="35" t="str">
         <f>dilutions_calculations_sheet!B6</f>
-        <v>0</v>
+        <v>EUP60985_126</v>
       </c>
       <c r="C6" s="19">
         <f>dilutions_calculations_sheet!N6</f>
@@ -13013,7 +13583,7 @@
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="I6" s="22">
-        <f>J6-H6</f>
+        <f t="shared" si="0"/>
         <v>0.248</v>
       </c>
       <c r="J6">
@@ -13025,9 +13595,9 @@
         <f>dilutions_calculations_sheet!A7</f>
         <v>TMP_IS_3_B</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="35" t="str">
         <f>dilutions_calculations_sheet!B7</f>
-        <v>0</v>
+        <v>EUP60985_127</v>
       </c>
       <c r="C7" s="19">
         <f>dilutions_calculations_sheet!N7</f>
@@ -13053,7 +13623,7 @@
         <v>9.7699999999999995E-2</v>
       </c>
       <c r="I7" s="22">
-        <f>J7-H7</f>
+        <f t="shared" si="0"/>
         <v>0.24959999999999999</v>
       </c>
       <c r="J7">
@@ -13065,9 +13635,9 @@
         <f>dilutions_calculations_sheet!A8</f>
         <v>TMP_IS_3_C</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="35" t="str">
         <f>dilutions_calculations_sheet!B8</f>
-        <v>0</v>
+        <v>EUP60985_128</v>
       </c>
       <c r="C8" s="19">
         <f>dilutions_calculations_sheet!N8</f>
@@ -13093,7 +13663,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="I8" s="22">
-        <f>J8-H8</f>
+        <f t="shared" si="0"/>
         <v>0.25350000000000006</v>
       </c>
       <c r="J8">
@@ -13105,9 +13675,9 @@
         <f>dilutions_calculations_sheet!A9</f>
         <v>TMP_IS_4_A</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="35" t="str">
         <f>dilutions_calculations_sheet!B9</f>
-        <v>0</v>
+        <v>EUP60985_129</v>
       </c>
       <c r="C9" s="19">
         <f>dilutions_calculations_sheet!N9</f>
@@ -13133,7 +13703,7 @@
         <v>0.1487</v>
       </c>
       <c r="I9" s="22">
-        <f>J9-H9</f>
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="J9">
@@ -13145,9 +13715,9 @@
         <f>dilutions_calculations_sheet!A10</f>
         <v>TMP_IS_4_B</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="35" t="str">
         <f>dilutions_calculations_sheet!B10</f>
-        <v>0</v>
+        <v>EUP60985_130</v>
       </c>
       <c r="C10" s="19">
         <f>dilutions_calculations_sheet!N10</f>
@@ -13173,7 +13743,7 @@
         <v>0.1249</v>
       </c>
       <c r="I10" s="22">
-        <f>J10-H10</f>
+        <f t="shared" si="0"/>
         <v>0.22170000000000001</v>
       </c>
       <c r="J10">
@@ -13185,9 +13755,9 @@
         <f>dilutions_calculations_sheet!A11</f>
         <v>TMP_IS_4_C</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="35" t="str">
         <f>dilutions_calculations_sheet!B11</f>
-        <v>0</v>
+        <v>EUP60985_131</v>
       </c>
       <c r="C11" s="19">
         <f>dilutions_calculations_sheet!N11</f>
@@ -13213,7 +13783,7 @@
         <v>0.1351</v>
       </c>
       <c r="I11" s="22">
-        <f>J11-H11</f>
+        <f t="shared" si="0"/>
         <v>0.2142</v>
       </c>
       <c r="J11">
@@ -13225,9 +13795,9 @@
         <f>dilutions_calculations_sheet!A12</f>
         <v>TMP_IS_5_A</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="35" t="str">
         <f>dilutions_calculations_sheet!B12</f>
-        <v>0</v>
+        <v>EUP60985_132</v>
       </c>
       <c r="C12" s="19">
         <f>dilutions_calculations_sheet!N12</f>
@@ -13253,7 +13823,7 @@
         <v>0.14810000000000001</v>
       </c>
       <c r="I12" s="22">
-        <f>J12-H12</f>
+        <f t="shared" si="0"/>
         <v>0.19669999999999999</v>
       </c>
       <c r="J12">
@@ -13265,9 +13835,9 @@
         <f>dilutions_calculations_sheet!A13</f>
         <v>TMP_IS_5_B</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="35" t="str">
         <f>dilutions_calculations_sheet!B13</f>
-        <v>0</v>
+        <v>EUP60985_133</v>
       </c>
       <c r="C13" s="19">
         <f>dilutions_calculations_sheet!N13</f>
@@ -13293,7 +13863,7 @@
         <v>0.152</v>
       </c>
       <c r="I13" s="22">
-        <f>J13-H13</f>
+        <f t="shared" si="0"/>
         <v>0.1903</v>
       </c>
       <c r="J13">
@@ -13305,9 +13875,9 @@
         <f>dilutions_calculations_sheet!A14</f>
         <v>TMP_IS_5_C</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="35" t="str">
         <f>dilutions_calculations_sheet!B14</f>
-        <v>0</v>
+        <v>EUP60985_134</v>
       </c>
       <c r="C14" s="19">
         <f>dilutions_calculations_sheet!N14</f>
@@ -13333,7 +13903,7 @@
         <v>0.1444</v>
       </c>
       <c r="I14" s="22">
-        <f>J14-H14</f>
+        <f t="shared" si="0"/>
         <v>0.19839999999999999</v>
       </c>
       <c r="J14">
@@ -13345,9 +13915,9 @@
         <f>dilutions_calculations_sheet!A15</f>
         <v>TMP_IS_6_A</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="35" t="str">
         <f>dilutions_calculations_sheet!B15</f>
-        <v>0</v>
+        <v>EUP60985_135</v>
       </c>
       <c r="C15" s="19">
         <f>dilutions_calculations_sheet!N15</f>
@@ -13373,7 +13943,7 @@
         <v>0.18629999999999999</v>
       </c>
       <c r="I15" s="22">
-        <f>J15-H15</f>
+        <f t="shared" si="0"/>
         <v>0.16069999999999998</v>
       </c>
       <c r="J15">
@@ -13385,9 +13955,9 @@
         <f>dilutions_calculations_sheet!A16</f>
         <v>TMP_IS_6_B</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="35" t="str">
         <f>dilutions_calculations_sheet!B16</f>
-        <v>0</v>
+        <v>EUP60985_136</v>
       </c>
       <c r="C16" s="19">
         <f>dilutions_calculations_sheet!N16</f>
@@ -13413,7 +13983,7 @@
         <v>0.16420000000000001</v>
       </c>
       <c r="I16" s="22">
-        <f>J16-H16</f>
+        <f t="shared" si="0"/>
         <v>0.17580000000000001</v>
       </c>
       <c r="J16">
@@ -13425,9 +13995,9 @@
         <f>dilutions_calculations_sheet!A17</f>
         <v>TMP_IS_6_C</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="35" t="str">
         <f>dilutions_calculations_sheet!B17</f>
-        <v>0</v>
+        <v>EUP60985_137</v>
       </c>
       <c r="C17" s="19">
         <f>dilutions_calculations_sheet!N17</f>
@@ -13453,7 +14023,7 @@
         <v>0.16889999999999999</v>
       </c>
       <c r="I17" s="22">
-        <f>J17-H17</f>
+        <f t="shared" si="0"/>
         <v>0.1734</v>
       </c>
       <c r="J17">
@@ -13465,9 +14035,9 @@
         <f>dilutions_calculations_sheet!A18</f>
         <v>TMP_IS_7_A</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="35" t="str">
         <f>dilutions_calculations_sheet!B18</f>
-        <v>0</v>
+        <v>EUP60985_138</v>
       </c>
       <c r="C18" s="19">
         <f>dilutions_calculations_sheet!N18</f>
@@ -13493,7 +14063,7 @@
         <v>0.16689999999999999</v>
       </c>
       <c r="I18" s="22">
-        <f>J18-H18</f>
+        <f t="shared" si="0"/>
         <v>0.17899999999999999</v>
       </c>
       <c r="J18">
@@ -13505,9 +14075,9 @@
         <f>dilutions_calculations_sheet!A19</f>
         <v>TMP_IS_7_B</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="35" t="str">
         <f>dilutions_calculations_sheet!B19</f>
-        <v>0</v>
+        <v>EUP60985_139</v>
       </c>
       <c r="C19" s="19">
         <f>dilutions_calculations_sheet!N19</f>
@@ -13533,7 +14103,7 @@
         <v>0.1774</v>
       </c>
       <c r="I19" s="22">
-        <f>J19-H19</f>
+        <f t="shared" si="0"/>
         <v>0.16709999999999997</v>
       </c>
       <c r="J19">
@@ -13545,9 +14115,9 @@
         <f>dilutions_calculations_sheet!A20</f>
         <v>TMP_IS_7_C</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="35" t="str">
         <f>dilutions_calculations_sheet!B20</f>
-        <v>0</v>
+        <v>EUP60985_140</v>
       </c>
       <c r="C20" s="19">
         <f>dilutions_calculations_sheet!N20</f>
@@ -13573,7 +14143,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="I20" s="22">
-        <f>J20-H20</f>
+        <f t="shared" si="0"/>
         <v>0.16039999999999999</v>
       </c>
       <c r="J20">
@@ -13585,9 +14155,9 @@
         <f>dilutions_calculations_sheet!A21</f>
         <v>TMP_IS_8_A</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="35" t="str">
         <f>dilutions_calculations_sheet!B21</f>
-        <v>0</v>
+        <v>EUP60985_141</v>
       </c>
       <c r="C21" s="19">
         <f>dilutions_calculations_sheet!N21</f>
@@ -13621,9 +14191,9 @@
         <f>dilutions_calculations_sheet!A22</f>
         <v>TMP_IS_9_A</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="35" t="str">
         <f>dilutions_calculations_sheet!B22</f>
-        <v>0</v>
+        <v>EUP60985_142</v>
       </c>
       <c r="C22" s="19">
         <f>dilutions_calculations_sheet!N22</f>
@@ -13649,7 +14219,7 @@
         <v>0.1166</v>
       </c>
       <c r="I22" s="22">
-        <f>J22-H22</f>
+        <f t="shared" ref="I22:I28" si="1">J22-H22</f>
         <v>0.22540000000000004</v>
       </c>
       <c r="J22">
@@ -13661,9 +14231,9 @@
         <f>dilutions_calculations_sheet!A23</f>
         <v>TMP_IS_9_B</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="35" t="str">
         <f>dilutions_calculations_sheet!B23</f>
-        <v>0</v>
+        <v>EUP60985_143</v>
       </c>
       <c r="C23" s="19">
         <f>dilutions_calculations_sheet!N23</f>
@@ -13689,7 +14259,7 @@
         <v>0.1303</v>
       </c>
       <c r="I23" s="22">
-        <f>J23-H23</f>
+        <f t="shared" si="1"/>
         <v>0.20799999999999999</v>
       </c>
       <c r="J23">
@@ -13701,9 +14271,9 @@
         <f>dilutions_calculations_sheet!A24</f>
         <v>TMP_IS_9_C</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="35" t="str">
         <f>dilutions_calculations_sheet!B24</f>
-        <v>0</v>
+        <v>EUP60985_144</v>
       </c>
       <c r="C24" s="19">
         <f>dilutions_calculations_sheet!N24</f>
@@ -13729,7 +14299,7 @@
         <v>0.1164</v>
       </c>
       <c r="I24" s="22">
-        <f>J24-H24</f>
+        <f t="shared" si="1"/>
         <v>0.22499999999999998</v>
       </c>
       <c r="J24">
@@ -13741,9 +14311,9 @@
         <f>dilutions_calculations_sheet!A25</f>
         <v>TMP_IS_10_A</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="35" t="str">
         <f>dilutions_calculations_sheet!B25</f>
-        <v>0</v>
+        <v>EUP60985_145</v>
       </c>
       <c r="C25" s="19">
         <f>dilutions_calculations_sheet!N25</f>
@@ -13769,7 +14339,7 @@
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="I25" s="22">
-        <f>J25-H25</f>
+        <f t="shared" si="1"/>
         <v>0.25670000000000004</v>
       </c>
       <c r="J25">
@@ -13781,9 +14351,9 @@
         <f>dilutions_calculations_sheet!A26</f>
         <v>TMP_IS_10_B</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="35" t="str">
         <f>dilutions_calculations_sheet!B26</f>
-        <v>0</v>
+        <v>EUP60985_146</v>
       </c>
       <c r="C26" s="19">
         <f>dilutions_calculations_sheet!N26</f>
@@ -13809,7 +14379,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I26" s="22">
-        <f>J26-H26</f>
+        <f t="shared" si="1"/>
         <v>0.26289999999999997</v>
       </c>
       <c r="J26">
@@ -13821,9 +14391,9 @@
         <f>dilutions_calculations_sheet!A27</f>
         <v>TMP_IS_10_C</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="35" t="str">
         <f>dilutions_calculations_sheet!B27</f>
-        <v>0</v>
+        <v>EUP60985_147</v>
       </c>
       <c r="C27" s="19">
         <f>dilutions_calculations_sheet!N27</f>
@@ -13849,7 +14419,7 @@
         <v>7.0199999999999999E-2</v>
       </c>
       <c r="I27" s="22">
-        <f>J27-H27</f>
+        <f t="shared" si="1"/>
         <v>0.2676</v>
       </c>
       <c r="J27">
@@ -13861,9 +14431,9 @@
         <f>dilutions_calculations_sheet!A28</f>
         <v>TMP_IS_11_A</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="35" t="str">
         <f>dilutions_calculations_sheet!B28</f>
-        <v>0</v>
+        <v>EUP60985_148</v>
       </c>
       <c r="C28" s="19">
         <f>dilutions_calculations_sheet!N28</f>
@@ -13889,7 +14459,7 @@
         <v>9.9599999999999994E-2</v>
       </c>
       <c r="I28" s="22">
-        <f>J28-H28</f>
+        <f t="shared" si="1"/>
         <v>0.24040000000000003</v>
       </c>
       <c r="J28">
@@ -13930,9 +14500,9 @@
         <f>dilutions_calculations_sheet!A29</f>
         <v>TMP_IS_11_B</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="35" t="str">
         <f>dilutions_calculations_sheet!B29</f>
-        <v>0</v>
+        <v>EUP60985_149</v>
       </c>
       <c r="C30" s="19">
         <f>dilutions_calculations_sheet!N29</f>
@@ -13958,7 +14528,7 @@
         <v>9.4200000000000006E-2</v>
       </c>
       <c r="I30" s="22">
-        <f>J30-H30</f>
+        <f t="shared" ref="I30:I40" si="2">J30-H30</f>
         <v>0.2404</v>
       </c>
       <c r="J30">
@@ -13970,9 +14540,9 @@
         <f>dilutions_calculations_sheet!A30</f>
         <v>TMP_IS_11_C</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="35" t="str">
         <f>dilutions_calculations_sheet!B30</f>
-        <v>0</v>
+        <v>EUP60985_150</v>
       </c>
       <c r="C31" s="19">
         <f>dilutions_calculations_sheet!N30</f>
@@ -13998,7 +14568,7 @@
         <v>9.35E-2</v>
       </c>
       <c r="I31" s="22">
-        <f>J31-H31</f>
+        <f t="shared" si="2"/>
         <v>0.24479999999999999</v>
       </c>
       <c r="J31">
@@ -14010,9 +14580,9 @@
         <f>dilutions_calculations_sheet!A31</f>
         <v>TMP_IS_12_A</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="35" t="str">
         <f>dilutions_calculations_sheet!B31</f>
-        <v>0</v>
+        <v>EUP60985_151</v>
       </c>
       <c r="C32" s="19">
         <f>dilutions_calculations_sheet!N31</f>
@@ -14038,7 +14608,7 @@
         <v>0.1411</v>
       </c>
       <c r="I32" s="22">
-        <f>J32-H32</f>
+        <f t="shared" si="2"/>
         <v>0.20169999999999999</v>
       </c>
       <c r="J32">
@@ -14050,9 +14620,9 @@
         <f>dilutions_calculations_sheet!A32</f>
         <v>TMP_IS_12_B</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="35" t="str">
         <f>dilutions_calculations_sheet!B32</f>
-        <v>0</v>
+        <v>EUP60985_152</v>
       </c>
       <c r="C33" s="19">
         <f>dilutions_calculations_sheet!N32</f>
@@ -14078,7 +14648,7 @@
         <v>0.13059999999999999</v>
       </c>
       <c r="I33" s="22">
-        <f>J33-H33</f>
+        <f t="shared" si="2"/>
         <v>0.20860000000000001</v>
       </c>
       <c r="J33">
@@ -14090,9 +14660,9 @@
         <f>dilutions_calculations_sheet!A33</f>
         <v>TMP_IS_12_C</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="35" t="str">
         <f>dilutions_calculations_sheet!B33</f>
-        <v>0</v>
+        <v>EUP60985_153</v>
       </c>
       <c r="C34" s="19">
         <f>dilutions_calculations_sheet!N33</f>
@@ -14118,7 +14688,7 @@
         <v>0.1133</v>
       </c>
       <c r="I34" s="22">
-        <f>J34-H34</f>
+        <f t="shared" si="2"/>
         <v>0.23199999999999998</v>
       </c>
       <c r="J34">
@@ -14130,9 +14700,9 @@
         <f>dilutions_calculations_sheet!A34</f>
         <v>TMP_IS_13_A</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="35" t="str">
         <f>dilutions_calculations_sheet!B34</f>
-        <v>0</v>
+        <v>EUP60985_154</v>
       </c>
       <c r="C35" s="19">
         <f>dilutions_calculations_sheet!N34</f>
@@ -14158,7 +14728,7 @@
         <v>0.15609999999999999</v>
       </c>
       <c r="I35" s="22">
-        <f>J35-H35</f>
+        <f t="shared" si="2"/>
         <v>0.1857</v>
       </c>
       <c r="J35">
@@ -14170,9 +14740,9 @@
         <f>dilutions_calculations_sheet!A35</f>
         <v>TMP_IS_13_B</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="35" t="str">
         <f>dilutions_calculations_sheet!B35</f>
-        <v>0</v>
+        <v>EUP60985_155</v>
       </c>
       <c r="C36" s="19">
         <f>dilutions_calculations_sheet!N35</f>
@@ -14198,7 +14768,7 @@
         <v>0.17369999999999999</v>
       </c>
       <c r="I36" s="22">
-        <f>J36-H36</f>
+        <f t="shared" si="2"/>
         <v>0.16969999999999999</v>
       </c>
       <c r="J36">
@@ -14210,9 +14780,9 @@
         <f>dilutions_calculations_sheet!A36</f>
         <v>TMP_IS_13_C</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="35" t="str">
         <f>dilutions_calculations_sheet!B36</f>
-        <v>0</v>
+        <v>EUP60985_156</v>
       </c>
       <c r="C37" s="19">
         <f>dilutions_calculations_sheet!N36</f>
@@ -14238,7 +14808,7 @@
         <v>0.16650000000000001</v>
       </c>
       <c r="I37" s="22">
-        <f>J37-H37</f>
+        <f t="shared" si="2"/>
         <v>0.1757</v>
       </c>
       <c r="J37">
@@ -14250,9 +14820,9 @@
         <f>dilutions_calculations_sheet!A37</f>
         <v>TMP_IS_14_A</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="35" t="str">
         <f>dilutions_calculations_sheet!B37</f>
-        <v>0</v>
+        <v>EUP60985_157</v>
       </c>
       <c r="C38" s="19">
         <f>dilutions_calculations_sheet!N37</f>
@@ -14278,7 +14848,7 @@
         <v>0.17530000000000001</v>
       </c>
       <c r="I38" s="22">
-        <f>J38-H38</f>
+        <f t="shared" si="2"/>
         <v>0.16799999999999998</v>
       </c>
       <c r="J38">
@@ -14290,9 +14860,9 @@
         <f>dilutions_calculations_sheet!A38</f>
         <v>TMP_IS_14_B</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="35" t="str">
         <f>dilutions_calculations_sheet!B38</f>
-        <v>0</v>
+        <v>EUP60985_158</v>
       </c>
       <c r="C39" s="19">
         <f>dilutions_calculations_sheet!N38</f>
@@ -14318,7 +14888,7 @@
         <v>0.19850000000000001</v>
       </c>
       <c r="I39" s="22">
-        <f>J39-H39</f>
+        <f t="shared" si="2"/>
         <v>0.14560000000000001</v>
       </c>
       <c r="J39">
@@ -14330,9 +14900,9 @@
         <f>dilutions_calculations_sheet!A39</f>
         <v>TMP_IS_14_C</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="35" t="str">
         <f>dilutions_calculations_sheet!B39</f>
-        <v>0</v>
+        <v>EUP60985_159</v>
       </c>
       <c r="C40" s="19">
         <f>dilutions_calculations_sheet!N39</f>
@@ -14358,7 +14928,7 @@
         <v>0.20710000000000001</v>
       </c>
       <c r="I40" s="22">
-        <f>J40-H40</f>
+        <f t="shared" si="2"/>
         <v>0.13719999999999999</v>
       </c>
       <c r="J40">
@@ -14370,9 +14940,9 @@
         <f>dilutions_calculations_sheet!A40</f>
         <v>TMP_IS_15_A</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="35" t="str">
         <f>dilutions_calculations_sheet!B40</f>
-        <v>0</v>
+        <v>EUP60985_160</v>
       </c>
       <c r="C41" s="19">
         <f>dilutions_calculations_sheet!N40</f>
@@ -14406,9 +14976,9 @@
         <f>dilutions_calculations_sheet!A41</f>
         <v>TMP_IS_16_A</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="35" t="str">
         <f>dilutions_calculations_sheet!B41</f>
-        <v>0</v>
+        <v>EUP60985_161</v>
       </c>
       <c r="C42" s="19">
         <f>dilutions_calculations_sheet!N41</f>
@@ -14434,7 +15004,7 @@
         <v>0.22520000000000001</v>
       </c>
       <c r="I42" s="22">
-        <f>J42-H42</f>
+        <f t="shared" ref="I42:I56" si="3">J42-H42</f>
         <v>0.1018</v>
       </c>
       <c r="J42">
@@ -14446,9 +15016,9 @@
         <f>dilutions_calculations_sheet!A42</f>
         <v>TMP_IS_16_B</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="35" t="str">
         <f>dilutions_calculations_sheet!B42</f>
-        <v>0</v>
+        <v>EUP60985_162</v>
       </c>
       <c r="C43" s="19">
         <f>dilutions_calculations_sheet!N42</f>
@@ -14474,7 +15044,7 @@
         <v>0.24260000000000001</v>
       </c>
       <c r="I43" s="22">
-        <f>J43-H43</f>
+        <f t="shared" si="3"/>
         <v>9.6099999999999991E-2</v>
       </c>
       <c r="J43">
@@ -14486,9 +15056,9 @@
         <f>dilutions_calculations_sheet!A43</f>
         <v>TMP_IS_16_C</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="35" t="str">
         <f>dilutions_calculations_sheet!B43</f>
-        <v>0</v>
+        <v>EUP60985_163</v>
       </c>
       <c r="C44" s="19">
         <f>dilutions_calculations_sheet!N43</f>
@@ -14514,7 +15084,7 @@
         <v>0.26829999999999998</v>
       </c>
       <c r="I44" s="22">
-        <f>J44-H44</f>
+        <f t="shared" si="3"/>
         <v>7.3900000000000021E-2</v>
       </c>
       <c r="J44">
@@ -14526,9 +15096,9 @@
         <f>dilutions_calculations_sheet!A44</f>
         <v>TMP_IS_17_A</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="35" t="str">
         <f>dilutions_calculations_sheet!B44</f>
-        <v>0</v>
+        <v>EUP60985_164</v>
       </c>
       <c r="C45" s="19">
         <f>dilutions_calculations_sheet!N44</f>
@@ -14554,7 +15124,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="I45" s="22">
-        <f>J45-H45</f>
+        <f t="shared" si="3"/>
         <v>0.27850000000000003</v>
       </c>
       <c r="J45">
@@ -14566,9 +15136,9 @@
         <f>dilutions_calculations_sheet!A45</f>
         <v>TMP_IS_17_B</v>
       </c>
-      <c r="B46" s="35">
+      <c r="B46" s="35" t="str">
         <f>dilutions_calculations_sheet!B45</f>
-        <v>0</v>
+        <v>EUP60985_165</v>
       </c>
       <c r="C46" s="19">
         <f>dilutions_calculations_sheet!N45</f>
@@ -14594,7 +15164,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="I46" s="22">
-        <f>J46-H46</f>
+        <f t="shared" si="3"/>
         <v>0.28129999999999999</v>
       </c>
       <c r="J46">
@@ -14606,9 +15176,9 @@
         <f>dilutions_calculations_sheet!A46</f>
         <v>TMP_IS_17_C</v>
       </c>
-      <c r="B47" s="35">
+      <c r="B47" s="35" t="str">
         <f>dilutions_calculations_sheet!B46</f>
-        <v>0</v>
+        <v>EUP60985_166</v>
       </c>
       <c r="C47" s="19">
         <f>dilutions_calculations_sheet!N46</f>
@@ -14634,7 +15204,7 @@
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="I47" s="22">
-        <f>J47-H47</f>
+        <f t="shared" si="3"/>
         <v>0.28309999999999996</v>
       </c>
       <c r="J47">
@@ -14646,9 +15216,9 @@
         <f>dilutions_calculations_sheet!A47</f>
         <v>TMP_IS_18_A</v>
       </c>
-      <c r="B48" s="35">
+      <c r="B48" s="35" t="str">
         <f>dilutions_calculations_sheet!B47</f>
-        <v>0</v>
+        <v>EUP60985_167</v>
       </c>
       <c r="C48" s="19">
         <f>dilutions_calculations_sheet!N47</f>
@@ -14674,7 +15244,7 @@
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="I48" s="22">
-        <f>J48-H48</f>
+        <f t="shared" si="3"/>
         <v>0.2782</v>
       </c>
       <c r="J48">
@@ -14686,9 +15256,9 @@
         <f>dilutions_calculations_sheet!A48</f>
         <v>TMP_IS_18_B</v>
       </c>
-      <c r="B49" s="35">
+      <c r="B49" s="35" t="str">
         <f>dilutions_calculations_sheet!B48</f>
-        <v>0</v>
+        <v>EUP60985_168</v>
       </c>
       <c r="C49" s="19">
         <f>dilutions_calculations_sheet!N48</f>
@@ -14714,7 +15284,7 @@
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="I49" s="22">
-        <f>J49-H49</f>
+        <f t="shared" si="3"/>
         <v>0.2787</v>
       </c>
       <c r="J49">
@@ -14726,9 +15296,9 @@
         <f>dilutions_calculations_sheet!A49</f>
         <v>TMP_IS_18_C</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="35" t="str">
         <f>dilutions_calculations_sheet!B49</f>
-        <v>0</v>
+        <v>EUP60985_169</v>
       </c>
       <c r="C50" s="19">
         <f>dilutions_calculations_sheet!N49</f>
@@ -14754,7 +15324,7 @@
         <v>6.8099999999999994E-2</v>
       </c>
       <c r="I50" s="22">
-        <f>J50-H50</f>
+        <f t="shared" si="3"/>
         <v>0.2772</v>
       </c>
       <c r="J50">
@@ -14766,9 +15336,9 @@
         <f>dilutions_calculations_sheet!A50</f>
         <v>TMP_IS_19_A</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="35" t="str">
         <f>dilutions_calculations_sheet!B50</f>
-        <v>0</v>
+        <v>EUP60985_170</v>
       </c>
       <c r="C51" s="19">
         <f>dilutions_calculations_sheet!N50</f>
@@ -14794,7 +15364,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="I51" s="22">
-        <f>J51-H51</f>
+        <f t="shared" si="3"/>
         <v>0.25260000000000005</v>
       </c>
       <c r="J51">
@@ -14806,9 +15376,9 @@
         <f>dilutions_calculations_sheet!A51</f>
         <v>TMP_IS_19_B</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B52" s="35" t="str">
         <f>dilutions_calculations_sheet!B51</f>
-        <v>0</v>
+        <v>EUP60985_171</v>
       </c>
       <c r="C52" s="19">
         <f>dilutions_calculations_sheet!N51</f>
@@ -14834,7 +15404,7 @@
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="I52" s="22">
-        <f>J52-H52</f>
+        <f t="shared" si="3"/>
         <v>0.25640000000000002</v>
       </c>
       <c r="J52">
@@ -14846,9 +15416,9 @@
         <f>dilutions_calculations_sheet!A52</f>
         <v>TMP_IS_19_C</v>
       </c>
-      <c r="B53" s="35">
+      <c r="B53" s="35" t="str">
         <f>dilutions_calculations_sheet!B52</f>
-        <v>0</v>
+        <v>EUP60985_172</v>
       </c>
       <c r="C53" s="19">
         <f>dilutions_calculations_sheet!N52</f>
@@ -14874,7 +15444,7 @@
         <v>9.2899999999999996E-2</v>
       </c>
       <c r="I53" s="22">
-        <f>J53-H53</f>
+        <f t="shared" si="3"/>
         <v>0.24470000000000003</v>
       </c>
       <c r="J53">
@@ -14886,9 +15456,9 @@
         <f>dilutions_calculations_sheet!A53</f>
         <v>TMP_IS_20_A</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="35" t="str">
         <f>dilutions_calculations_sheet!B53</f>
-        <v>0</v>
+        <v>EUP60985_173</v>
       </c>
       <c r="C54" s="19">
         <f>dilutions_calculations_sheet!N53</f>
@@ -14914,7 +15484,7 @@
         <v>0.1087</v>
       </c>
       <c r="I54" s="22">
-        <f>J54-H54</f>
+        <f t="shared" si="3"/>
         <v>0.22199999999999998</v>
       </c>
       <c r="J54">
@@ -14926,9 +15496,9 @@
         <f>dilutions_calculations_sheet!A54</f>
         <v>TMP_IS_20_B</v>
       </c>
-      <c r="B55" s="35">
+      <c r="B55" s="35" t="str">
         <f>dilutions_calculations_sheet!B54</f>
-        <v>0</v>
+        <v>EUP60985_174</v>
       </c>
       <c r="C55" s="19">
         <f>dilutions_calculations_sheet!N54</f>
@@ -14954,7 +15524,7 @@
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="I55" s="22">
-        <f>J55-H55</f>
+        <f t="shared" si="3"/>
         <v>0.2397</v>
       </c>
       <c r="J55">
@@ -14966,9 +15536,9 @@
         <f>dilutions_calculations_sheet!A55</f>
         <v>TMP_IS_20_C</v>
       </c>
-      <c r="B56" s="35">
+      <c r="B56" s="35" t="str">
         <f>dilutions_calculations_sheet!B55</f>
-        <v>0</v>
+        <v>EUP60985_175</v>
       </c>
       <c r="C56" s="19">
         <f>dilutions_calculations_sheet!N55</f>
@@ -14994,7 +15564,7 @@
         <v>0.1202</v>
       </c>
       <c r="I56" s="22">
-        <f>J56-H56</f>
+        <f t="shared" si="3"/>
         <v>0.22440000000000002</v>
       </c>
       <c r="J56">
@@ -15035,9 +15605,9 @@
         <f>dilutions_calculations_sheet!A56</f>
         <v>TMP_IS_21_A</v>
       </c>
-      <c r="B58" s="35">
+      <c r="B58" s="35" t="str">
         <f>dilutions_calculations_sheet!B56</f>
-        <v>0</v>
+        <v>EUP60985_176</v>
       </c>
       <c r="C58" s="19">
         <f>dilutions_calculations_sheet!N56</f>
@@ -15075,9 +15645,9 @@
         <f>dilutions_calculations_sheet!A57</f>
         <v>TMP_IS_21_B</v>
       </c>
-      <c r="B59" s="35">
+      <c r="B59" s="35" t="str">
         <f>dilutions_calculations_sheet!B57</f>
-        <v>0</v>
+        <v>EUP60985_177</v>
       </c>
       <c r="C59" s="19">
         <f>dilutions_calculations_sheet!N57</f>
@@ -15115,9 +15685,9 @@
         <f>dilutions_calculations_sheet!A58</f>
         <v>TMP_IS_21_C</v>
       </c>
-      <c r="B60" s="35">
+      <c r="B60" s="35" t="str">
         <f>dilutions_calculations_sheet!B58</f>
-        <v>0</v>
+        <v>EUP60985_178</v>
       </c>
       <c r="C60" s="19">
         <f>dilutions_calculations_sheet!N58</f>
@@ -15155,9 +15725,9 @@
         <f>dilutions_calculations_sheet!A59</f>
         <v>TMP_IS_22_A</v>
       </c>
-      <c r="B61" s="35">
+      <c r="B61" s="35" t="str">
         <f>dilutions_calculations_sheet!B59</f>
-        <v>0</v>
+        <v>EUP60985_179</v>
       </c>
       <c r="C61" s="19">
         <f>dilutions_calculations_sheet!N59</f>
@@ -15191,9 +15761,9 @@
         <f>dilutions_calculations_sheet!A60</f>
         <v>TMP_IS_23_A</v>
       </c>
-      <c r="B62" s="35">
+      <c r="B62" s="35" t="str">
         <f>dilutions_calculations_sheet!B60</f>
-        <v>0</v>
+        <v>EUP60985_180</v>
       </c>
       <c r="C62" s="19">
         <f>dilutions_calculations_sheet!N60</f>
@@ -15219,7 +15789,7 @@
         <v>0.27479999999999999</v>
       </c>
       <c r="I62" s="22">
-        <f>J62-H62</f>
+        <f t="shared" ref="I62:I79" si="4">J62-H62</f>
         <v>6.5700000000000036E-2</v>
       </c>
       <c r="J62">
@@ -15231,9 +15801,9 @@
         <f>dilutions_calculations_sheet!A61</f>
         <v>TMP_IS_23_B</v>
       </c>
-      <c r="B63" s="35">
+      <c r="B63" s="35" t="str">
         <f>dilutions_calculations_sheet!B61</f>
-        <v>0</v>
+        <v>EUP60985_181</v>
       </c>
       <c r="C63" s="19">
         <f>dilutions_calculations_sheet!N61</f>
@@ -15259,7 +15829,7 @@
         <v>0.2472</v>
       </c>
       <c r="I63" s="22">
-        <f>J63-H63</f>
+        <f t="shared" si="4"/>
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="J63">
@@ -15271,9 +15841,9 @@
         <f>dilutions_calculations_sheet!A62</f>
         <v>TMP_IS_23_C</v>
       </c>
-      <c r="B64" s="35">
+      <c r="B64" s="35" t="str">
         <f>dilutions_calculations_sheet!B62</f>
-        <v>0</v>
+        <v>EUP60985_182</v>
       </c>
       <c r="C64" s="19">
         <f>dilutions_calculations_sheet!N62</f>
@@ -15299,7 +15869,7 @@
         <v>0.25109999999999999</v>
       </c>
       <c r="I64" s="22">
-        <f>J64-H64</f>
+        <f t="shared" si="4"/>
         <v>8.879999999999999E-2</v>
       </c>
       <c r="J64">
@@ -15311,9 +15881,9 @@
         <f>dilutions_calculations_sheet!A63</f>
         <v>TMP_IS_24_A</v>
       </c>
-      <c r="B65" s="35">
+      <c r="B65" s="35" t="str">
         <f>dilutions_calculations_sheet!B63</f>
-        <v>0</v>
+        <v>EUP60985_183</v>
       </c>
       <c r="C65" s="19">
         <f>dilutions_calculations_sheet!N63</f>
@@ -15339,7 +15909,7 @@
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="I65" s="22">
-        <f>J65-H65</f>
+        <f t="shared" si="4"/>
         <v>0.29400000000000004</v>
       </c>
       <c r="J65">
@@ -15351,9 +15921,9 @@
         <f>dilutions_calculations_sheet!A64</f>
         <v>TMP_IS_24_B</v>
       </c>
-      <c r="B66" s="35">
+      <c r="B66" s="35" t="str">
         <f>dilutions_calculations_sheet!B64</f>
-        <v>0</v>
+        <v>EUP60985_184</v>
       </c>
       <c r="C66" s="19">
         <f>dilutions_calculations_sheet!N64</f>
@@ -15379,7 +15949,7 @@
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="I66" s="22">
-        <f>J66-H66</f>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J66">
@@ -15391,9 +15961,9 @@
         <f>dilutions_calculations_sheet!A65</f>
         <v>TMP_IS_24_C</v>
       </c>
-      <c r="B67" s="35">
+      <c r="B67" s="35" t="str">
         <f>dilutions_calculations_sheet!B65</f>
-        <v>0</v>
+        <v>EUP60985_185</v>
       </c>
       <c r="C67" s="19">
         <f>dilutions_calculations_sheet!N65</f>
@@ -15419,7 +15989,7 @@
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="I67" s="22">
-        <f>J67-H67</f>
+        <f t="shared" si="4"/>
         <v>0.27999999999999997</v>
       </c>
       <c r="J67">
@@ -15431,9 +16001,9 @@
         <f>dilutions_calculations_sheet!A66</f>
         <v>TMP_IS_25_A</v>
       </c>
-      <c r="B68" s="35">
+      <c r="B68" s="35" t="str">
         <f>dilutions_calculations_sheet!B66</f>
-        <v>0</v>
+        <v>EUP60985_186</v>
       </c>
       <c r="C68" s="19">
         <f>dilutions_calculations_sheet!N66</f>
@@ -15459,7 +16029,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="I68" s="22">
-        <f>J68-H68</f>
+        <f t="shared" si="4"/>
         <v>0.28789999999999999</v>
       </c>
       <c r="J68">
@@ -15471,9 +16041,9 @@
         <f>dilutions_calculations_sheet!A67</f>
         <v>TMP_IS_25_B</v>
       </c>
-      <c r="B69" s="35">
+      <c r="B69" s="35" t="str">
         <f>dilutions_calculations_sheet!B67</f>
-        <v>0</v>
+        <v>EUP60985_187</v>
       </c>
       <c r="C69" s="19">
         <f>dilutions_calculations_sheet!N67</f>
@@ -15499,7 +16069,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="I69" s="22">
-        <f>J69-H69</f>
+        <f t="shared" si="4"/>
         <v>0.29530000000000001</v>
       </c>
       <c r="J69">
@@ -15511,9 +16081,9 @@
         <f>dilutions_calculations_sheet!A68</f>
         <v>TMP_IS_25_C</v>
       </c>
-      <c r="B70" s="35">
+      <c r="B70" s="35" t="str">
         <f>dilutions_calculations_sheet!B68</f>
-        <v>0</v>
+        <v>EUP60985_188</v>
       </c>
       <c r="C70" s="19">
         <f>dilutions_calculations_sheet!N68</f>
@@ -15539,7 +16109,7 @@
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="I70" s="22">
-        <f>J70-H70</f>
+        <f t="shared" si="4"/>
         <v>0.30449999999999999</v>
       </c>
       <c r="J70">
@@ -15551,9 +16121,9 @@
         <f>dilutions_calculations_sheet!A69</f>
         <v>TMP_IS_26_A</v>
       </c>
-      <c r="B71" s="35">
+      <c r="B71" s="35" t="str">
         <f>dilutions_calculations_sheet!B69</f>
-        <v>0</v>
+        <v>EUP60985_189</v>
       </c>
       <c r="C71" s="19">
         <f>dilutions_calculations_sheet!N69</f>
@@ -15579,7 +16149,7 @@
         <v>6.3899999999999998E-2</v>
       </c>
       <c r="I71" s="22">
-        <f>J71-H71</f>
+        <f t="shared" si="4"/>
         <v>0.27699999999999997</v>
       </c>
       <c r="J71">
@@ -15591,9 +16161,9 @@
         <f>dilutions_calculations_sheet!A70</f>
         <v>TMP_IS_26_B</v>
       </c>
-      <c r="B72" s="35">
+      <c r="B72" s="35" t="str">
         <f>dilutions_calculations_sheet!B70</f>
-        <v>0</v>
+        <v>EUP60985_190</v>
       </c>
       <c r="C72" s="19">
         <f>dilutions_calculations_sheet!N70</f>
@@ -15619,7 +16189,7 @@
         <v>5.9900000000000002E-2</v>
       </c>
       <c r="I72" s="22">
-        <f>J72-H72</f>
+        <f t="shared" si="4"/>
         <v>0.27639999999999998</v>
       </c>
       <c r="J72">
@@ -15631,9 +16201,9 @@
         <f>dilutions_calculations_sheet!A71</f>
         <v>TMP_IS_26_C</v>
       </c>
-      <c r="B73" s="35">
+      <c r="B73" s="35" t="str">
         <f>dilutions_calculations_sheet!B71</f>
-        <v>0</v>
+        <v>EUP60985_191</v>
       </c>
       <c r="C73" s="19">
         <f>dilutions_calculations_sheet!N71</f>
@@ -15659,7 +16229,7 @@
         <v>6.4100000000000004E-2</v>
       </c>
       <c r="I73" s="22">
-        <f>J73-H73</f>
+        <f t="shared" si="4"/>
         <v>0.27140000000000003</v>
       </c>
       <c r="J73">
@@ -15671,9 +16241,9 @@
         <f>dilutions_calculations_sheet!A72</f>
         <v>TMP_IS_27_A</v>
       </c>
-      <c r="B74" s="35">
+      <c r="B74" s="35" t="str">
         <f>dilutions_calculations_sheet!B72</f>
-        <v>0</v>
+        <v>EUP60985_192</v>
       </c>
       <c r="C74" s="19">
         <f>dilutions_calculations_sheet!N72</f>
@@ -15699,7 +16269,7 @@
         <v>0.1101</v>
       </c>
       <c r="I74" s="22">
-        <f>J74-H74</f>
+        <f t="shared" si="4"/>
         <v>0.23190000000000002</v>
       </c>
       <c r="J74">
@@ -15711,9 +16281,9 @@
         <f>dilutions_calculations_sheet!A73</f>
         <v>TMP_IS_27_B</v>
       </c>
-      <c r="B75" s="35">
+      <c r="B75" s="35" t="str">
         <f>dilutions_calculations_sheet!B73</f>
-        <v>0</v>
+        <v>EUP60985_193</v>
       </c>
       <c r="C75" s="19">
         <f>dilutions_calculations_sheet!N73</f>
@@ -15739,7 +16309,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="I75" s="22">
-        <f>J75-H75</f>
+        <f t="shared" si="4"/>
         <v>0.25280000000000002</v>
       </c>
       <c r="J75">
@@ -15751,9 +16321,9 @@
         <f>dilutions_calculations_sheet!A74</f>
         <v>TMP_IS_27_C</v>
       </c>
-      <c r="B76" s="35">
+      <c r="B76" s="35" t="str">
         <f>dilutions_calculations_sheet!B74</f>
-        <v>0</v>
+        <v>EUP60985_194</v>
       </c>
       <c r="C76" s="19">
         <f>dilutions_calculations_sheet!N74</f>
@@ -15779,7 +16349,7 @@
         <v>9.3600000000000003E-2</v>
       </c>
       <c r="I76" s="22">
-        <f>J76-H76</f>
+        <f t="shared" si="4"/>
         <v>0.24569999999999997</v>
       </c>
       <c r="J76">
@@ -15791,9 +16361,9 @@
         <f>dilutions_calculations_sheet!A75</f>
         <v>TMP_IS_28_A</v>
       </c>
-      <c r="B77" s="35">
+      <c r="B77" s="35" t="str">
         <f>dilutions_calculations_sheet!B75</f>
-        <v>0</v>
+        <v>EUP60985_195</v>
       </c>
       <c r="C77" s="19">
         <f>dilutions_calculations_sheet!N75</f>
@@ -15819,7 +16389,7 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="I77" s="22">
-        <f>J77-H77</f>
+        <f t="shared" si="4"/>
         <v>0.22270000000000001</v>
       </c>
       <c r="J77">
@@ -15831,9 +16401,9 @@
         <f>dilutions_calculations_sheet!A76</f>
         <v>TMP_IS_28_B</v>
       </c>
-      <c r="B78" s="35">
+      <c r="B78" s="35" t="str">
         <f>dilutions_calculations_sheet!B76</f>
-        <v>0</v>
+        <v>EUP60985_196</v>
       </c>
       <c r="C78" s="19">
         <f>dilutions_calculations_sheet!N76</f>
@@ -15859,7 +16429,7 @@
         <v>0.1056</v>
       </c>
       <c r="I78" s="22">
-        <f>J78-H78</f>
+        <f t="shared" si="4"/>
         <v>0.23750000000000002</v>
       </c>
       <c r="J78">
@@ -15871,9 +16441,9 @@
         <f>dilutions_calculations_sheet!A77</f>
         <v>TMP_IS_28_C</v>
       </c>
-      <c r="B79" s="35">
+      <c r="B79" s="35" t="str">
         <f>dilutions_calculations_sheet!B77</f>
-        <v>0</v>
+        <v>EUP60985_197</v>
       </c>
       <c r="C79" s="19">
         <f>dilutions_calculations_sheet!N77</f>
@@ -15899,7 +16469,7 @@
         <v>0.1115</v>
       </c>
       <c r="I79" s="22">
-        <f>J79-H79</f>
+        <f t="shared" si="4"/>
         <v>0.23170000000000002</v>
       </c>
       <c r="J79">
@@ -15911,9 +16481,9 @@
         <f>dilutions_calculations_sheet!A78</f>
         <v>TMP_IS_29_A</v>
       </c>
-      <c r="B80" s="35">
+      <c r="B80" s="35" t="str">
         <f>dilutions_calculations_sheet!B78</f>
-        <v>0</v>
+        <v>EUP60985_198</v>
       </c>
       <c r="C80" s="19">
         <f>dilutions_calculations_sheet!N78</f>
@@ -15947,9 +16517,9 @@
         <f>dilutions_calculations_sheet!A79</f>
         <v>TMP_IS_30_A</v>
       </c>
-      <c r="B81" s="35">
+      <c r="B81" s="35" t="str">
         <f>dilutions_calculations_sheet!B79</f>
-        <v>0</v>
+        <v>EUP60985_199</v>
       </c>
       <c r="C81" s="19">
         <f>dilutions_calculations_sheet!N79</f>
@@ -15987,9 +16557,9 @@
         <f>dilutions_calculations_sheet!A80</f>
         <v>TMP_IS_30_B</v>
       </c>
-      <c r="B82" s="35">
+      <c r="B82" s="35" t="str">
         <f>dilutions_calculations_sheet!B80</f>
-        <v>0</v>
+        <v>EUP60985_200</v>
       </c>
       <c r="C82" s="19">
         <f>dilutions_calculations_sheet!N80</f>
@@ -16027,9 +16597,9 @@
         <f>dilutions_calculations_sheet!A81</f>
         <v>TMP_IS_30_C</v>
       </c>
-      <c r="B83" s="35">
+      <c r="B83" s="35" t="str">
         <f>dilutions_calculations_sheet!B81</f>
-        <v>0</v>
+        <v>EUP60985_201</v>
       </c>
       <c r="C83" s="19">
         <f>dilutions_calculations_sheet!N81</f>
@@ -16067,9 +16637,9 @@
         <f>dilutions_calculations_sheet!A82</f>
         <v>TMP_IS_31_A</v>
       </c>
-      <c r="B84" s="35">
+      <c r="B84" s="35" t="str">
         <f>dilutions_calculations_sheet!B82</f>
-        <v>0</v>
+        <v>EUP60985_202</v>
       </c>
       <c r="C84" s="19">
         <f>dilutions_calculations_sheet!N82</f>
@@ -16136,9 +16706,9 @@
         <f>dilutions_calculations_sheet!A83</f>
         <v>TMP_IS_31_B</v>
       </c>
-      <c r="B86" s="35">
+      <c r="B86" s="35" t="str">
         <f>dilutions_calculations_sheet!B83</f>
-        <v>0</v>
+        <v>EUP60985_203</v>
       </c>
       <c r="C86" s="19">
         <f>dilutions_calculations_sheet!N83</f>
@@ -16164,7 +16734,7 @@
         <v>8.3099999999999993E-2</v>
       </c>
       <c r="I86" s="22">
-        <f>J86-H86</f>
+        <f t="shared" ref="I86:I99" si="5">J86-H86</f>
         <v>0.25940000000000002</v>
       </c>
       <c r="J86">
@@ -16176,9 +16746,9 @@
         <f>dilutions_calculations_sheet!A84</f>
         <v>TMP_IS_31_C</v>
       </c>
-      <c r="B87" s="35">
+      <c r="B87" s="35" t="str">
         <f>dilutions_calculations_sheet!B84</f>
-        <v>0</v>
+        <v>EUP60985_204</v>
       </c>
       <c r="C87" s="19">
         <f>dilutions_calculations_sheet!N84</f>
@@ -16204,7 +16774,7 @@
         <v>9.5799999999999996E-2</v>
       </c>
       <c r="I87" s="22">
-        <f>J87-H87</f>
+        <f t="shared" si="5"/>
         <v>0.24559999999999998</v>
       </c>
       <c r="J87">
@@ -16216,9 +16786,9 @@
         <f>dilutions_calculations_sheet!A85</f>
         <v>TMP_IS_32_A</v>
       </c>
-      <c r="B88" s="35">
+      <c r="B88" s="35" t="str">
         <f>dilutions_calculations_sheet!B85</f>
-        <v>0</v>
+        <v>EUP60985_205</v>
       </c>
       <c r="C88" s="19">
         <f>dilutions_calculations_sheet!N85</f>
@@ -16244,7 +16814,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="I88" s="22">
-        <f>J88-H88</f>
+        <f t="shared" si="5"/>
         <v>0.3115</v>
       </c>
       <c r="J88">
@@ -16256,9 +16826,9 @@
         <f>dilutions_calculations_sheet!A86</f>
         <v>TMP_IS_32_B</v>
       </c>
-      <c r="B89" s="35">
+      <c r="B89" s="35" t="str">
         <f>dilutions_calculations_sheet!B86</f>
-        <v>0</v>
+        <v>EUP60985_206</v>
       </c>
       <c r="C89" s="19">
         <f>dilutions_calculations_sheet!N86</f>
@@ -16284,7 +16854,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I89" s="22">
-        <f>J89-H89</f>
+        <f t="shared" si="5"/>
         <v>0.31649999999999995</v>
       </c>
       <c r="J89">
@@ -16296,9 +16866,9 @@
         <f>dilutions_calculations_sheet!A87</f>
         <v>TMP_IS_32_C</v>
       </c>
-      <c r="B90" s="35">
+      <c r="B90" s="35" t="str">
         <f>dilutions_calculations_sheet!B87</f>
-        <v>0</v>
+        <v>EUP60985_207</v>
       </c>
       <c r="C90" s="19">
         <f>dilutions_calculations_sheet!N87</f>
@@ -16324,7 +16894,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I90" s="22">
-        <f>J90-H90</f>
+        <f t="shared" si="5"/>
         <v>0.31720000000000004</v>
       </c>
       <c r="J90">
@@ -16336,9 +16906,9 @@
         <f>dilutions_calculations_sheet!A88</f>
         <v>TMP_IS_33_A</v>
       </c>
-      <c r="B91" s="35">
+      <c r="B91" s="35" t="str">
         <f>dilutions_calculations_sheet!B88</f>
-        <v>0</v>
+        <v>EUP60985_208</v>
       </c>
       <c r="C91" s="19">
         <f>dilutions_calculations_sheet!N88</f>
@@ -16364,7 +16934,7 @@
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="I91" s="22">
-        <f>J91-H91</f>
+        <f t="shared" si="5"/>
         <v>0.29499999999999998</v>
       </c>
       <c r="J91">
@@ -16376,9 +16946,9 @@
         <f>dilutions_calculations_sheet!A89</f>
         <v>TMP_IS_33_B</v>
       </c>
-      <c r="B92" s="35">
+      <c r="B92" s="35" t="str">
         <f>dilutions_calculations_sheet!B89</f>
-        <v>0</v>
+        <v>EUP60985_209</v>
       </c>
       <c r="C92" s="19">
         <f>dilutions_calculations_sheet!N89</f>
@@ -16404,7 +16974,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="I92" s="22">
-        <f>J92-H92</f>
+        <f t="shared" si="5"/>
         <v>0.29810000000000003</v>
       </c>
       <c r="J92">
@@ -16416,9 +16986,9 @@
         <f>dilutions_calculations_sheet!A90</f>
         <v>TMP_IS_33_C</v>
       </c>
-      <c r="B93" s="35">
+      <c r="B93" s="35" t="str">
         <f>dilutions_calculations_sheet!B90</f>
-        <v>0</v>
+        <v>EUP60985_210</v>
       </c>
       <c r="C93" s="19">
         <f>dilutions_calculations_sheet!N90</f>
@@ -16444,7 +17014,7 @@
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="I93" s="22">
-        <f>J93-H93</f>
+        <f t="shared" si="5"/>
         <v>0.30170000000000002</v>
       </c>
       <c r="J93">
@@ -16456,9 +17026,9 @@
         <f>dilutions_calculations_sheet!A91</f>
         <v>TMP_IS_34_A</v>
       </c>
-      <c r="B94" s="35">
+      <c r="B94" s="35" t="str">
         <f>dilutions_calculations_sheet!B91</f>
-        <v>0</v>
+        <v>EUP60985_211</v>
       </c>
       <c r="C94" s="19">
         <f>dilutions_calculations_sheet!N91</f>
@@ -16484,7 +17054,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I94" s="22">
-        <f>J94-H94</f>
+        <f t="shared" si="5"/>
         <v>0.28120000000000001</v>
       </c>
       <c r="J94">
@@ -16496,9 +17066,9 @@
         <f>dilutions_calculations_sheet!A92</f>
         <v>TMP_IS_34_B</v>
       </c>
-      <c r="B95" s="35">
+      <c r="B95" s="35" t="str">
         <f>dilutions_calculations_sheet!B92</f>
-        <v>0</v>
+        <v>EUP60985_212</v>
       </c>
       <c r="C95" s="19">
         <f>dilutions_calculations_sheet!N92</f>
@@ -16524,7 +17094,7 @@
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="I95" s="22">
-        <f>J95-H95</f>
+        <f t="shared" si="5"/>
         <v>0.28549999999999998</v>
       </c>
       <c r="J95">
@@ -16536,9 +17106,9 @@
         <f>dilutions_calculations_sheet!A93</f>
         <v>TMP_IS_34_C</v>
       </c>
-      <c r="B96" s="35">
+      <c r="B96" s="35" t="str">
         <f>dilutions_calculations_sheet!B93</f>
-        <v>0</v>
+        <v>EUP60985_213</v>
       </c>
       <c r="C96" s="19">
         <f>dilutions_calculations_sheet!N93</f>
@@ -16564,7 +17134,7 @@
         <v>5.96E-2</v>
       </c>
       <c r="I96" s="22">
-        <f>J96-H96</f>
+        <f t="shared" si="5"/>
         <v>0.28400000000000003</v>
       </c>
       <c r="J96">
@@ -16576,9 +17146,9 @@
         <f>dilutions_calculations_sheet!A94</f>
         <v>TMP_IS_35_A</v>
       </c>
-      <c r="B97" s="35">
+      <c r="B97" s="35" t="str">
         <f>dilutions_calculations_sheet!B94</f>
-        <v>0</v>
+        <v>EUP60985_214</v>
       </c>
       <c r="C97" s="19">
         <f>dilutions_calculations_sheet!N94</f>
@@ -16604,7 +17174,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="I97" s="22">
-        <f>J97-H97</f>
+        <f t="shared" si="5"/>
         <v>0.25290000000000001</v>
       </c>
       <c r="J97">
@@ -16616,9 +17186,9 @@
         <f>dilutions_calculations_sheet!A95</f>
         <v>TMP_IS_35_B</v>
       </c>
-      <c r="B98" s="35">
+      <c r="B98" s="35" t="str">
         <f>dilutions_calculations_sheet!B95</f>
-        <v>0</v>
+        <v>EUP60985_215</v>
       </c>
       <c r="C98" s="19">
         <f>dilutions_calculations_sheet!N95</f>
@@ -16644,7 +17214,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
       <c r="I98" s="22">
-        <f>J98-H98</f>
+        <f t="shared" si="5"/>
         <v>0.25470000000000004</v>
       </c>
       <c r="J98">
@@ -16656,9 +17226,9 @@
         <f>dilutions_calculations_sheet!A96</f>
         <v>TMP_IS_35_C</v>
       </c>
-      <c r="B99" s="35">
+      <c r="B99" s="35" t="str">
         <f>dilutions_calculations_sheet!B96</f>
-        <v>0</v>
+        <v>EUP60985_216</v>
       </c>
       <c r="C99" s="19">
         <f>dilutions_calculations_sheet!N96</f>
@@ -16684,7 +17254,7 @@
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="I99" s="22">
-        <f>J99-H99</f>
+        <f t="shared" si="5"/>
         <v>0.25490000000000002</v>
       </c>
       <c r="J99">
@@ -16696,9 +17266,9 @@
         <f>dilutions_calculations_sheet!A97</f>
         <v>TMP_IS_36_A</v>
       </c>
-      <c r="B100" s="35">
+      <c r="B100" s="35" t="str">
         <f>dilutions_calculations_sheet!B97</f>
-        <v>0</v>
+        <v>EUP60985_217</v>
       </c>
       <c r="C100" s="19">
         <f>dilutions_calculations_sheet!N97</f>
@@ -16732,9 +17302,9 @@
         <f>dilutions_calculations_sheet!A98</f>
         <v>TMP_IS_37_A</v>
       </c>
-      <c r="B101" s="35">
+      <c r="B101" s="35" t="str">
         <f>dilutions_calculations_sheet!B98</f>
-        <v>0</v>
+        <v>EUP60985_218</v>
       </c>
       <c r="C101" s="19">
         <f>dilutions_calculations_sheet!N98</f>
@@ -16760,7 +17330,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="I101" s="22">
-        <f>J101-H101</f>
+        <f t="shared" ref="I101:I112" si="6">J101-H101</f>
         <v>0.19360000000000002</v>
       </c>
       <c r="J101">
@@ -16772,9 +17342,9 @@
         <f>dilutions_calculations_sheet!A99</f>
         <v>TMP_IS_37_B</v>
       </c>
-      <c r="B102" s="35">
+      <c r="B102" s="35" t="str">
         <f>dilutions_calculations_sheet!B99</f>
-        <v>0</v>
+        <v>EUP60985_219</v>
       </c>
       <c r="C102" s="19">
         <f>dilutions_calculations_sheet!N99</f>
@@ -16800,7 +17370,7 @@
         <v>0.1244</v>
       </c>
       <c r="I102" s="22">
-        <f>J102-H102</f>
+        <f t="shared" si="6"/>
         <v>0.21049999999999996</v>
       </c>
       <c r="J102">
@@ -16812,9 +17382,9 @@
         <f>dilutions_calculations_sheet!A100</f>
         <v>TMP_IS_37_C</v>
       </c>
-      <c r="B103" s="35">
+      <c r="B103" s="35" t="str">
         <f>dilutions_calculations_sheet!B100</f>
-        <v>0</v>
+        <v>EUP60985_220</v>
       </c>
       <c r="C103" s="19">
         <f>dilutions_calculations_sheet!N100</f>
@@ -16840,7 +17410,7 @@
         <v>0.1595</v>
       </c>
       <c r="I103" s="22">
-        <f>J103-H103</f>
+        <f t="shared" si="6"/>
         <v>0.18039999999999998</v>
       </c>
       <c r="J103">
@@ -16852,9 +17422,9 @@
         <f>dilutions_calculations_sheet!A101</f>
         <v>TMP_IS_38_A</v>
       </c>
-      <c r="B104" s="35">
+      <c r="B104" s="35" t="str">
         <f>dilutions_calculations_sheet!B101</f>
-        <v>0</v>
+        <v>EUP60985_221</v>
       </c>
       <c r="C104" s="19">
         <f>dilutions_calculations_sheet!N101</f>
@@ -16880,7 +17450,7 @@
         <v>0.1741</v>
       </c>
       <c r="I104" s="22">
-        <f>J104-H104</f>
+        <f t="shared" si="6"/>
         <v>0.16840000000000002</v>
       </c>
       <c r="J104">
@@ -16892,9 +17462,9 @@
         <f>dilutions_calculations_sheet!A102</f>
         <v>TMP_IS_38_B</v>
       </c>
-      <c r="B105" s="35">
+      <c r="B105" s="35" t="str">
         <f>dilutions_calculations_sheet!B102</f>
-        <v>0</v>
+        <v>EUP60985_222</v>
       </c>
       <c r="C105" s="19">
         <f>dilutions_calculations_sheet!N102</f>
@@ -16920,7 +17490,7 @@
         <v>0.16270000000000001</v>
       </c>
       <c r="I105" s="22">
-        <f>J105-H105</f>
+        <f t="shared" si="6"/>
         <v>0.17380000000000001</v>
       </c>
       <c r="J105">
@@ -16932,9 +17502,9 @@
         <f>dilutions_calculations_sheet!A103</f>
         <v>TMP_IS_38_C</v>
       </c>
-      <c r="B106" s="35">
+      <c r="B106" s="35" t="str">
         <f>dilutions_calculations_sheet!B103</f>
-        <v>0</v>
+        <v>EUP60985_223</v>
       </c>
       <c r="C106" s="19">
         <f>dilutions_calculations_sheet!N103</f>
@@ -16960,7 +17530,7 @@
         <v>0.18659999999999999</v>
       </c>
       <c r="I106" s="22">
-        <f>J106-H106</f>
+        <f t="shared" si="6"/>
         <v>0.15800000000000003</v>
       </c>
       <c r="J106">
@@ -16972,9 +17542,9 @@
         <f>dilutions_calculations_sheet!A104</f>
         <v>TMP_IS_39_A</v>
       </c>
-      <c r="B107" s="35">
+      <c r="B107" s="35" t="str">
         <f>dilutions_calculations_sheet!B104</f>
-        <v>0</v>
+        <v>EUP60985_224</v>
       </c>
       <c r="C107" s="19">
         <f>dilutions_calculations_sheet!N104</f>
@@ -17000,7 +17570,7 @@
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="I107" s="22">
-        <f>J107-H107</f>
+        <f t="shared" si="6"/>
         <v>0.32090000000000002</v>
       </c>
       <c r="J107">
@@ -17012,9 +17582,9 @@
         <f>dilutions_calculations_sheet!A105</f>
         <v>TMP_IS_39_B</v>
       </c>
-      <c r="B108" s="35">
+      <c r="B108" s="35" t="str">
         <f>dilutions_calculations_sheet!B105</f>
-        <v>0</v>
+        <v>EUP60985_225</v>
       </c>
       <c r="C108" s="19">
         <f>dilutions_calculations_sheet!N105</f>
@@ -17040,7 +17610,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="I108" s="22">
-        <f>J108-H108</f>
+        <f t="shared" si="6"/>
         <v>0.3196</v>
       </c>
       <c r="J108">
@@ -17052,9 +17622,9 @@
         <f>dilutions_calculations_sheet!A106</f>
         <v>TMP_IS_39_C</v>
       </c>
-      <c r="B109" s="35">
+      <c r="B109" s="35" t="str">
         <f>dilutions_calculations_sheet!B106</f>
-        <v>0</v>
+        <v>EUP60985_226</v>
       </c>
       <c r="C109" s="19">
         <f>dilutions_calculations_sheet!N106</f>
@@ -17080,7 +17650,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="I109" s="22">
-        <f>J109-H109</f>
+        <f t="shared" si="6"/>
         <v>0.32069999999999999</v>
       </c>
       <c r="J109">
@@ -17092,9 +17662,9 @@
         <f>dilutions_calculations_sheet!A107</f>
         <v>TMP_IS_40_A</v>
       </c>
-      <c r="B110" s="35">
+      <c r="B110" s="35" t="str">
         <f>dilutions_calculations_sheet!B107</f>
-        <v>0</v>
+        <v>EUP60985_227</v>
       </c>
       <c r="C110" s="19">
         <f>dilutions_calculations_sheet!N107</f>
@@ -17120,7 +17690,7 @@
         <v>2.92E-2</v>
       </c>
       <c r="I110" s="22">
-        <f>J110-H110</f>
+        <f t="shared" si="6"/>
         <v>0.31859999999999999</v>
       </c>
       <c r="J110">
@@ -17132,9 +17702,9 @@
         <f>dilutions_calculations_sheet!A108</f>
         <v>TMP_IS_40_B</v>
       </c>
-      <c r="B111" s="35">
+      <c r="B111" s="35" t="str">
         <f>dilutions_calculations_sheet!B108</f>
-        <v>0</v>
+        <v>EUP60985_228</v>
       </c>
       <c r="C111" s="19">
         <f>dilutions_calculations_sheet!N108</f>
@@ -17160,7 +17730,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I111" s="22">
-        <f>J111-H111</f>
+        <f t="shared" si="6"/>
         <v>0.31719999999999998</v>
       </c>
       <c r="J111">
@@ -17172,9 +17742,9 @@
         <f>dilutions_calculations_sheet!A109</f>
         <v>TMP_IS_40_C</v>
       </c>
-      <c r="B112" s="35">
+      <c r="B112" s="35" t="str">
         <f>dilutions_calculations_sheet!B109</f>
-        <v>0</v>
+        <v>EUP60985_229</v>
       </c>
       <c r="C112" s="19">
         <f>dilutions_calculations_sheet!N109</f>
@@ -17200,7 +17770,7 @@
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="I112" s="22">
-        <f>J112-H112</f>
+        <f t="shared" si="6"/>
         <v>0.31429999999999997</v>
       </c>
       <c r="J112">
@@ -17241,9 +17811,9 @@
         <f>dilutions_calculations_sheet!A110</f>
         <v>TMP_IS_41_A</v>
       </c>
-      <c r="B114" s="35">
+      <c r="B114" s="35" t="str">
         <f>dilutions_calculations_sheet!B110</f>
-        <v>0</v>
+        <v>EUP60985_230</v>
       </c>
       <c r="C114" s="27">
         <f>dilutions_calculations_sheet!N110</f>
@@ -17269,7 +17839,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="I114" s="22">
-        <f>J114-H114</f>
+        <f t="shared" ref="I114:I119" si="7">J114-H114</f>
         <v>0.29270000000000002</v>
       </c>
       <c r="J114">
@@ -17281,9 +17851,9 @@
         <f>dilutions_calculations_sheet!A111</f>
         <v>TMP_IS_41_B</v>
       </c>
-      <c r="B115" s="35">
+      <c r="B115" s="35" t="str">
         <f>dilutions_calculations_sheet!B111</f>
-        <v>0</v>
+        <v>EUP60985_231</v>
       </c>
       <c r="C115" s="27">
         <f>dilutions_calculations_sheet!N111</f>
@@ -17309,7 +17879,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="I115" s="22">
-        <f>J115-H115</f>
+        <f t="shared" si="7"/>
         <v>0.29300000000000004</v>
       </c>
       <c r="J115">
@@ -17321,9 +17891,9 @@
         <f>dilutions_calculations_sheet!A112</f>
         <v>TMP_IS_41_C</v>
       </c>
-      <c r="B116" s="35">
+      <c r="B116" s="35" t="str">
         <f>dilutions_calculations_sheet!B112</f>
-        <v>0</v>
+        <v>EUP60985_232</v>
       </c>
       <c r="C116" s="27">
         <f>dilutions_calculations_sheet!N112</f>
@@ -17349,7 +17919,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="I116" s="22">
-        <f>J116-H116</f>
+        <f t="shared" si="7"/>
         <v>0.29599999999999999</v>
       </c>
       <c r="J116">
@@ -17361,9 +17931,9 @@
         <f>dilutions_calculations_sheet!A113</f>
         <v>TMP_IS_42_A</v>
       </c>
-      <c r="B117" s="35">
+      <c r="B117" s="35" t="str">
         <f>dilutions_calculations_sheet!B113</f>
-        <v>0</v>
+        <v>EUP60985_233</v>
       </c>
       <c r="C117" s="27">
         <f>dilutions_calculations_sheet!N113</f>
@@ -17389,7 +17959,7 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="I117" s="22">
-        <f>J117-H117</f>
+        <f t="shared" si="7"/>
         <v>0.26700000000000002</v>
       </c>
       <c r="J117">
@@ -17401,9 +17971,9 @@
         <f>dilutions_calculations_sheet!A114</f>
         <v>TMP_IS_42_B</v>
       </c>
-      <c r="B118" s="35">
+      <c r="B118" s="35" t="str">
         <f>dilutions_calculations_sheet!B114</f>
-        <v>0</v>
+        <v>EUP60985_234</v>
       </c>
       <c r="C118" s="27">
         <f>dilutions_calculations_sheet!N114</f>
@@ -17429,7 +17999,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I118" s="22">
-        <f>J118-H118</f>
+        <f t="shared" si="7"/>
         <v>0.27889999999999998</v>
       </c>
       <c r="J118">
@@ -17441,9 +18011,9 @@
         <f>dilutions_calculations_sheet!A115</f>
         <v>TMP_IS_42_C</v>
       </c>
-      <c r="B119" s="42">
+      <c r="B119" s="42" t="str">
         <f>dilutions_calculations_sheet!B115</f>
-        <v>0</v>
+        <v>EUP60985_235</v>
       </c>
       <c r="C119" s="43">
         <f>dilutions_calculations_sheet!N115</f>
@@ -17469,7 +18039,7 @@
         <v>7.5200000000000003E-2</v>
       </c>
       <c r="I119" s="47">
-        <f>J119-H119</f>
+        <f t="shared" si="7"/>
         <v>0.27100000000000002</v>
       </c>
       <c r="J119">
@@ -18135,17 +18705,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18154,7 +18713,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DC853A563ABF64B8421887057055B0F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73e5d7f23b6143b72c394d0b791b373d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="03570766-e33a-4164-8943-6d32a7ac417a" xmlns:ns3="5cece13e-3376-4417-9525-be60b11a89a8" xmlns:ns4="482683a9-e61d-4853-b10b-3f4a908e17aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd41d5c3e91c11ef649cb8e5f5e12511" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="03570766-e33a-4164-8943-6d32a7ac417a"/>
@@ -18382,25 +18941,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF21F518-5840-4B9C-B7A7-C68FEFA76CF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="482683a9-e61d-4853-b10b-3f4a908e17aa"/>
-    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7F15B3-A81F-4A71-B0B7-DFC0AD11F1D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -18408,7 +18960,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A0AA8-69A1-4E24-B4DE-BB19F441F5A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18426,4 +18978,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF21F518-5840-4B9C-B7A7-C68FEFA76CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="482683a9-e61d-4853-b10b-3f4a908e17aa"/>
+    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>